--- a/CH-035 Up and Down Grades.xlsx
+++ b/CH-035 Up and Down Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{8D358D2D-48C3-49C1-BABF-9FE493F7DC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E184C166-C9ED-4002-BA51-5784DA505488}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298DA3E-8AB0-4836-B2A0-2E4AEBA38F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -471,14 +471,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1015,20 +1015,20 @@
   <sheetData>
     <row r="1" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1320,7 +1320,7 @@
       <c r="Z7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="32" t="s">
+      <c r="AA7" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1369,10 +1369,10 @@
       <c r="Y8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z8" s="33" t="s">
+      <c r="Z8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AA8" s="32" t="s">
+      <c r="AA8" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="26"/>
-      <c r="N16" s="32" t="s">
+      <c r="N16" s="29" t="s">
         <v>17</v>
       </c>
       <c r="O16">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="26"/>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="29" t="s">
         <v>10</v>
       </c>
       <c r="O17">
@@ -1772,7 +1772,7 @@
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="26"/>
-      <c r="N18" s="32" t="s">
+      <c r="N18" s="29" t="s">
         <v>12</v>
       </c>
       <c r="O18">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="26"/>
-      <c r="N19" s="32" t="s">
+      <c r="N19" s="29" t="s">
         <v>16</v>
       </c>
       <c r="O19">
@@ -1982,7 +1982,7 @@
         <v>12</v>
       </c>
       <c r="H29" s="24"/>
-      <c r="N29" s="34" t="str" cm="1">
+      <c r="N29" s="31" t="str" cm="1">
         <f t="array" ref="N29:Q33">_xlfn.LET(_xlpm.T,B2:D37,_xlpm.TT,_xlfn.DROP(_xlpm.T,1),_xlpm.M,_xlfn.TAKE(_xlpm.TT,,1),_xlpm.MM,MONTH(_xlpm.M),_xlpm.MMM,IF(_xlpm.MM=12,1,_xlpm.MM+1),_xlpm.AG,_xlfn.CHOOSECOLS(_xlpm.TT,2),_xlpm.AGU,_xlfn.UNIQUE(_xlpm.AG),_xlpm.G,_xlfn.SWITCH(_xlfn.TAKE(_xlpm.TT,,-1),"A+",1,"A",2,"B",3,"C",4),_xlpm.GCME,_xlfn.LAMBDA(_xlpm.A,_xlpm.ID,_xlfn.TAKE(_xlfn._xlws.FILTER(_xlpm.G,(_xlpm.MMM=_xlpm.A)*(_xlpm.AG=_xlpm.ID)),-1)),_xlpm.GPM,_xlfn.LAMBDA(_xlpm.A,_xlpm.ID,_xlfn.TAKE(_xlfn._xlws.FILTER(_xlpm.G,(_xlpm.MMM&lt;=_xlpm.A-1)*(_xlpm.AG=_xlpm.ID)),-1)),_xlpm.R,_xlfn.LAMBDA(_xlpm.M,_xlfn.MAP(_xlpm.AGU,_xlfn.LAMBDA(_xlpm.A,_xlpm.GCME(_xlpm.M,_xlpm.A)-_xlpm.GPM(_xlpm.M,_xlpm.A)))),_xlpm.RR,_xlfn.LAMBDA(_xlpm.B,_xlfn.CONCAT(_xlpm.B-1,SUM(--IFERROR(_xlpm.R(_xlpm.B)&lt;0,0)),SUM(--IFERROR(_xlpm.R(_xlpm.B)=0,0)),SUM(--IFERROR(_xlpm.R(_xlpm.B)&gt;0,0)))),_xlpm.NC,_xlfn.MAP(_xlfn.SEQUENCE(4,,2),_xlfn.LAMBDA(_xlpm.A,_xlpm.RR(_xlpm.A))),_xlfn.VSTACK(_xlfn.HSTACK("Month","No Upgrade","No Change","No Down-Grade"),MID(_xlpm.NC,_xlfn.SEQUENCE(,4),1)))</f>
         <v>Month</v>
       </c>
@@ -2006,7 +2006,7 @@
       <c r="D30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="34" t="str" cm="1">
+      <c r="F30" s="31" t="str" cm="1">
         <f t="array" ref="F30:I34">_xlfn.REDUCE(_xlfn.HSTACK("Month","No "&amp;{"Upgrade","Change","Down-grade"}), {12,1,2,3}, _xlfn.LAMBDA(_xlpm.i,_xlpm.x, _xlfn.LET(_xlpm.j, MOD(_xlpm.x+1, 12), _xlpm.B, MONTH(B3:B37), _xlpm.U, _xlfn.UNIQUE(C3:C37), _xlpm.F, _xlfn.LAMBDA(_xlpm.y, _xlfn.XMATCH(_xlfn.XLOOKUP(_xlpm.y&amp;_xlpm.U, _xlpm.B&amp;C3:C37, D3:D37,,,-1), {"A+","A","B","C"})), _xlpm.M,_xlfn.TOCOL(_xlpm.F(_xlpm.j)-_xlfn.IFNA(_xlpm.F(_xlpm.x), 4), 2), _xlfn.VSTACK(_xlpm.i, _xlfn.HSTACK(_xlpm.j, SUM(N(_xlpm.M&lt;0)), SUM(N(_xlpm.M=0)), SUM(N(_xlpm.M&gt;0)))))))</f>
         <v>Month</v>
       </c>
@@ -2042,7 +2042,7 @@
       <c r="D31" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="31">
         <v>1</v>
       </c>
       <c r="G31">
@@ -2077,7 +2077,7 @@
       <c r="D32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="31">
         <v>2</v>
       </c>
       <c r="G32">
@@ -2112,7 +2112,7 @@
       <c r="D33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="31">
         <v>3</v>
       </c>
       <c r="G33">
@@ -2147,7 +2147,7 @@
       <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="31">
         <v>4</v>
       </c>
       <c r="G34">
@@ -2170,7 +2170,7 @@
       <c r="D35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="34"/>
+      <c r="F35" s="31"/>
       <c r="H35" s="24"/>
     </row>
     <row r="36" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2183,7 +2183,7 @@
       <c r="D36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="34"/>
+      <c r="F36" s="31"/>
       <c r="H36" s="24"/>
     </row>
     <row r="37" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2196,51 +2196,176 @@
       <c r="D37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="H37" s="24"/>
+      <c r="F37" s="31" t="str" cm="1">
+        <f t="array" ref="F37:I41">_xlfn.REDUCE(_xlfn.HSTACK("Month","No "&amp;{"Upgrade","Change","Down-grade"}), {12,1,2,3},
+        _xlfn.LAMBDA(_xlpm.i,_xlpm.x,
+                   _xlfn.LET( _xlpm.j, MOD(_xlpm.x+1, 12),
+                        _xlpm.B, MONTH(B3:B37),
+                        _xlpm.U, _xlfn.UNIQUE(C3:C37),
+                        _xlpm.F, _xlfn.LAMBDA(_xlpm.y, _xlfn.XMATCH(_xlfn.XLOOKUP(_xlpm.y&amp;_xlpm.U, _xlpm.B&amp;C3:C37, D3:D37,,,-1), {"A+","A","B","C"})),
+                        _xlpm.M,_xlfn.TOCOL(_xlpm.F(_xlpm.j)-_xlfn.IFNA(_xlpm.F(_xlpm.x), 4), 2),
+                        _xlfn.VSTACK(_xlpm.i,
+                               _xlfn.HSTACK(_xlpm.j,
+                                      SUM(N(_xlpm.M&lt;0)),
+                                      SUM(N(_xlpm.M=0)),
+                                      SUM(N(_xlpm.M&gt;0))
+                                     )
+                               )
+                      )
+               )
+         )</f>
+        <v>Month</v>
+      </c>
+      <c r="G37" t="str">
+        <v>No Upgrade</v>
+      </c>
+      <c r="H37" s="24" t="str">
+        <v>No Change</v>
+      </c>
+      <c r="I37" t="str">
+        <v>No Down-grade</v>
+      </c>
+      <c r="L37" cm="1">
+        <f t="array" ref="L37:L41">_xlfn.REDUCE(_xlfn.HSTACK("Month","No "&amp;{"Upgrade","Change","Down-grade"}), {12,1,2,3},
+        _xlfn.LAMBDA(_xlpm.i,_xlpm.x,
+                   _xlfn.LET(_xlpm.j, MOD(_xlpm.x+1, 12),
+                        _xlpm.B, MONTH(B3:B37),
+                        _xlpm.U, _xlfn.UNIQUE(C3:C37),
+                        _xlpm.F, _xlfn.LAMBDA(_xlpm.y, _xlfn.XMATCH(_xlfn.XLOOKUP(_xlpm.y&amp;_xlpm.U, _xlpm.B&amp;C3:C37, D3:D37,,,-1), {"A+","A","B","C"})),
+                        _xlpm.M,_xlfn.TOCOL(_xlpm.F(_xlpm.j)-_xlfn.IFNA(_xlpm.F(_xlpm.x), 4), 2),
+                        _xlfn.TOCOL(_xlpm.F(1)-_xlfn.IFNA(_xlpm.F(_xlpm.x), 4), 2)
+                       )
+               )
+         )</f>
+        <v>-3</v>
+      </c>
     </row>
     <row r="38" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="C38" s="28"/>
-      <c r="F38" s="34"/>
-      <c r="H38" s="24"/>
+      <c r="F38" s="31">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38" s="24">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
-      <c r="F39" s="34"/>
-      <c r="H39" s="24"/>
+      <c r="F39" s="31">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" s="24">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
-      <c r="F40" s="34"/>
-      <c r="H40" s="24"/>
+      <c r="F40" s="31">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" s="24">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
-      <c r="H41" s="24"/>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41" s="24">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>-1</v>
+      </c>
+      <c r="O41" cm="1">
+        <f t="array" ref="O41:O45">_xlfn.XMATCH(_xlfn.XLOOKUP("12"&amp;_xlfn.UNIQUE(C3:C37), MONTH(B3:B37)&amp;C3:C37, D3:D37,,,-1), {"A+","A","B","C"})</f>
+        <v>2</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
       <c r="H42" s="24"/>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="43" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="28"/>
       <c r="H43" s="24"/>
+      <c r="O43">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="44" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
       <c r="H44" s="24"/>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="28"/>
       <c r="H45" s="24"/>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="46" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
@@ -2251,88 +2376,166 @@
       <c r="B47" s="27"/>
       <c r="C47" s="28"/>
       <c r="H47" s="24"/>
+      <c r="L47" t="str" cm="1">
+        <f t="array" ref="L47:O51">_xlfn.LET(_xlpm.T,B2:D37,
+     _xlpm.TT,_xlfn.DROP(_xlpm.T,1),
+     _xlpm.M,_xlfn.TAKE(_xlpm.TT,,1),
+     _xlpm.MM,MONTH(_xlpm.M),
+     _xlpm.MMM,IF(_xlpm.MM=12,1,_xlpm.MM+1),
+     _xlpm.AG,_xlfn.CHOOSECOLS(_xlpm.TT,2),
+     _xlpm.AGU,_xlfn.UNIQUE(_xlpm.AG),
+     _xlpm.G,_xlfn.SWITCH(_xlfn.TAKE(_xlpm.TT,,-1),"A+",1,"A",2,"B",3,"C",4),
+     _xlpm.GCME,_xlfn.LAMBDA(_xlpm.A,_xlpm.ID,_xlfn.TAKE(_xlfn._xlws.FILTER(_xlpm.G,(_xlpm.MMM=_xlpm.A)*(_xlpm.AG=_xlpm.ID)),-1)),
+     _xlpm.GPM,_xlfn.LAMBDA(_xlpm.A,_xlpm.ID,_xlfn.TAKE(_xlfn._xlws.FILTER(_xlpm.G,(_xlpm.MMM&lt;=_xlpm.A-1)*(_xlpm.AG=_xlpm.ID)),-1)),
+     _xlpm.R,_xlfn.LAMBDA(_xlpm.M,_xlfn.MAP(_xlpm.AGU,_xlfn.LAMBDA(_xlpm.A,_xlpm.GCME(_xlpm.M,_xlpm.A)-_xlpm.GPM(_xlpm.M,_xlpm.A)))),
+     _xlpm.RR,_xlfn.LAMBDA(_xlpm.B,_xlfn.CONCAT(_xlpm.B-1,
+                        SUM(--IFERROR(_xlpm.R(_xlpm.B)&lt;0,0)),
+                        SUM(--IFERROR(_xlpm.R(_xlpm.B)=0,0)),
+                        SUM(--IFERROR(_xlpm.R(_xlpm.B)&gt;0,0)))),
+     _xlpm.NC,_xlfn.MAP(_xlfn.SEQUENCE(4,,2),_xlfn.LAMBDA(_xlpm.A,_xlpm.RR(_xlpm.A))),
+     _xlfn.VSTACK(_xlfn.HSTACK("Month","No Upgrade","No Change","No Down-Grade"),MID(_xlpm.NC,_xlfn.SEQUENCE(,4),1))
+    )</f>
+        <v>Month</v>
+      </c>
+      <c r="M47" t="str">
+        <v>No Upgrade</v>
+      </c>
+      <c r="N47" t="str">
+        <v>No Change</v>
+      </c>
+      <c r="O47" t="str">
+        <v>No Down-Grade</v>
+      </c>
     </row>
     <row r="48" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="27"/>
       <c r="C48" s="28"/>
       <c r="H48" s="24"/>
-    </row>
-    <row r="49" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L48" t="str">
+        <v>1</v>
+      </c>
+      <c r="M48" t="str">
+        <v>2</v>
+      </c>
+      <c r="N48" t="str">
+        <v>1</v>
+      </c>
+      <c r="O48" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="27"/>
       <c r="C49" s="28"/>
       <c r="H49" s="24"/>
-    </row>
-    <row r="50" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L49" t="str">
+        <v>2</v>
+      </c>
+      <c r="M49" t="str">
+        <v>2</v>
+      </c>
+      <c r="N49" t="str">
+        <v>1</v>
+      </c>
+      <c r="O49" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="28"/>
       <c r="H50" s="24"/>
-    </row>
-    <row r="51" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L50" t="str">
+        <v>3</v>
+      </c>
+      <c r="M50" t="str">
+        <v>1</v>
+      </c>
+      <c r="N50" t="str">
+        <v>1</v>
+      </c>
+      <c r="O50" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="27"/>
       <c r="C51" s="28"/>
       <c r="H51" s="24"/>
-    </row>
-    <row r="52" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51" t="str">
+        <v>4</v>
+      </c>
+      <c r="M51" t="str">
+        <v>4</v>
+      </c>
+      <c r="N51" t="str">
+        <v>0</v>
+      </c>
+      <c r="O51" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
       <c r="C53" s="28"/>
       <c r="H53" s="24"/>
     </row>
-    <row r="54" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="27"/>
       <c r="C54" s="28"/>
       <c r="H54" s="24"/>
     </row>
-    <row r="55" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="H55" s="24"/>
     </row>
-    <row r="56" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="27"/>
       <c r="C56" s="28"/>
       <c r="H56" s="24"/>
     </row>
-    <row r="57" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="27"/>
       <c r="C57" s="28"/>
       <c r="H57" s="24"/>
     </row>
-    <row r="58" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="27"/>
       <c r="C58" s="28"/>
       <c r="H58" s="24"/>
     </row>
-    <row r="59" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="27"/>
       <c r="C59" s="28"/>
       <c r="H59" s="24"/>
     </row>
-    <row r="60" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="27"/>
       <c r="C60" s="28"/>
       <c r="H60" s="24"/>
     </row>
-    <row r="61" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="27"/>
       <c r="C61" s="28"/>
       <c r="H61" s="24"/>
     </row>
-    <row r="62" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="27"/>
       <c r="C62" s="28"/>
       <c r="H62" s="24"/>
     </row>
-    <row r="63" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="27"/>
       <c r="C63" s="28"/>
       <c r="H63" s="24"/>
     </row>
-    <row r="64" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="27"/>
       <c r="C64" s="28"/>
       <c r="H64" s="24"/>
@@ -7023,7 +7226,7 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CH-035 Up and Down Grades.xlsx
+++ b/CH-035 Up and Down Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2298DA3E-8AB0-4836-B2A0-2E4AEBA38F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494551F-690A-46B6-8250-F5903DC3C027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -134,7 +134,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dddd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +178,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +208,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -405,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -479,6 +491,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1032,7 @@
     <col min="12" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="32" t="s">
         <v>0</v>
@@ -1055,7 +1074,7 @@
       </c>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1107,7 +1126,7 @@
       </c>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="9">
         <v>45291</v>
@@ -1149,7 +1168,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="9">
         <v>45291</v>
@@ -1191,7 +1210,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="9">
         <v>45291</v>
@@ -1233,7 +1252,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="9">
         <v>45291</v>
@@ -1275,7 +1294,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="9">
         <v>45291</v>
@@ -1324,7 +1343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="9">
         <v>45298</v>
@@ -1376,7 +1395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="9">
         <v>45301</v>
@@ -1412,40 +1431,50 @@
         <f t="array" ref="S9">_xlfn.LET(_xlpm.z,_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N9)*($C$3:$C$37=S$7)),_xlpm.x,_xlfn.TAKE(_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N9)*($C$3:$C$37=S$7)),,1),_xlpm.mx,MAX(_xlpm.x),_xlfn.XLOOKUP(IFERROR(_xlfn.XLOOKUP(_xlpm.mx,_xlfn.TAKE(_xlpm.z,,1),_xlfn.TAKE(_xlpm.z,,-1)),""),$N$16:$N$19,$O$16:$O$19,""))</f>
         <v>2</v>
       </c>
-      <c r="T9" s="2" cm="1">
-        <f t="array" ref="T9">_xlfn.SWITCH(TRUE,LEN(O9)=0,"",O9&gt;O8,1,O9&lt;O8,-1,O9=O8,0,"A")</f>
-        <v>1</v>
-      </c>
-      <c r="U9" s="2" cm="1">
-        <f t="array" ref="U9">_xlfn.SWITCH(TRUE,LEN(P9)=0,"",P9&gt;P8,1,P9&lt;P8,-1,P9=P8,0,"A")</f>
+      <c r="T9" s="36" cm="1">
+        <f t="array" ref="T9">_xlfn.SWITCH(TRUE,LEN(O9)=0,"",O9&gt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O8)&gt;0,O$8:O8,,,-1),1,O9&lt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O8)&gt;0,O$8:O8,,,-1),-1,O9=_xlfn.XLOOKUP(TRUE,LEN(O$8:O8)&gt;0,O$8:O8,,,-1),0,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="36" cm="1">
+        <f t="array" ref="U9">_xlfn.SWITCH(TRUE,LEN(P9)=0,"",P9&gt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P8)&gt;0,P$8:P8,,,-1),1,P9&lt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P8)&gt;0,P$8:P8,,,-1),-1,P9=_xlfn.XLOOKUP(TRUE,LEN(P$8:P8)&gt;0,P$8:P8,,,-1),0,"A")</f>
         <v>0</v>
       </c>
-      <c r="V9" s="2" cm="1">
-        <f t="array" ref="V9">_xlfn.SWITCH(TRUE,LEN(Q9)=0,"",Q9&gt;Q8,1,Q9&lt;Q8,-1,Q9=Q8,0,"A")</f>
+      <c r="V9" s="36" cm="1">
+        <f t="array" ref="V9">_xlfn.SWITCH(TRUE,LEN(Q9)=0,"",Q9&gt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q8)&gt;0,Q$8:Q8,,,-1),1,Q9&lt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q8)&gt;0,Q$8:Q8,,,-1),-1,Q9=_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q8)&gt;0,Q$8:Q8,,,-1),0,"A")</f>
         <v>-1</v>
       </c>
-      <c r="W9" s="2" cm="1">
-        <f t="array" ref="W9">_xlfn.SWITCH(TRUE,LEN(R9)=0,"",R9&gt;R8,1,R9&lt;R8,-1,R9=R8,0,"A")</f>
+      <c r="W9" s="36" cm="1">
+        <f t="array" ref="W9">_xlfn.SWITCH(TRUE,LEN(R9)=0,"",R9&gt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R8)&gt;0,R$8:R8,,,-1),1,R9&lt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R8)&gt;0,R$8:R8,,,-1),-1,R9=_xlfn.XLOOKUP(TRUE,LEN(R$8:R8)&gt;0,R$8:R8,,,-1),0,"A")</f>
         <v>-1</v>
       </c>
-      <c r="X9" s="2" cm="1">
-        <f t="array" ref="X9">_xlfn.SWITCH(TRUE,LEN(S9)=0,"",S9&gt;S8,1,S9&lt;S8,-1,S9=S8,0,"A")</f>
+      <c r="X9" s="36" cm="1">
+        <f t="array" ref="X9">_xlfn.SWITCH(TRUE,LEN(S9)=0,"",S9&gt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S8)&gt;0,S$8:S8,,,-1),1,S9&lt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S8)&gt;0,S$8:S8,,,-1),-1,S9=_xlfn.XLOOKUP(TRUE,LEN(S$8:S8)&gt;0,S$8:S8,,,-1),0,"A")</f>
         <v>1</v>
       </c>
       <c r="Y9" s="2">
-        <f>COUNTIF($T9:$X9,Y$8)</f>
+        <f t="shared" ref="Y9:AA12" si="0">COUNTIF($T9:$X9,Y$8)</f>
         <v>2</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" ref="Z9:AA12" si="0">COUNTIF($T9:$X9,Z$8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC9" t="b" cm="1">
+        <f t="array" ref="AC9:AE12">Y9:AA12=AD15:AF18</f>
+        <v>1</v>
+      </c>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="9">
         <v>45303</v>
@@ -1481,28 +1510,28 @@
         <f t="array" ref="S10">_xlfn.LET(_xlpm.z,_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N10)*($C$3:$C$37=S$7)),_xlpm.x,_xlfn.TAKE(_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N10)*($C$3:$C$37=S$7)),,1),_xlpm.mx,MAX(_xlpm.x),_xlfn.XLOOKUP(IFERROR(_xlfn.XLOOKUP(_xlpm.mx,_xlfn.TAKE(_xlpm.z,,1),_xlfn.TAKE(_xlpm.z,,-1)),""),$N$16:$N$19,$O$16:$O$19,""))</f>
         <v>3</v>
       </c>
-      <c r="T10" s="2" cm="1">
-        <f t="array" ref="T10">_xlfn.SWITCH(TRUE,LEN(O10)=0,"",O10&gt;O9,1,O10&lt;O9,-1,O10=O9,0,"A")</f>
+      <c r="T10" s="36" cm="1">
+        <f t="array" ref="T10">_xlfn.SWITCH(TRUE,LEN(O10)=0,"",O10&gt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O9)&gt;0,O$8:O9,,,-1),1,O10&lt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O9)&gt;0,O$8:O9,,,-1),-1,O10=_xlfn.XLOOKUP(TRUE,LEN(O$8:O9)&gt;0,O$8:O9,,,-1),0,"A")</f>
         <v>-1</v>
       </c>
-      <c r="U10" s="2" t="str" cm="1">
-        <f t="array" ref="U10">_xlfn.SWITCH(TRUE,LEN(P10)=0,"",P10&gt;P9,1,P10&lt;P9,-1,P10=P9,0,"A")</f>
+      <c r="U10" s="36" t="str" cm="1">
+        <f t="array" ref="U10">_xlfn.SWITCH(TRUE,LEN(P10)=0,"",P10&gt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P9)&gt;0,P$8:P9,,,-1),1,P10&lt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P9)&gt;0,P$8:P9,,,-1),-1,P10=_xlfn.XLOOKUP(TRUE,LEN(P$8:P9)&gt;0,P$8:P9,,,-1),0,"A")</f>
         <v/>
       </c>
-      <c r="V10" s="2" cm="1">
-        <f t="array" ref="V10">_xlfn.SWITCH(TRUE,LEN(Q10)=0,"",Q10&gt;Q9,1,Q10&lt;Q9,-1,Q10=Q9,0,"A")</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="2" cm="1">
-        <f t="array" ref="W10">_xlfn.SWITCH(TRUE,LEN(R10)=0,"",R10&gt;R9,1,R10&lt;R9,-1,R10=R9,0,"A")</f>
+      <c r="V10" s="36" cm="1">
+        <f t="array" ref="V10">_xlfn.SWITCH(TRUE,LEN(Q10)=0,"",Q10&gt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q9)&gt;0,Q$8:Q9,,,-1),1,Q10&lt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q9)&gt;0,Q$8:Q9,,,-1),-1,Q10=_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q9)&gt;0,Q$8:Q9,,,-1),0,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="W10" s="36" cm="1">
+        <f t="array" ref="W10">_xlfn.SWITCH(TRUE,LEN(R10)=0,"",R10&gt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R9)&gt;0,R$8:R9,,,-1),1,R10&lt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R9)&gt;0,R$8:R9,,,-1),-1,R10=_xlfn.XLOOKUP(TRUE,LEN(R$8:R9)&gt;0,R$8:R9,,,-1),0,"A")</f>
         <v>0</v>
       </c>
-      <c r="X10" s="2" cm="1">
-        <f t="array" ref="X10">_xlfn.SWITCH(TRUE,LEN(S10)=0,"",S10&gt;S9,1,S10&lt;S9,-1,S10=S9,0,"A")</f>
+      <c r="X10" s="36" cm="1">
+        <f t="array" ref="X10">_xlfn.SWITCH(TRUE,LEN(S10)=0,"",S10&gt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S9)&gt;0,S$8:S9,,,-1),1,S10&lt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S9)&gt;0,S$8:S9,,,-1),-1,S10=_xlfn.XLOOKUP(TRUE,LEN(S$8:S9)&gt;0,S$8:S9,,,-1),0,"A")</f>
         <v>1</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" ref="Y10:Y12" si="1">COUNTIF($T10:$X10,Y$8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="Z10" s="2">
@@ -1513,8 +1542,17 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="9">
         <v>45308</v>
@@ -1550,40 +1588,49 @@
         <f t="array" ref="S11">_xlfn.LET(_xlpm.z,_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N11)*($C$3:$C$37=S$7)),_xlpm.x,_xlfn.TAKE(_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N11)*($C$3:$C$37=S$7)),,1),_xlpm.mx,MAX(_xlpm.x),_xlfn.XLOOKUP(IFERROR(_xlfn.XLOOKUP(_xlpm.mx,_xlfn.TAKE(_xlpm.z,,1),_xlfn.TAKE(_xlpm.z,,-1)),""),$N$16:$N$19,$O$16:$O$19,""))</f>
         <v/>
       </c>
-      <c r="T11" s="2" t="str" cm="1">
-        <f t="array" ref="T11">_xlfn.SWITCH(TRUE,LEN(O11)=0,"",O11&gt;O10,1,O11&lt;O10,-1,O11=O10,0,"A")</f>
+      <c r="T11" s="36" t="str" cm="1">
+        <f t="array" ref="T11">_xlfn.SWITCH(TRUE,LEN(O11)=0,"",O11&gt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O10)&gt;0,O$8:O10,,,-1),1,O11&lt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O10)&gt;0,O$8:O10,,,-1),-1,O11=_xlfn.XLOOKUP(TRUE,LEN(O$8:O10)&gt;0,O$8:O10,,,-1),0,"A")</f>
         <v/>
       </c>
-      <c r="U11" s="2" cm="1">
-        <f t="array" ref="U11">_xlfn.SWITCH(TRUE,LEN(P11)=0,"",P11&gt;P10,1,P11&lt;P10,-1,P11=P10,0,"A")</f>
+      <c r="U11" s="36" cm="1">
+        <f t="array" ref="U11">_xlfn.SWITCH(TRUE,LEN(P11)=0,"",P11&gt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P10)&gt;0,P$8:P10,,,-1),1,P11&lt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P10)&gt;0,P$8:P10,,,-1),-1,P11=_xlfn.XLOOKUP(TRUE,LEN(P$8:P10)&gt;0,P$8:P10,,,-1),0,"A")</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="36" cm="1">
+        <f t="array" ref="V11">_xlfn.SWITCH(TRUE,LEN(Q11)=0,"",Q11&gt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q10)&gt;0,Q$8:Q10,,,-1),1,Q11&lt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q10)&gt;0,Q$8:Q10,,,-1),-1,Q11=_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q10)&gt;0,Q$8:Q10,,,-1),0,"A")</f>
         <v>-1</v>
       </c>
-      <c r="V11" s="2" cm="1">
-        <f t="array" ref="V11">_xlfn.SWITCH(TRUE,LEN(Q11)=0,"",Q11&gt;Q10,1,Q11&lt;Q10,-1,Q11=Q10,0,"A")</f>
-        <v>-1</v>
-      </c>
-      <c r="W11" s="2" cm="1">
-        <f t="array" ref="W11">_xlfn.SWITCH(TRUE,LEN(R11)=0,"",R11&gt;R10,1,R11&lt;R10,-1,R11=R10,0,"A")</f>
-        <v>1</v>
-      </c>
-      <c r="X11" s="2" t="str" cm="1">
-        <f t="array" ref="X11">_xlfn.SWITCH(TRUE,LEN(S11)=0,"",S11&gt;S10,1,S11&lt;S10,-1,S11=S10,0,"A")</f>
+      <c r="W11" s="36" cm="1">
+        <f t="array" ref="W11">_xlfn.SWITCH(TRUE,LEN(R11)=0,"",R11&gt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R10)&gt;0,R$8:R10,,,-1),1,R11&lt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R10)&gt;0,R$8:R10,,,-1),-1,R11=_xlfn.XLOOKUP(TRUE,LEN(R$8:R10)&gt;0,R$8:R10,,,-1),0,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="36" t="str" cm="1">
+        <f t="array" ref="X11">_xlfn.SWITCH(TRUE,LEN(S11)=0,"",S11&gt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S10)&gt;0,S$8:S10,,,-1),1,S11&lt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S10)&gt;0,S$8:S10,,,-1),-1,S11=_xlfn.XLOOKUP(TRUE,LEN(S$8:S10)&gt;0,S$8:S10,,,-1),0,"A")</f>
         <v/>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="9">
         <v>45316</v>
@@ -1619,29 +1666,29 @@
         <f t="array" ref="S12">_xlfn.LET(_xlpm.z,_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N12)*($C$3:$C$37=S$7)),_xlpm.x,_xlfn.TAKE(_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N12)*($C$3:$C$37=S$7)),,1),_xlpm.mx,MAX(_xlpm.x),_xlfn.XLOOKUP(IFERROR(_xlfn.XLOOKUP(_xlpm.mx,_xlfn.TAKE(_xlpm.z,,1),_xlfn.TAKE(_xlpm.z,,-1)),""),$N$16:$N$19,$O$16:$O$19,""))</f>
         <v>4</v>
       </c>
-      <c r="T12" s="2" cm="1">
-        <f t="array" ref="T12">_xlfn.SWITCH(TRUE,LEN(O12)=0,"",O12&gt;O11,1,O12&lt;O11,-1,O12=O11,0,"A")</f>
-        <v>-1</v>
-      </c>
-      <c r="U12" s="2" cm="1">
-        <f t="array" ref="U12">_xlfn.SWITCH(TRUE,LEN(P12)=0,"",P12&gt;P11,1,P12&lt;P11,-1,P12=P11,0,"A")</f>
-        <v>1</v>
-      </c>
-      <c r="V12" s="2" t="str" cm="1">
-        <f t="array" ref="V12">_xlfn.SWITCH(TRUE,LEN(Q12)=0,"",Q12&gt;Q11,1,Q12&lt;Q11,-1,Q12=Q11,0,"A")</f>
+      <c r="T12" s="36" cm="1">
+        <f t="array" ref="T12">_xlfn.SWITCH(TRUE,LEN(O12)=0,"",O12&gt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O11)&gt;0,O$8:O11,,,-1),1,O12&lt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O11)&gt;0,O$8:O11,,,-1),-1,O12=_xlfn.XLOOKUP(TRUE,LEN(O$8:O11)&gt;0,O$8:O11,,,-1),0,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="36" cm="1">
+        <f t="array" ref="U12">_xlfn.SWITCH(TRUE,LEN(P12)=0,"",P12&gt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P11)&gt;0,P$8:P11,,,-1),1,P12&lt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P11)&gt;0,P$8:P11,,,-1),-1,P12=_xlfn.XLOOKUP(TRUE,LEN(P$8:P11)&gt;0,P$8:P11,,,-1),0,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="V12" s="36" t="str" cm="1">
+        <f t="array" ref="V12">_xlfn.SWITCH(TRUE,LEN(Q12)=0,"",Q12&gt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q11)&gt;0,Q$8:Q11,,,-1),1,Q12&lt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q11)&gt;0,Q$8:Q11,,,-1),-1,Q12=_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q11)&gt;0,Q$8:Q11,,,-1),0,"A")</f>
         <v/>
       </c>
-      <c r="W12" s="2" cm="1">
-        <f t="array" ref="W12">_xlfn.SWITCH(TRUE,LEN(R12)=0,"",R12&gt;R11,1,R12&lt;R11,-1,R12=R11,0,"A")</f>
-        <v>1</v>
-      </c>
-      <c r="X12" s="2" cm="1">
-        <f t="array" ref="X12">_xlfn.SWITCH(TRUE,LEN(S12)=0,"",S12&gt;S11,1,S12&lt;S11,-1,S12=S11,0,"A")</f>
-        <v>-1</v>
+      <c r="W12" s="36" cm="1">
+        <f t="array" ref="W12">_xlfn.SWITCH(TRUE,LEN(R12)=0,"",R12&gt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R11)&gt;0,R$8:R11,,,-1),1,R12&lt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R11)&gt;0,R$8:R11,,,-1),-1,R12=_xlfn.XLOOKUP(TRUE,LEN(R$8:R11)&gt;0,R$8:R11,,,-1),0,"A")</f>
+        <v>1</v>
+      </c>
+      <c r="X12" s="36" cm="1">
+        <f t="array" ref="X12">_xlfn.SWITCH(TRUE,LEN(S12)=0,"",S12&gt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S11)&gt;0,S$8:S11,,,-1),1,S12&lt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S11)&gt;0,S$8:S11,,,-1),-1,S12=_xlfn.XLOOKUP(TRUE,LEN(S$8:S11)&gt;0,S$8:S11,,,-1),0,"A")</f>
+        <v>1</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="Z12" s="2">
         <f t="shared" si="0"/>
@@ -1649,10 +1696,19 @@
       </c>
       <c r="AA12" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>45321</v>
       </c>
@@ -1665,7 +1721,7 @@
       <c r="E13" s="25"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>45326</v>
       </c>
@@ -1677,8 +1733,21 @@
       </c>
       <c r="E14" s="25"/>
       <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="2"/>
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF14" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="9">
         <v>45327</v>
@@ -1690,8 +1759,20 @@
         <v>16</v>
       </c>
       <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC15" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="9">
         <v>45328</v>
@@ -1725,8 +1806,20 @@
       <c r="X16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC16" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="9">
         <v>45329</v>
@@ -1758,8 +1851,20 @@
       <c r="X17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC17" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="35">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
       <c r="B18" s="9">
         <v>45331</v>
@@ -1789,8 +1894,20 @@
         <v>1</v>
       </c>
       <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC18" s="21">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="22">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
       <c r="B19" s="9">
         <v>45336</v>
@@ -1823,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="9">
         <v>45337</v>
@@ -1838,7 +1955,7 @@
       <c r="F20" s="26"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="9">
         <v>45342</v>
@@ -1853,7 +1970,7 @@
       <c r="F21" s="26"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="9">
         <v>45345</v>
@@ -1868,7 +1985,7 @@
       <c r="F22" s="26"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="9">
         <v>45349</v>
@@ -1889,7 +2006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>45350</v>
       </c>
@@ -1909,7 +2026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>45353</v>
       </c>
@@ -1929,7 +2046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>45354</v>
       </c>
@@ -1947,7 +2064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>45364</v>
       </c>
@@ -1959,7 +2076,7 @@
       </c>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>45375</v>
       </c>
@@ -1971,7 +2088,7 @@
       </c>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>45379</v>
       </c>
@@ -1996,7 +2113,7 @@
         <v>No Down-Grade</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>45383</v>
       </c>
@@ -2032,7 +2149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>45384</v>
       </c>
@@ -2067,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>45387</v>
       </c>

--- a/CH-035 Up and Down Grades.xlsx
+++ b/CH-035 Up and Down Grades.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494551F-690A-46B6-8250-F5903DC3C027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24001E74-D1BE-40EE-8424-315656563EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$D$37</definedName>
+    <definedName name="_nAgent">Sheet1!$C$3:$C$37</definedName>
+    <definedName name="_nDate">Sheet1!$B$3:$B$37</definedName>
+    <definedName name="_nGrade">Sheet1!$D$3:$D$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -125,6 +128,18 @@
   <si>
     <t>=0</t>
   </si>
+  <si>
+    <t>Techniques to Document</t>
+  </si>
+  <si>
+    <t>Convert grades to ordinal</t>
+  </si>
+  <si>
+    <t>`=XMATCH(XLOOKUP(y&amp;U, B&amp;C3:C37, D3:D37,,,-1), {"A+","A","B","C"}))</t>
+  </si>
+  <si>
+    <t>Let's being by creating a simple example to ensure that I understand what I am dong</t>
+  </si>
 </sst>
 </file>
 
@@ -134,12 +149,12 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dddd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
-      <scheme val="minor"/>
+      <name val="Aptos Mono"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -168,7 +183,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="Consolas"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -183,6 +198,13 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -414,10 +436,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -486,11 +509,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,9 +516,19 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,7 +787,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>569595</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -815,137 +843,97 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Mark-Standard">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Yellow Orange">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="4E3B30"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="FBEEC9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="A53010"/>
+        <a:srgbClr val="F0A22E"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="DE7E18"/>
+        <a:srgbClr val="A5644E"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9F8351"/>
+        <a:srgbClr val="B58B80"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="728653"/>
+        <a:srgbClr val="C3986D"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="92AA4C"/>
+        <a:srgbClr val="A19574"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="6AAC91"/>
+        <a:srgbClr val="C17529"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="FB4A18"/>
+        <a:srgbClr val="AD1F1F"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="FB4A18"/>
+        <a:srgbClr val="FFC42F"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Biegert Standard">
       <a:majorFont>
-        <a:latin typeface="Century Gothic"/>
-        <a:ea typeface="Century Gothic"/>
-        <a:cs typeface="Century Gothic"/>
+        <a:latin typeface="Consolas"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Century Gothic"/>
-        <a:ea typeface="Century Gothic"/>
-        <a:cs typeface="Century Gothic"/>
+        <a:latin typeface="Consolas"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Riblet">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="80000"/>
+            <a:satMod val="150000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="17145" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="58420" cap="flat" cmpd="thickThin" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:alpha val="50000"/>
+              <a:satMod val="150000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -953,16 +941,40 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="60000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="flat" dir="tl"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="31750" h="63500" prst="riblet"/>
+          </a:sp3d>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="flat" dir="tl"/>
+          </a:scene3d>
+          <a:sp3d prstMaterial="flat">
+            <a:bevelT w="57150" h="114300" prst="riblet"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1007,6 +1019,11 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1014,17 +1031,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.09765625" customWidth="1"/>
     <col min="2" max="2" width="10.59765625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="7.09765625" customWidth="1"/>
-    <col min="5" max="6" width="12.19921875" customWidth="1"/>
+    <col min="5" max="6" width="12.296875" customWidth="1"/>
     <col min="7" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="10" width="10" customWidth="1"/>
@@ -1032,22 +1049,22 @@
     <col min="12" max="26" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
+      <c r="H1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1074,7 +1091,7 @@
       </c>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1126,7 +1143,7 @@
       </c>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="9">
         <v>45291</v>
@@ -1168,7 +1185,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="9">
         <v>45291</v>
@@ -1210,7 +1227,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="9">
         <v>45291</v>
@@ -1252,7 +1269,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="9">
         <v>45291</v>
@@ -1294,7 +1311,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="9">
         <v>45291</v>
@@ -1343,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="9">
         <v>45298</v>
@@ -1395,7 +1412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="9">
         <v>45301</v>
@@ -1431,23 +1448,23 @@
         <f t="array" ref="S9">_xlfn.LET(_xlpm.z,_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N9)*($C$3:$C$37=S$7)),_xlpm.x,_xlfn.TAKE(_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N9)*($C$3:$C$37=S$7)),,1),_xlpm.mx,MAX(_xlpm.x),_xlfn.XLOOKUP(IFERROR(_xlfn.XLOOKUP(_xlpm.mx,_xlfn.TAKE(_xlpm.z,,1),_xlfn.TAKE(_xlpm.z,,-1)),""),$N$16:$N$19,$O$16:$O$19,""))</f>
         <v>2</v>
       </c>
-      <c r="T9" s="36" cm="1">
+      <c r="T9" s="33" cm="1">
         <f t="array" ref="T9">_xlfn.SWITCH(TRUE,LEN(O9)=0,"",O9&gt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O8)&gt;0,O$8:O8,,,-1),1,O9&lt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O8)&gt;0,O$8:O8,,,-1),-1,O9=_xlfn.XLOOKUP(TRUE,LEN(O$8:O8)&gt;0,O$8:O8,,,-1),0,"A")</f>
         <v>1</v>
       </c>
-      <c r="U9" s="36" cm="1">
+      <c r="U9" s="33" cm="1">
         <f t="array" ref="U9">_xlfn.SWITCH(TRUE,LEN(P9)=0,"",P9&gt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P8)&gt;0,P$8:P8,,,-1),1,P9&lt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P8)&gt;0,P$8:P8,,,-1),-1,P9=_xlfn.XLOOKUP(TRUE,LEN(P$8:P8)&gt;0,P$8:P8,,,-1),0,"A")</f>
         <v>0</v>
       </c>
-      <c r="V9" s="36" cm="1">
+      <c r="V9" s="33" cm="1">
         <f t="array" ref="V9">_xlfn.SWITCH(TRUE,LEN(Q9)=0,"",Q9&gt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q8)&gt;0,Q$8:Q8,,,-1),1,Q9&lt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q8)&gt;0,Q$8:Q8,,,-1),-1,Q9=_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q8)&gt;0,Q$8:Q8,,,-1),0,"A")</f>
         <v>-1</v>
       </c>
-      <c r="W9" s="36" cm="1">
+      <c r="W9" s="33" cm="1">
         <f t="array" ref="W9">_xlfn.SWITCH(TRUE,LEN(R9)=0,"",R9&gt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R8)&gt;0,R$8:R8,,,-1),1,R9&lt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R8)&gt;0,R$8:R8,,,-1),-1,R9=_xlfn.XLOOKUP(TRUE,LEN(R$8:R8)&gt;0,R$8:R8,,,-1),0,"A")</f>
         <v>-1</v>
       </c>
-      <c r="X9" s="36" cm="1">
+      <c r="X9" s="33" cm="1">
         <f t="array" ref="X9">_xlfn.SWITCH(TRUE,LEN(S9)=0,"",S9&gt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S8)&gt;0,S$8:S8,,,-1),1,S9&lt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S8)&gt;0,S$8:S8,,,-1),-1,S9=_xlfn.XLOOKUP(TRUE,LEN(S$8:S8)&gt;0,S$8:S8,,,-1),0,"A")</f>
         <v>1</v>
       </c>
@@ -1474,7 +1491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="9">
         <v>45303</v>
@@ -1510,23 +1527,23 @@
         <f t="array" ref="S10">_xlfn.LET(_xlpm.z,_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N10)*($C$3:$C$37=S$7)),_xlpm.x,_xlfn.TAKE(_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N10)*($C$3:$C$37=S$7)),,1),_xlpm.mx,MAX(_xlpm.x),_xlfn.XLOOKUP(IFERROR(_xlfn.XLOOKUP(_xlpm.mx,_xlfn.TAKE(_xlpm.z,,1),_xlfn.TAKE(_xlpm.z,,-1)),""),$N$16:$N$19,$O$16:$O$19,""))</f>
         <v>3</v>
       </c>
-      <c r="T10" s="36" cm="1">
+      <c r="T10" s="33" cm="1">
         <f t="array" ref="T10">_xlfn.SWITCH(TRUE,LEN(O10)=0,"",O10&gt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O9)&gt;0,O$8:O9,,,-1),1,O10&lt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O9)&gt;0,O$8:O9,,,-1),-1,O10=_xlfn.XLOOKUP(TRUE,LEN(O$8:O9)&gt;0,O$8:O9,,,-1),0,"A")</f>
         <v>-1</v>
       </c>
-      <c r="U10" s="36" t="str" cm="1">
+      <c r="U10" s="33" t="str" cm="1">
         <f t="array" ref="U10">_xlfn.SWITCH(TRUE,LEN(P10)=0,"",P10&gt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P9)&gt;0,P$8:P9,,,-1),1,P10&lt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P9)&gt;0,P$8:P9,,,-1),-1,P10=_xlfn.XLOOKUP(TRUE,LEN(P$8:P9)&gt;0,P$8:P9,,,-1),0,"A")</f>
         <v/>
       </c>
-      <c r="V10" s="36" cm="1">
+      <c r="V10" s="33" cm="1">
         <f t="array" ref="V10">_xlfn.SWITCH(TRUE,LEN(Q10)=0,"",Q10&gt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q9)&gt;0,Q$8:Q9,,,-1),1,Q10&lt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q9)&gt;0,Q$8:Q9,,,-1),-1,Q10=_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q9)&gt;0,Q$8:Q9,,,-1),0,"A")</f>
         <v>1</v>
       </c>
-      <c r="W10" s="36" cm="1">
+      <c r="W10" s="33" cm="1">
         <f t="array" ref="W10">_xlfn.SWITCH(TRUE,LEN(R10)=0,"",R10&gt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R9)&gt;0,R$8:R9,,,-1),1,R10&lt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R9)&gt;0,R$8:R9,,,-1),-1,R10=_xlfn.XLOOKUP(TRUE,LEN(R$8:R9)&gt;0,R$8:R9,,,-1),0,"A")</f>
         <v>0</v>
       </c>
-      <c r="X10" s="36" cm="1">
+      <c r="X10" s="33" cm="1">
         <f t="array" ref="X10">_xlfn.SWITCH(TRUE,LEN(S10)=0,"",S10&gt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S9)&gt;0,S$8:S9,,,-1),1,S10&lt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S9)&gt;0,S$8:S9,,,-1),-1,S10=_xlfn.XLOOKUP(TRUE,LEN(S$8:S9)&gt;0,S$8:S9,,,-1),0,"A")</f>
         <v>1</v>
       </c>
@@ -1552,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="9">
         <v>45308</v>
@@ -1588,23 +1605,23 @@
         <f t="array" ref="S11">_xlfn.LET(_xlpm.z,_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N11)*($C$3:$C$37=S$7)),_xlpm.x,_xlfn.TAKE(_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N11)*($C$3:$C$37=S$7)),,1),_xlpm.mx,MAX(_xlpm.x),_xlfn.XLOOKUP(IFERROR(_xlfn.XLOOKUP(_xlpm.mx,_xlfn.TAKE(_xlpm.z,,1),_xlfn.TAKE(_xlpm.z,,-1)),""),$N$16:$N$19,$O$16:$O$19,""))</f>
         <v/>
       </c>
-      <c r="T11" s="36" t="str" cm="1">
+      <c r="T11" s="33" t="str" cm="1">
         <f t="array" ref="T11">_xlfn.SWITCH(TRUE,LEN(O11)=0,"",O11&gt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O10)&gt;0,O$8:O10,,,-1),1,O11&lt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O10)&gt;0,O$8:O10,,,-1),-1,O11=_xlfn.XLOOKUP(TRUE,LEN(O$8:O10)&gt;0,O$8:O10,,,-1),0,"A")</f>
         <v/>
       </c>
-      <c r="U11" s="36" cm="1">
+      <c r="U11" s="33" cm="1">
         <f t="array" ref="U11">_xlfn.SWITCH(TRUE,LEN(P11)=0,"",P11&gt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P10)&gt;0,P$8:P10,,,-1),1,P11&lt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P10)&gt;0,P$8:P10,,,-1),-1,P11=_xlfn.XLOOKUP(TRUE,LEN(P$8:P10)&gt;0,P$8:P10,,,-1),0,"A")</f>
         <v>0</v>
       </c>
-      <c r="V11" s="36" cm="1">
+      <c r="V11" s="33" cm="1">
         <f t="array" ref="V11">_xlfn.SWITCH(TRUE,LEN(Q11)=0,"",Q11&gt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q10)&gt;0,Q$8:Q10,,,-1),1,Q11&lt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q10)&gt;0,Q$8:Q10,,,-1),-1,Q11=_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q10)&gt;0,Q$8:Q10,,,-1),0,"A")</f>
         <v>-1</v>
       </c>
-      <c r="W11" s="36" cm="1">
+      <c r="W11" s="33" cm="1">
         <f t="array" ref="W11">_xlfn.SWITCH(TRUE,LEN(R11)=0,"",R11&gt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R10)&gt;0,R$8:R10,,,-1),1,R11&lt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R10)&gt;0,R$8:R10,,,-1),-1,R11=_xlfn.XLOOKUP(TRUE,LEN(R$8:R10)&gt;0,R$8:R10,,,-1),0,"A")</f>
         <v>1</v>
       </c>
-      <c r="X11" s="36" t="str" cm="1">
+      <c r="X11" s="33" t="str" cm="1">
         <f t="array" ref="X11">_xlfn.SWITCH(TRUE,LEN(S11)=0,"",S11&gt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S10)&gt;0,S$8:S10,,,-1),1,S11&lt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S10)&gt;0,S$8:S10,,,-1),-1,S11=_xlfn.XLOOKUP(TRUE,LEN(S$8:S10)&gt;0,S$8:S10,,,-1),0,"A")</f>
         <v/>
       </c>
@@ -1630,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="9">
         <v>45316</v>
@@ -1666,23 +1683,23 @@
         <f t="array" ref="S12">_xlfn.LET(_xlpm.z,_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N12)*($C$3:$C$37=S$7)),_xlpm.x,_xlfn.TAKE(_xlfn._xlws.FILTER($B$3:$D$37,(MONTH($B$3:$B$37)=$N12)*($C$3:$C$37=S$7)),,1),_xlpm.mx,MAX(_xlpm.x),_xlfn.XLOOKUP(IFERROR(_xlfn.XLOOKUP(_xlpm.mx,_xlfn.TAKE(_xlpm.z,,1),_xlfn.TAKE(_xlpm.z,,-1)),""),$N$16:$N$19,$O$16:$O$19,""))</f>
         <v>4</v>
       </c>
-      <c r="T12" s="36" cm="1">
+      <c r="T12" s="33" cm="1">
         <f t="array" ref="T12">_xlfn.SWITCH(TRUE,LEN(O12)=0,"",O12&gt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O11)&gt;0,O$8:O11,,,-1),1,O12&lt;_xlfn.XLOOKUP(TRUE,LEN(O$8:O11)&gt;0,O$8:O11,,,-1),-1,O12=_xlfn.XLOOKUP(TRUE,LEN(O$8:O11)&gt;0,O$8:O11,,,-1),0,"A")</f>
         <v>1</v>
       </c>
-      <c r="U12" s="36" cm="1">
+      <c r="U12" s="33" cm="1">
         <f t="array" ref="U12">_xlfn.SWITCH(TRUE,LEN(P12)=0,"",P12&gt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P11)&gt;0,P$8:P11,,,-1),1,P12&lt;_xlfn.XLOOKUP(TRUE,LEN(P$8:P11)&gt;0,P$8:P11,,,-1),-1,P12=_xlfn.XLOOKUP(TRUE,LEN(P$8:P11)&gt;0,P$8:P11,,,-1),0,"A")</f>
         <v>1</v>
       </c>
-      <c r="V12" s="36" t="str" cm="1">
+      <c r="V12" s="33" t="str" cm="1">
         <f t="array" ref="V12">_xlfn.SWITCH(TRUE,LEN(Q12)=0,"",Q12&gt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q11)&gt;0,Q$8:Q11,,,-1),1,Q12&lt;_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q11)&gt;0,Q$8:Q11,,,-1),-1,Q12=_xlfn.XLOOKUP(TRUE,LEN(Q$8:Q11)&gt;0,Q$8:Q11,,,-1),0,"A")</f>
         <v/>
       </c>
-      <c r="W12" s="36" cm="1">
+      <c r="W12" s="33" cm="1">
         <f t="array" ref="W12">_xlfn.SWITCH(TRUE,LEN(R12)=0,"",R12&gt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R11)&gt;0,R$8:R11,,,-1),1,R12&lt;_xlfn.XLOOKUP(TRUE,LEN(R$8:R11)&gt;0,R$8:R11,,,-1),-1,R12=_xlfn.XLOOKUP(TRUE,LEN(R$8:R11)&gt;0,R$8:R11,,,-1),0,"A")</f>
         <v>1</v>
       </c>
-      <c r="X12" s="36" cm="1">
+      <c r="X12" s="33" cm="1">
         <f t="array" ref="X12">_xlfn.SWITCH(TRUE,LEN(S12)=0,"",S12&gt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S11)&gt;0,S$8:S11,,,-1),1,S12&lt;_xlfn.XLOOKUP(TRUE,LEN(S$8:S11)&gt;0,S$8:S11,,,-1),-1,S12=_xlfn.XLOOKUP(TRUE,LEN(S$8:S11)&gt;0,S$8:S11,,,-1),0,"A")</f>
         <v>1</v>
       </c>
@@ -1708,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>45321</v>
       </c>
@@ -1721,7 +1738,7 @@
       <c r="E13" s="25"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <v>45326</v>
       </c>
@@ -1747,7 +1764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
       <c r="B15" s="9">
         <v>45327</v>
@@ -1772,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
       <c r="B16" s="9">
         <v>45328</v>
@@ -1819,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
       <c r="B17" s="9">
         <v>45329</v>
@@ -1854,17 +1871,17 @@
       <c r="AC17" s="14">
         <v>3</v>
       </c>
-      <c r="AD17" s="35">
+      <c r="AD17" s="32">
         <v>1</v>
       </c>
       <c r="AE17" s="15">
         <v>1</v>
       </c>
-      <c r="AF17" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF17" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
       <c r="B18" s="9">
         <v>45331</v>
@@ -1907,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
       <c r="B19" s="9">
         <v>45336</v>
@@ -1940,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="9">
         <v>45337</v>
@@ -1955,7 +1972,7 @@
       <c r="F20" s="26"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="9">
         <v>45342</v>
@@ -1970,7 +1987,7 @@
       <c r="F21" s="26"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="9">
         <v>45345</v>
@@ -1985,7 +2002,7 @@
       <c r="F22" s="26"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="9">
         <v>45349</v>
@@ -2006,7 +2023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>45350</v>
       </c>
@@ -2026,7 +2043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9">
         <v>45353</v>
       </c>
@@ -2046,7 +2063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>45354</v>
       </c>
@@ -2064,7 +2081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="9">
         <v>45364</v>
       </c>
@@ -2076,7 +2093,7 @@
       </c>
       <c r="H27" s="24"/>
     </row>
-    <row r="28" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>45375</v>
       </c>
@@ -2088,7 +2105,7 @@
       </c>
       <c r="H28" s="24"/>
     </row>
-    <row r="29" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9">
         <v>45379</v>
       </c>
@@ -2113,7 +2130,7 @@
         <v>No Down-Grade</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>45383</v>
       </c>
@@ -2149,7 +2166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9">
         <v>45384</v>
       </c>
@@ -2184,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>45387</v>
       </c>
@@ -2219,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9">
         <v>45390</v>
       </c>
@@ -2254,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>45391</v>
       </c>
@@ -2277,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9">
         <v>45392</v>
       </c>
@@ -2290,7 +2307,7 @@
       <c r="F35" s="31"/>
       <c r="H35" s="24"/>
     </row>
-    <row r="36" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>45394</v>
       </c>
@@ -2303,7 +2320,7 @@
       <c r="F36" s="31"/>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="9">
         <v>45396</v>
       </c>
@@ -2357,7 +2374,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="38" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="27"/>
       <c r="C38" s="28"/>
       <c r="F38" s="31">
@@ -2376,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="27"/>
       <c r="C39" s="28"/>
       <c r="F39" s="31">
@@ -2395,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="27"/>
       <c r="C40" s="28"/>
       <c r="F40" s="31">
@@ -2414,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="27"/>
       <c r="C41" s="28"/>
       <c r="F41">
@@ -2440,7 +2457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="27"/>
       <c r="C42" s="28"/>
       <c r="H42" s="24"/>
@@ -2451,7 +2468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="27"/>
       <c r="C43" s="28"/>
       <c r="H43" s="24"/>
@@ -2462,7 +2479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="27"/>
       <c r="C44" s="28"/>
       <c r="H44" s="24"/>
@@ -2473,8 +2490,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
+    <row r="45" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="35" t="s">
+        <v>21</v>
+      </c>
       <c r="C45" s="28"/>
       <c r="H45" s="24"/>
       <c r="O45">
@@ -2484,13 +2503,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="27"/>
       <c r="C46" s="28"/>
       <c r="H46" s="24"/>
     </row>
-    <row r="47" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
+    <row r="47" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
       <c r="C47" s="28"/>
       <c r="H47" s="24"/>
       <c r="L47" t="str" cm="1">
@@ -2524,7 +2545,7 @@
         <v>No Down-Grade</v>
       </c>
     </row>
-    <row r="48" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="27"/>
       <c r="C48" s="28"/>
       <c r="H48" s="24"/>
@@ -2541,9 +2562,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
+    <row r="49" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
       <c r="H49" s="24"/>
       <c r="L49" t="str">
         <v>2</v>
@@ -2558,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="27"/>
       <c r="C50" s="28"/>
       <c r="H50" s="24"/>
@@ -2575,8 +2597,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
+    <row r="51" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
       <c r="C51" s="28"/>
       <c r="H51" s="24"/>
       <c r="L51" t="str">
@@ -2592,4747 +2616,4753 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
+    <row r="53" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="36" cm="1">
+        <f t="array" ref="B53">_xlfn.XMATCH(_xlfn.XLOOKUP("1"&amp;"AG-01",MONTH(_nDate)&amp;_nAgent,_nGrade,,,-1),{"A+","A","B","C"})</f>
+        <v>1</v>
+      </c>
+      <c r="C53" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B53)</f>
+        <v>=XMATCH(XLOOKUP("1"&amp;"AG-01",MONTH(_nDate)&amp;_nAgent,_nGrade,,,-1),{"A+","A","B","C"})</v>
+      </c>
       <c r="H53" s="24"/>
     </row>
-    <row r="54" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="27"/>
       <c r="C54" s="28"/>
       <c r="H54" s="24"/>
     </row>
-    <row r="55" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="H55" s="24"/>
     </row>
-    <row r="56" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="27"/>
       <c r="C56" s="28"/>
       <c r="H56" s="24"/>
     </row>
-    <row r="57" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="27"/>
       <c r="C57" s="28"/>
       <c r="H57" s="24"/>
     </row>
-    <row r="58" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="27"/>
       <c r="C58" s="28"/>
       <c r="H58" s="24"/>
     </row>
-    <row r="59" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="27"/>
       <c r="C59" s="28"/>
       <c r="H59" s="24"/>
     </row>
-    <row r="60" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="27"/>
       <c r="C60" s="28"/>
       <c r="H60" s="24"/>
     </row>
-    <row r="61" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="27"/>
       <c r="C61" s="28"/>
       <c r="H61" s="24"/>
     </row>
-    <row r="62" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="27"/>
       <c r="C62" s="28"/>
       <c r="H62" s="24"/>
     </row>
-    <row r="63" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="27"/>
       <c r="C63" s="28"/>
       <c r="H63" s="24"/>
     </row>
-    <row r="64" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="27"/>
       <c r="C64" s="28"/>
       <c r="H64" s="24"/>
     </row>
-    <row r="65" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="27"/>
       <c r="C65" s="28"/>
       <c r="H65" s="24"/>
     </row>
-    <row r="66" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="27"/>
       <c r="C66" s="28"/>
       <c r="H66" s="24"/>
     </row>
-    <row r="67" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="27"/>
       <c r="C67" s="28"/>
       <c r="H67" s="24"/>
     </row>
-    <row r="68" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="27"/>
       <c r="C68" s="28"/>
       <c r="H68" s="24"/>
     </row>
-    <row r="69" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="27"/>
       <c r="C69" s="28"/>
       <c r="H69" s="24"/>
     </row>
-    <row r="70" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="27"/>
       <c r="C70" s="28"/>
       <c r="H70" s="24"/>
     </row>
-    <row r="71" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="27"/>
       <c r="C71" s="28"/>
       <c r="H71" s="24"/>
     </row>
-    <row r="72" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="27"/>
       <c r="C72" s="28"/>
       <c r="H72" s="24"/>
     </row>
-    <row r="73" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="27"/>
       <c r="C73" s="28"/>
       <c r="H73" s="24"/>
     </row>
-    <row r="74" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="27"/>
       <c r="C74" s="28"/>
       <c r="H74" s="24"/>
     </row>
-    <row r="75" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="27"/>
       <c r="C75" s="28"/>
       <c r="H75" s="24"/>
     </row>
-    <row r="76" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="27"/>
       <c r="C76" s="28"/>
       <c r="H76" s="24"/>
     </row>
-    <row r="77" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="27"/>
       <c r="C77" s="28"/>
       <c r="H77" s="24"/>
     </row>
-    <row r="78" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="27"/>
       <c r="C78" s="28"/>
       <c r="H78" s="24"/>
     </row>
-    <row r="79" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="27"/>
       <c r="C79" s="28"/>
       <c r="H79" s="24"/>
     </row>
-    <row r="80" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="27"/>
       <c r="C80" s="28"/>
       <c r="H80" s="24"/>
     </row>
-    <row r="81" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="27"/>
       <c r="C81" s="28"/>
       <c r="H81" s="24"/>
     </row>
-    <row r="82" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="27"/>
       <c r="C82" s="28"/>
       <c r="H82" s="24"/>
     </row>
-    <row r="83" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="27"/>
       <c r="C83" s="28"/>
       <c r="H83" s="24"/>
     </row>
-    <row r="84" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="27"/>
       <c r="C84" s="28"/>
       <c r="H84" s="24"/>
     </row>
-    <row r="85" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="27"/>
       <c r="C85" s="28"/>
       <c r="H85" s="24"/>
     </row>
-    <row r="86" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="27"/>
       <c r="C86" s="28"/>
       <c r="H86" s="24"/>
     </row>
-    <row r="87" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="27"/>
       <c r="C87" s="28"/>
       <c r="H87" s="24"/>
     </row>
-    <row r="88" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="27"/>
       <c r="C88" s="28"/>
       <c r="H88" s="24"/>
     </row>
-    <row r="89" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="27"/>
       <c r="C89" s="28"/>
       <c r="H89" s="24"/>
     </row>
-    <row r="90" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="27"/>
       <c r="C90" s="28"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="27"/>
       <c r="C91" s="28"/>
       <c r="H91" s="24"/>
     </row>
-    <row r="92" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="27"/>
       <c r="C92" s="28"/>
       <c r="H92" s="24"/>
     </row>
-    <row r="93" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="27"/>
       <c r="C93" s="28"/>
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="27"/>
       <c r="C94" s="28"/>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="27"/>
       <c r="C95" s="28"/>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="27"/>
       <c r="C96" s="28"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="27"/>
       <c r="C97" s="28"/>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="27"/>
       <c r="C98" s="28"/>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="27"/>
       <c r="C99" s="28"/>
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="27"/>
       <c r="C100" s="28"/>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="27"/>
       <c r="C101" s="28"/>
       <c r="H101" s="24"/>
     </row>
-    <row r="102" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="27"/>
       <c r="C102" s="28"/>
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="27"/>
       <c r="C103" s="28"/>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="27"/>
       <c r="C104" s="28"/>
       <c r="H104" s="24"/>
     </row>
-    <row r="105" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="27"/>
       <c r="C105" s="28"/>
       <c r="H105" s="24"/>
     </row>
-    <row r="106" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="27"/>
       <c r="C106" s="28"/>
       <c r="H106" s="24"/>
     </row>
-    <row r="107" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="27"/>
       <c r="C107" s="28"/>
       <c r="H107" s="24"/>
     </row>
-    <row r="108" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="27"/>
       <c r="C108" s="28"/>
       <c r="H108" s="24"/>
     </row>
-    <row r="109" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="27"/>
       <c r="C109" s="28"/>
       <c r="H109" s="24"/>
     </row>
-    <row r="110" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="27"/>
       <c r="C110" s="28"/>
       <c r="H110" s="24"/>
     </row>
-    <row r="111" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="27"/>
       <c r="C111" s="28"/>
       <c r="H111" s="24"/>
     </row>
-    <row r="112" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="H112" s="24"/>
     </row>
-    <row r="113" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="H113" s="24"/>
     </row>
-    <row r="114" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="H114" s="24"/>
     </row>
-    <row r="115" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="H115" s="24"/>
     </row>
-    <row r="116" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="H116" s="24"/>
     </row>
-    <row r="117" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="H117" s="24"/>
     </row>
-    <row r="118" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="H118" s="24"/>
     </row>
-    <row r="119" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="H119" s="24"/>
     </row>
-    <row r="120" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="H120" s="24"/>
     </row>
-    <row r="121" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="H121" s="24"/>
     </row>
-    <row r="122" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="H122" s="24"/>
     </row>
-    <row r="123" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="H123" s="24"/>
     </row>
-    <row r="124" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="H124" s="24"/>
     </row>
-    <row r="125" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="H125" s="24"/>
     </row>
-    <row r="126" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="H126" s="24"/>
     </row>
-    <row r="127" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="H127" s="24"/>
     </row>
-    <row r="128" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="H128" s="24"/>
     </row>
-    <row r="129" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="H129" s="24"/>
     </row>
-    <row r="130" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="H130" s="24"/>
     </row>
-    <row r="131" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="H131" s="24"/>
     </row>
-    <row r="132" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="H132" s="24"/>
     </row>
-    <row r="133" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="H133" s="24"/>
     </row>
-    <row r="134" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="H134" s="24"/>
     </row>
-    <row r="135" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="H135" s="24"/>
     </row>
-    <row r="136" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="H136" s="24"/>
     </row>
-    <row r="137" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="H137" s="24"/>
     </row>
-    <row r="138" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="H138" s="24"/>
     </row>
-    <row r="139" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="H139" s="24"/>
     </row>
-    <row r="140" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="H140" s="24"/>
     </row>
-    <row r="141" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="H141" s="24"/>
     </row>
-    <row r="142" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="H142" s="24"/>
     </row>
-    <row r="143" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="H143" s="24"/>
     </row>
-    <row r="144" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="H144" s="24"/>
     </row>
-    <row r="145" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="H145" s="24"/>
     </row>
-    <row r="146" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="H146" s="24"/>
     </row>
-    <row r="147" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="H147" s="24"/>
     </row>
-    <row r="148" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="H148" s="24"/>
     </row>
-    <row r="149" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="H149" s="24"/>
     </row>
-    <row r="150" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="H150" s="24"/>
     </row>
-    <row r="151" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="H151" s="24"/>
     </row>
-    <row r="152" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="H152" s="24"/>
     </row>
-    <row r="153" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="H153" s="24"/>
     </row>
-    <row r="154" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="H154" s="24"/>
     </row>
-    <row r="155" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="H155" s="24"/>
     </row>
-    <row r="156" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="H156" s="24"/>
     </row>
-    <row r="157" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="H157" s="24"/>
     </row>
-    <row r="158" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="H158" s="24"/>
     </row>
-    <row r="159" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="H159" s="24"/>
     </row>
-    <row r="160" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="H160" s="24"/>
     </row>
-    <row r="161" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="28"/>
       <c r="C161" s="28"/>
       <c r="H161" s="24"/>
     </row>
-    <row r="162" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="28"/>
       <c r="C162" s="28"/>
       <c r="H162" s="24"/>
     </row>
-    <row r="163" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="28"/>
       <c r="C163" s="28"/>
       <c r="H163" s="24"/>
     </row>
-    <row r="164" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
       <c r="H164" s="24"/>
     </row>
-    <row r="165" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
       <c r="H165" s="24"/>
     </row>
-    <row r="166" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="28"/>
       <c r="C166" s="28"/>
       <c r="H166" s="24"/>
     </row>
-    <row r="167" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="28"/>
       <c r="C167" s="28"/>
       <c r="H167" s="24"/>
     </row>
-    <row r="168" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
       <c r="H168" s="24"/>
     </row>
-    <row r="169" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="28"/>
       <c r="C169" s="28"/>
       <c r="H169" s="24"/>
     </row>
-    <row r="170" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="28"/>
       <c r="C170" s="28"/>
       <c r="H170" s="24"/>
     </row>
-    <row r="171" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="28"/>
       <c r="C171" s="28"/>
       <c r="H171" s="24"/>
     </row>
-    <row r="172" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="28"/>
       <c r="C172" s="28"/>
       <c r="H172" s="24"/>
     </row>
-    <row r="173" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
       <c r="H173" s="24"/>
     </row>
-    <row r="174" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
       <c r="H174" s="24"/>
     </row>
-    <row r="175" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
       <c r="H175" s="24"/>
     </row>
-    <row r="176" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="28"/>
       <c r="C176" s="28"/>
       <c r="H176" s="24"/>
     </row>
-    <row r="177" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
       <c r="H177" s="24"/>
     </row>
-    <row r="178" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="28"/>
       <c r="C178" s="28"/>
       <c r="H178" s="24"/>
     </row>
-    <row r="179" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="28"/>
       <c r="C179" s="28"/>
       <c r="H179" s="24"/>
     </row>
-    <row r="180" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="28"/>
       <c r="C180" s="28"/>
       <c r="H180" s="24"/>
     </row>
-    <row r="181" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
       <c r="H181" s="24"/>
     </row>
-    <row r="182" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="28"/>
       <c r="C182" s="28"/>
       <c r="H182" s="24"/>
     </row>
-    <row r="183" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
       <c r="H183" s="24"/>
     </row>
-    <row r="184" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="28"/>
       <c r="C184" s="28"/>
       <c r="H184" s="24"/>
     </row>
-    <row r="185" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
       <c r="H185" s="24"/>
     </row>
-    <row r="186" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="28"/>
       <c r="C186" s="28"/>
       <c r="H186" s="24"/>
     </row>
-    <row r="187" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="28"/>
       <c r="C187" s="28"/>
       <c r="H187" s="24"/>
     </row>
-    <row r="188" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="28"/>
       <c r="C188" s="28"/>
       <c r="H188" s="24"/>
     </row>
-    <row r="189" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
       <c r="H189" s="24"/>
     </row>
-    <row r="190" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="28"/>
       <c r="C190" s="28"/>
       <c r="H190" s="24"/>
     </row>
-    <row r="191" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="28"/>
       <c r="C191" s="28"/>
       <c r="H191" s="24"/>
     </row>
-    <row r="192" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="28"/>
       <c r="C192" s="28"/>
       <c r="H192" s="24"/>
     </row>
-    <row r="193" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
       <c r="H193" s="24"/>
     </row>
-    <row r="194" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="28"/>
       <c r="C194" s="28"/>
       <c r="H194" s="24"/>
     </row>
-    <row r="195" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="28"/>
       <c r="C195" s="28"/>
       <c r="H195" s="24"/>
     </row>
-    <row r="196" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="28"/>
       <c r="C196" s="28"/>
       <c r="H196" s="24"/>
     </row>
-    <row r="197" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
       <c r="H197" s="24"/>
     </row>
-    <row r="198" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="28"/>
       <c r="C198" s="28"/>
       <c r="H198" s="24"/>
     </row>
-    <row r="199" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
       <c r="H199" s="24"/>
     </row>
-    <row r="200" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="28"/>
       <c r="C200" s="28"/>
       <c r="H200" s="24"/>
     </row>
-    <row r="201" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="28"/>
       <c r="C201" s="28"/>
       <c r="H201" s="24"/>
     </row>
-    <row r="202" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="28"/>
       <c r="C202" s="28"/>
       <c r="H202" s="24"/>
     </row>
-    <row r="203" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
       <c r="H203" s="24"/>
     </row>
-    <row r="204" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="28"/>
       <c r="C204" s="28"/>
       <c r="H204" s="24"/>
     </row>
-    <row r="205" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="28"/>
       <c r="C205" s="28"/>
       <c r="H205" s="24"/>
     </row>
-    <row r="206" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="28"/>
       <c r="C206" s="28"/>
       <c r="H206" s="24"/>
     </row>
-    <row r="207" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="28"/>
       <c r="C207" s="28"/>
       <c r="H207" s="24"/>
     </row>
-    <row r="208" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="28"/>
       <c r="C208" s="28"/>
       <c r="H208" s="24"/>
     </row>
-    <row r="209" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="28"/>
       <c r="C209" s="28"/>
       <c r="H209" s="24"/>
     </row>
-    <row r="210" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="28"/>
       <c r="C210" s="28"/>
       <c r="H210" s="24"/>
     </row>
-    <row r="211" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="28"/>
       <c r="C211" s="28"/>
       <c r="H211" s="24"/>
     </row>
-    <row r="212" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="28"/>
       <c r="C212" s="28"/>
       <c r="H212" s="24"/>
     </row>
-    <row r="213" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="28"/>
       <c r="C213" s="28"/>
       <c r="H213" s="24"/>
     </row>
-    <row r="214" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="28"/>
       <c r="C214" s="28"/>
       <c r="H214" s="24"/>
     </row>
-    <row r="215" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="28"/>
       <c r="C215" s="28"/>
       <c r="H215" s="24"/>
     </row>
-    <row r="216" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="28"/>
       <c r="C216" s="28"/>
       <c r="H216" s="24"/>
     </row>
-    <row r="217" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="28"/>
       <c r="C217" s="28"/>
       <c r="H217" s="24"/>
     </row>
-    <row r="218" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="28"/>
       <c r="C218" s="28"/>
       <c r="H218" s="24"/>
     </row>
-    <row r="219" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="28"/>
       <c r="C219" s="28"/>
       <c r="H219" s="24"/>
     </row>
-    <row r="220" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="28"/>
       <c r="C220" s="28"/>
       <c r="H220" s="24"/>
     </row>
-    <row r="221" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="28"/>
       <c r="C221" s="28"/>
       <c r="H221" s="24"/>
     </row>
-    <row r="222" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="28"/>
       <c r="C222" s="28"/>
       <c r="H222" s="24"/>
     </row>
-    <row r="223" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="28"/>
       <c r="C223" s="28"/>
       <c r="H223" s="24"/>
     </row>
-    <row r="224" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="28"/>
       <c r="C224" s="28"/>
       <c r="H224" s="24"/>
     </row>
-    <row r="225" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="28"/>
       <c r="C225" s="28"/>
       <c r="H225" s="24"/>
     </row>
-    <row r="226" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="28"/>
       <c r="C226" s="28"/>
       <c r="H226" s="24"/>
     </row>
-    <row r="227" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="28"/>
       <c r="C227" s="28"/>
       <c r="H227" s="24"/>
     </row>
-    <row r="228" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="28"/>
       <c r="C228" s="28"/>
       <c r="H228" s="24"/>
     </row>
-    <row r="229" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="28"/>
       <c r="C229" s="28"/>
       <c r="H229" s="24"/>
     </row>
-    <row r="230" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="28"/>
       <c r="C230" s="28"/>
       <c r="H230" s="24"/>
     </row>
-    <row r="231" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="28"/>
       <c r="C231" s="28"/>
       <c r="H231" s="24"/>
     </row>
-    <row r="232" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="28"/>
       <c r="C232" s="28"/>
       <c r="H232" s="24"/>
     </row>
-    <row r="233" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="28"/>
       <c r="C233" s="28"/>
       <c r="H233" s="24"/>
     </row>
-    <row r="234" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="28"/>
       <c r="C234" s="28"/>
       <c r="H234" s="24"/>
     </row>
-    <row r="235" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="28"/>
       <c r="C235" s="28"/>
       <c r="H235" s="24"/>
     </row>
-    <row r="236" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="28"/>
       <c r="C236" s="28"/>
       <c r="H236" s="24"/>
     </row>
-    <row r="237" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="28"/>
       <c r="C237" s="28"/>
       <c r="H237" s="24"/>
     </row>
-    <row r="238" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="28"/>
       <c r="C238" s="28"/>
       <c r="H238" s="24"/>
     </row>
-    <row r="239" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="28"/>
       <c r="C239" s="28"/>
       <c r="H239" s="24"/>
     </row>
-    <row r="240" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="28"/>
       <c r="C240" s="28"/>
       <c r="H240" s="24"/>
     </row>
-    <row r="241" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="28"/>
       <c r="C241" s="28"/>
       <c r="H241" s="24"/>
     </row>
-    <row r="242" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="28"/>
       <c r="C242" s="28"/>
       <c r="H242" s="24"/>
     </row>
-    <row r="243" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="28"/>
       <c r="C243" s="28"/>
       <c r="H243" s="24"/>
     </row>
-    <row r="244" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="28"/>
       <c r="C244" s="28"/>
       <c r="H244" s="24"/>
     </row>
-    <row r="245" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="28"/>
       <c r="C245" s="28"/>
       <c r="H245" s="24"/>
     </row>
-    <row r="246" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="28"/>
       <c r="C246" s="28"/>
       <c r="H246" s="24"/>
     </row>
-    <row r="247" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="28"/>
       <c r="C247" s="28"/>
       <c r="H247" s="24"/>
     </row>
-    <row r="248" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="28"/>
       <c r="C248" s="28"/>
       <c r="H248" s="24"/>
     </row>
-    <row r="249" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="28"/>
       <c r="C249" s="28"/>
       <c r="H249" s="24"/>
     </row>
-    <row r="250" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="28"/>
       <c r="C250" s="28"/>
       <c r="H250" s="24"/>
     </row>
-    <row r="251" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="28"/>
       <c r="C251" s="28"/>
       <c r="H251" s="24"/>
     </row>
-    <row r="252" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="28"/>
       <c r="C252" s="28"/>
       <c r="H252" s="24"/>
     </row>
-    <row r="253" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="28"/>
       <c r="C253" s="28"/>
       <c r="H253" s="24"/>
     </row>
-    <row r="254" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="28"/>
       <c r="C254" s="28"/>
       <c r="H254" s="24"/>
     </row>
-    <row r="255" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="28"/>
       <c r="C255" s="28"/>
       <c r="H255" s="24"/>
     </row>
-    <row r="256" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="28"/>
       <c r="C256" s="28"/>
       <c r="H256" s="24"/>
     </row>
-    <row r="257" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="28"/>
       <c r="C257" s="28"/>
       <c r="H257" s="24"/>
     </row>
-    <row r="258" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="28"/>
       <c r="C258" s="28"/>
       <c r="H258" s="24"/>
     </row>
-    <row r="259" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="28"/>
       <c r="C259" s="28"/>
       <c r="H259" s="24"/>
     </row>
-    <row r="260" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="28"/>
       <c r="C260" s="28"/>
       <c r="H260" s="24"/>
     </row>
-    <row r="261" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="28"/>
       <c r="C261" s="28"/>
       <c r="H261" s="24"/>
     </row>
-    <row r="262" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="28"/>
       <c r="C262" s="28"/>
       <c r="H262" s="24"/>
     </row>
-    <row r="263" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="28"/>
       <c r="C263" s="28"/>
       <c r="H263" s="24"/>
     </row>
-    <row r="264" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="28"/>
       <c r="C264" s="28"/>
       <c r="H264" s="24"/>
     </row>
-    <row r="265" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="28"/>
       <c r="C265" s="28"/>
       <c r="H265" s="24"/>
     </row>
-    <row r="266" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="28"/>
       <c r="C266" s="28"/>
       <c r="H266" s="24"/>
     </row>
-    <row r="267" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="28"/>
       <c r="C267" s="28"/>
       <c r="H267" s="24"/>
     </row>
-    <row r="268" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="28"/>
       <c r="C268" s="28"/>
       <c r="H268" s="24"/>
     </row>
-    <row r="269" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="28"/>
       <c r="C269" s="28"/>
       <c r="H269" s="24"/>
     </row>
-    <row r="270" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="28"/>
       <c r="C270" s="28"/>
       <c r="H270" s="24"/>
     </row>
-    <row r="271" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="28"/>
       <c r="C271" s="28"/>
       <c r="H271" s="24"/>
     </row>
-    <row r="272" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="28"/>
       <c r="C272" s="28"/>
       <c r="H272" s="24"/>
     </row>
-    <row r="273" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="28"/>
       <c r="C273" s="28"/>
       <c r="H273" s="24"/>
     </row>
-    <row r="274" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="28"/>
       <c r="C274" s="28"/>
       <c r="H274" s="24"/>
     </row>
-    <row r="275" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="28"/>
       <c r="C275" s="28"/>
       <c r="H275" s="24"/>
     </row>
-    <row r="276" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="28"/>
       <c r="C276" s="28"/>
       <c r="H276" s="24"/>
     </row>
-    <row r="277" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="28"/>
       <c r="C277" s="28"/>
       <c r="H277" s="24"/>
     </row>
-    <row r="278" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="28"/>
       <c r="C278" s="28"/>
       <c r="H278" s="24"/>
     </row>
-    <row r="279" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="28"/>
       <c r="C279" s="28"/>
       <c r="H279" s="24"/>
     </row>
-    <row r="280" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="28"/>
       <c r="C280" s="28"/>
       <c r="H280" s="24"/>
     </row>
-    <row r="281" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="28"/>
       <c r="C281" s="28"/>
       <c r="H281" s="24"/>
     </row>
-    <row r="282" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="28"/>
       <c r="C282" s="28"/>
       <c r="H282" s="24"/>
     </row>
-    <row r="283" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="28"/>
       <c r="C283" s="28"/>
       <c r="H283" s="24"/>
     </row>
-    <row r="284" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="28"/>
       <c r="C284" s="28"/>
       <c r="H284" s="24"/>
     </row>
-    <row r="285" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="28"/>
       <c r="C285" s="28"/>
       <c r="H285" s="24"/>
     </row>
-    <row r="286" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="28"/>
       <c r="C286" s="28"/>
       <c r="H286" s="24"/>
     </row>
-    <row r="287" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="28"/>
       <c r="C287" s="28"/>
       <c r="H287" s="24"/>
     </row>
-    <row r="288" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="28"/>
       <c r="C288" s="28"/>
       <c r="H288" s="24"/>
     </row>
-    <row r="289" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="28"/>
       <c r="C289" s="28"/>
       <c r="H289" s="24"/>
     </row>
-    <row r="290" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="28"/>
       <c r="C290" s="28"/>
       <c r="H290" s="24"/>
     </row>
-    <row r="291" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="28"/>
       <c r="C291" s="28"/>
       <c r="H291" s="24"/>
     </row>
-    <row r="292" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="28"/>
       <c r="C292" s="28"/>
       <c r="H292" s="24"/>
     </row>
-    <row r="293" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="28"/>
       <c r="C293" s="28"/>
       <c r="H293" s="24"/>
     </row>
-    <row r="294" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="28"/>
       <c r="C294" s="28"/>
       <c r="H294" s="24"/>
     </row>
-    <row r="295" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="28"/>
       <c r="C295" s="28"/>
       <c r="H295" s="24"/>
     </row>
-    <row r="296" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="28"/>
       <c r="C296" s="28"/>
       <c r="H296" s="24"/>
     </row>
-    <row r="297" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="28"/>
       <c r="C297" s="28"/>
       <c r="H297" s="24"/>
     </row>
-    <row r="298" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="28"/>
       <c r="C298" s="28"/>
       <c r="H298" s="24"/>
     </row>
-    <row r="299" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="28"/>
       <c r="C299" s="28"/>
       <c r="H299" s="24"/>
     </row>
-    <row r="300" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="28"/>
       <c r="C300" s="28"/>
       <c r="H300" s="24"/>
     </row>
-    <row r="301" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="28"/>
       <c r="C301" s="28"/>
       <c r="H301" s="24"/>
     </row>
-    <row r="302" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="28"/>
       <c r="C302" s="28"/>
       <c r="H302" s="24"/>
     </row>
-    <row r="303" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="28"/>
       <c r="C303" s="28"/>
       <c r="H303" s="24"/>
     </row>
-    <row r="304" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="28"/>
       <c r="C304" s="28"/>
       <c r="H304" s="24"/>
     </row>
-    <row r="305" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="28"/>
       <c r="C305" s="28"/>
       <c r="H305" s="24"/>
     </row>
-    <row r="306" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="28"/>
       <c r="C306" s="28"/>
       <c r="H306" s="24"/>
     </row>
-    <row r="307" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="28"/>
       <c r="C307" s="28"/>
       <c r="H307" s="24"/>
     </row>
-    <row r="308" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="28"/>
       <c r="C308" s="28"/>
       <c r="H308" s="24"/>
     </row>
-    <row r="309" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="28"/>
       <c r="C309" s="28"/>
       <c r="H309" s="24"/>
     </row>
-    <row r="310" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="28"/>
       <c r="C310" s="28"/>
       <c r="H310" s="24"/>
     </row>
-    <row r="311" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="28"/>
       <c r="C311" s="28"/>
       <c r="H311" s="24"/>
     </row>
-    <row r="312" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="28"/>
       <c r="C312" s="28"/>
       <c r="H312" s="24"/>
     </row>
-    <row r="313" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="28"/>
       <c r="C313" s="28"/>
       <c r="H313" s="24"/>
     </row>
-    <row r="314" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="28"/>
       <c r="C314" s="28"/>
       <c r="H314" s="24"/>
     </row>
-    <row r="315" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="28"/>
       <c r="C315" s="28"/>
       <c r="H315" s="24"/>
     </row>
-    <row r="316" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="28"/>
       <c r="C316" s="28"/>
       <c r="H316" s="24"/>
     </row>
-    <row r="317" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="28"/>
       <c r="C317" s="28"/>
       <c r="H317" s="24"/>
     </row>
-    <row r="318" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="28"/>
       <c r="C318" s="28"/>
       <c r="H318" s="24"/>
     </row>
-    <row r="319" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="28"/>
       <c r="C319" s="28"/>
       <c r="H319" s="24"/>
     </row>
-    <row r="320" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B320" s="28"/>
       <c r="C320" s="28"/>
       <c r="H320" s="24"/>
     </row>
-    <row r="321" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" s="28"/>
       <c r="C321" s="28"/>
       <c r="H321" s="24"/>
     </row>
-    <row r="322" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="28"/>
       <c r="C322" s="28"/>
       <c r="H322" s="24"/>
     </row>
-    <row r="323" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="28"/>
       <c r="C323" s="28"/>
       <c r="H323" s="24"/>
     </row>
-    <row r="324" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B324" s="28"/>
       <c r="C324" s="28"/>
       <c r="H324" s="24"/>
     </row>
-    <row r="325" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="28"/>
       <c r="C325" s="28"/>
       <c r="H325" s="24"/>
     </row>
-    <row r="326" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="28"/>
       <c r="C326" s="28"/>
       <c r="H326" s="24"/>
     </row>
-    <row r="327" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="28"/>
       <c r="C327" s="28"/>
       <c r="H327" s="24"/>
     </row>
-    <row r="328" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="28"/>
       <c r="C328" s="28"/>
       <c r="H328" s="24"/>
     </row>
-    <row r="329" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="28"/>
       <c r="C329" s="28"/>
       <c r="H329" s="24"/>
     </row>
-    <row r="330" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="28"/>
       <c r="C330" s="28"/>
       <c r="H330" s="24"/>
     </row>
-    <row r="331" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="28"/>
       <c r="C331" s="28"/>
       <c r="H331" s="24"/>
     </row>
-    <row r="332" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="28"/>
       <c r="C332" s="28"/>
       <c r="H332" s="24"/>
     </row>
-    <row r="333" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="28"/>
       <c r="C333" s="28"/>
       <c r="H333" s="24"/>
     </row>
-    <row r="334" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="28"/>
       <c r="C334" s="28"/>
       <c r="H334" s="24"/>
     </row>
-    <row r="335" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="28"/>
       <c r="C335" s="28"/>
       <c r="H335" s="24"/>
     </row>
-    <row r="336" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="28"/>
       <c r="C336" s="28"/>
       <c r="H336" s="24"/>
     </row>
-    <row r="337" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="28"/>
       <c r="C337" s="28"/>
       <c r="H337" s="24"/>
     </row>
-    <row r="338" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="28"/>
       <c r="C338" s="28"/>
       <c r="H338" s="24"/>
     </row>
-    <row r="339" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="28"/>
       <c r="C339" s="28"/>
       <c r="H339" s="24"/>
     </row>
-    <row r="340" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="28"/>
       <c r="C340" s="28"/>
       <c r="H340" s="24"/>
     </row>
-    <row r="341" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="28"/>
       <c r="C341" s="28"/>
       <c r="H341" s="24"/>
     </row>
-    <row r="342" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="28"/>
       <c r="C342" s="28"/>
       <c r="H342" s="24"/>
     </row>
-    <row r="343" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="28"/>
       <c r="C343" s="28"/>
       <c r="H343" s="24"/>
     </row>
-    <row r="344" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="28"/>
       <c r="C344" s="28"/>
       <c r="H344" s="24"/>
     </row>
-    <row r="345" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="28"/>
       <c r="C345" s="28"/>
       <c r="H345" s="24"/>
     </row>
-    <row r="346" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="28"/>
       <c r="C346" s="28"/>
       <c r="H346" s="24"/>
     </row>
-    <row r="347" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="28"/>
       <c r="C347" s="28"/>
       <c r="H347" s="24"/>
     </row>
-    <row r="348" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="28"/>
       <c r="C348" s="28"/>
       <c r="H348" s="24"/>
     </row>
-    <row r="349" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="28"/>
       <c r="C349" s="28"/>
       <c r="H349" s="24"/>
     </row>
-    <row r="350" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="28"/>
       <c r="C350" s="28"/>
       <c r="H350" s="24"/>
     </row>
-    <row r="351" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B351" s="28"/>
       <c r="C351" s="28"/>
       <c r="H351" s="24"/>
     </row>
-    <row r="352" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="28"/>
       <c r="C352" s="28"/>
       <c r="H352" s="24"/>
     </row>
-    <row r="353" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="28"/>
       <c r="C353" s="28"/>
       <c r="H353" s="24"/>
     </row>
-    <row r="354" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="28"/>
       <c r="C354" s="28"/>
       <c r="H354" s="24"/>
     </row>
-    <row r="355" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="28"/>
       <c r="C355" s="28"/>
       <c r="H355" s="24"/>
     </row>
-    <row r="356" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="28"/>
       <c r="C356" s="28"/>
       <c r="H356" s="24"/>
     </row>
-    <row r="357" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="28"/>
       <c r="C357" s="28"/>
       <c r="H357" s="24"/>
     </row>
-    <row r="358" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="28"/>
       <c r="C358" s="28"/>
       <c r="H358" s="24"/>
     </row>
-    <row r="359" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="28"/>
       <c r="C359" s="28"/>
       <c r="H359" s="24"/>
     </row>
-    <row r="360" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="28"/>
       <c r="C360" s="28"/>
       <c r="H360" s="24"/>
     </row>
-    <row r="361" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="28"/>
       <c r="C361" s="28"/>
       <c r="H361" s="24"/>
     </row>
-    <row r="362" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="28"/>
       <c r="C362" s="28"/>
       <c r="H362" s="24"/>
     </row>
-    <row r="363" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="28"/>
       <c r="C363" s="28"/>
       <c r="H363" s="24"/>
     </row>
-    <row r="364" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="28"/>
       <c r="C364" s="28"/>
       <c r="H364" s="24"/>
     </row>
-    <row r="365" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="28"/>
       <c r="C365" s="28"/>
       <c r="H365" s="24"/>
     </row>
-    <row r="366" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="28"/>
       <c r="C366" s="28"/>
       <c r="H366" s="24"/>
     </row>
-    <row r="367" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="28"/>
       <c r="C367" s="28"/>
       <c r="H367" s="24"/>
     </row>
-    <row r="368" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="28"/>
       <c r="C368" s="28"/>
       <c r="H368" s="24"/>
     </row>
-    <row r="369" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="28"/>
       <c r="C369" s="28"/>
       <c r="H369" s="24"/>
     </row>
-    <row r="370" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="28"/>
       <c r="C370" s="28"/>
       <c r="H370" s="24"/>
     </row>
-    <row r="371" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="28"/>
       <c r="C371" s="28"/>
       <c r="H371" s="24"/>
     </row>
-    <row r="372" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="28"/>
       <c r="C372" s="28"/>
       <c r="H372" s="24"/>
     </row>
-    <row r="373" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="28"/>
       <c r="C373" s="28"/>
       <c r="H373" s="24"/>
     </row>
-    <row r="374" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="28"/>
       <c r="C374" s="28"/>
       <c r="H374" s="24"/>
     </row>
-    <row r="375" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="28"/>
       <c r="C375" s="28"/>
       <c r="H375" s="24"/>
     </row>
-    <row r="376" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="28"/>
       <c r="C376" s="28"/>
       <c r="H376" s="24"/>
     </row>
-    <row r="377" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B377" s="28"/>
       <c r="C377" s="28"/>
       <c r="H377" s="24"/>
     </row>
-    <row r="378" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B378" s="28"/>
       <c r="C378" s="28"/>
       <c r="H378" s="24"/>
     </row>
-    <row r="379" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B379" s="28"/>
       <c r="C379" s="28"/>
       <c r="H379" s="24"/>
     </row>
-    <row r="380" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="28"/>
       <c r="C380" s="28"/>
       <c r="H380" s="24"/>
     </row>
-    <row r="381" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B381" s="28"/>
       <c r="C381" s="28"/>
       <c r="H381" s="24"/>
     </row>
-    <row r="382" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B382" s="28"/>
       <c r="C382" s="28"/>
       <c r="H382" s="24"/>
     </row>
-    <row r="383" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="28"/>
       <c r="C383" s="28"/>
       <c r="H383" s="24"/>
     </row>
-    <row r="384" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="28"/>
       <c r="C384" s="28"/>
       <c r="H384" s="24"/>
     </row>
-    <row r="385" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="28"/>
       <c r="C385" s="28"/>
       <c r="H385" s="24"/>
     </row>
-    <row r="386" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="28"/>
       <c r="C386" s="28"/>
       <c r="H386" s="24"/>
     </row>
-    <row r="387" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="28"/>
       <c r="C387" s="28"/>
       <c r="H387" s="24"/>
     </row>
-    <row r="388" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="28"/>
       <c r="C388" s="28"/>
       <c r="H388" s="24"/>
     </row>
-    <row r="389" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="28"/>
       <c r="C389" s="28"/>
       <c r="H389" s="24"/>
     </row>
-    <row r="390" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="28"/>
       <c r="C390" s="28"/>
       <c r="H390" s="24"/>
     </row>
-    <row r="391" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="28"/>
       <c r="C391" s="28"/>
       <c r="H391" s="24"/>
     </row>
-    <row r="392" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="28"/>
       <c r="C392" s="28"/>
       <c r="H392" s="24"/>
     </row>
-    <row r="393" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="28"/>
       <c r="C393" s="28"/>
       <c r="H393" s="24"/>
     </row>
-    <row r="394" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="28"/>
       <c r="C394" s="28"/>
       <c r="H394" s="24"/>
     </row>
-    <row r="395" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="28"/>
       <c r="C395" s="28"/>
       <c r="H395" s="24"/>
     </row>
-    <row r="396" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="28"/>
       <c r="C396" s="28"/>
       <c r="H396" s="24"/>
     </row>
-    <row r="397" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="28"/>
       <c r="C397" s="28"/>
       <c r="H397" s="24"/>
     </row>
-    <row r="398" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="28"/>
       <c r="C398" s="28"/>
       <c r="H398" s="24"/>
     </row>
-    <row r="399" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="28"/>
       <c r="C399" s="28"/>
       <c r="H399" s="24"/>
     </row>
-    <row r="400" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="28"/>
       <c r="C400" s="28"/>
       <c r="H400" s="24"/>
     </row>
-    <row r="401" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="28"/>
       <c r="C401" s="28"/>
       <c r="H401" s="24"/>
     </row>
-    <row r="402" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="28"/>
       <c r="C402" s="28"/>
       <c r="H402" s="24"/>
     </row>
-    <row r="403" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B403" s="28"/>
       <c r="C403" s="28"/>
       <c r="H403" s="24"/>
     </row>
-    <row r="404" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B404" s="28"/>
       <c r="C404" s="28"/>
       <c r="H404" s="24"/>
     </row>
-    <row r="405" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B405" s="28"/>
       <c r="C405" s="28"/>
       <c r="H405" s="24"/>
     </row>
-    <row r="406" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B406" s="28"/>
       <c r="C406" s="28"/>
       <c r="H406" s="24"/>
     </row>
-    <row r="407" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B407" s="28"/>
       <c r="C407" s="28"/>
       <c r="H407" s="24"/>
     </row>
-    <row r="408" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B408" s="28"/>
       <c r="C408" s="28"/>
       <c r="H408" s="24"/>
     </row>
-    <row r="409" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B409" s="28"/>
       <c r="C409" s="28"/>
       <c r="H409" s="24"/>
     </row>
-    <row r="410" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B410" s="28"/>
       <c r="C410" s="28"/>
       <c r="H410" s="24"/>
     </row>
-    <row r="411" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B411" s="28"/>
       <c r="C411" s="28"/>
       <c r="H411" s="24"/>
     </row>
-    <row r="412" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B412" s="28"/>
       <c r="C412" s="28"/>
       <c r="H412" s="24"/>
     </row>
-    <row r="413" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B413" s="28"/>
       <c r="C413" s="28"/>
       <c r="H413" s="24"/>
     </row>
-    <row r="414" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B414" s="28"/>
       <c r="C414" s="28"/>
       <c r="H414" s="24"/>
     </row>
-    <row r="415" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B415" s="28"/>
       <c r="C415" s="28"/>
       <c r="H415" s="24"/>
     </row>
-    <row r="416" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B416" s="28"/>
       <c r="C416" s="28"/>
       <c r="H416" s="24"/>
     </row>
-    <row r="417" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B417" s="28"/>
       <c r="C417" s="28"/>
       <c r="H417" s="24"/>
     </row>
-    <row r="418" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B418" s="28"/>
       <c r="C418" s="28"/>
       <c r="H418" s="24"/>
     </row>
-    <row r="419" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B419" s="28"/>
       <c r="C419" s="28"/>
       <c r="H419" s="24"/>
     </row>
-    <row r="420" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B420" s="28"/>
       <c r="C420" s="28"/>
       <c r="H420" s="24"/>
     </row>
-    <row r="421" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B421" s="28"/>
       <c r="C421" s="28"/>
       <c r="H421" s="24"/>
     </row>
-    <row r="422" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B422" s="28"/>
       <c r="C422" s="28"/>
       <c r="H422" s="24"/>
     </row>
-    <row r="423" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B423" s="28"/>
       <c r="C423" s="28"/>
       <c r="H423" s="24"/>
     </row>
-    <row r="424" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B424" s="28"/>
       <c r="C424" s="28"/>
       <c r="H424" s="24"/>
     </row>
-    <row r="425" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B425" s="28"/>
       <c r="C425" s="28"/>
       <c r="H425" s="24"/>
     </row>
-    <row r="426" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B426" s="28"/>
       <c r="C426" s="28"/>
       <c r="H426" s="24"/>
     </row>
-    <row r="427" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B427" s="28"/>
       <c r="C427" s="28"/>
       <c r="H427" s="24"/>
     </row>
-    <row r="428" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B428" s="28"/>
       <c r="C428" s="28"/>
       <c r="H428" s="24"/>
     </row>
-    <row r="429" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B429" s="28"/>
       <c r="C429" s="28"/>
       <c r="H429" s="24"/>
     </row>
-    <row r="430" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B430" s="28"/>
       <c r="C430" s="28"/>
       <c r="H430" s="24"/>
     </row>
-    <row r="431" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B431" s="28"/>
       <c r="C431" s="28"/>
       <c r="H431" s="24"/>
     </row>
-    <row r="432" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B432" s="28"/>
       <c r="C432" s="28"/>
       <c r="H432" s="24"/>
     </row>
-    <row r="433" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B433" s="28"/>
       <c r="C433" s="28"/>
       <c r="H433" s="24"/>
     </row>
-    <row r="434" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B434" s="28"/>
       <c r="C434" s="28"/>
       <c r="H434" s="24"/>
     </row>
-    <row r="435" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B435" s="28"/>
       <c r="C435" s="28"/>
       <c r="H435" s="24"/>
     </row>
-    <row r="436" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B436" s="28"/>
       <c r="C436" s="28"/>
       <c r="H436" s="24"/>
     </row>
-    <row r="437" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B437" s="28"/>
       <c r="C437" s="28"/>
       <c r="H437" s="24"/>
     </row>
-    <row r="438" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B438" s="28"/>
       <c r="C438" s="28"/>
       <c r="H438" s="24"/>
     </row>
-    <row r="439" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B439" s="28"/>
       <c r="C439" s="28"/>
       <c r="H439" s="24"/>
     </row>
-    <row r="440" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B440" s="28"/>
       <c r="C440" s="28"/>
       <c r="H440" s="24"/>
     </row>
-    <row r="441" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B441" s="28"/>
       <c r="C441" s="28"/>
       <c r="H441" s="24"/>
     </row>
-    <row r="442" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B442" s="28"/>
       <c r="C442" s="28"/>
       <c r="H442" s="24"/>
     </row>
-    <row r="443" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B443" s="28"/>
       <c r="C443" s="28"/>
       <c r="H443" s="24"/>
     </row>
-    <row r="444" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B444" s="28"/>
       <c r="C444" s="28"/>
       <c r="H444" s="24"/>
     </row>
-    <row r="445" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B445" s="28"/>
       <c r="C445" s="28"/>
       <c r="H445" s="24"/>
     </row>
-    <row r="446" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B446" s="28"/>
       <c r="C446" s="28"/>
       <c r="H446" s="24"/>
     </row>
-    <row r="447" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B447" s="28"/>
       <c r="C447" s="28"/>
       <c r="H447" s="24"/>
     </row>
-    <row r="448" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B448" s="28"/>
       <c r="C448" s="28"/>
       <c r="H448" s="24"/>
     </row>
-    <row r="449" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B449" s="28"/>
       <c r="C449" s="28"/>
       <c r="H449" s="24"/>
     </row>
-    <row r="450" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B450" s="28"/>
       <c r="C450" s="28"/>
       <c r="H450" s="24"/>
     </row>
-    <row r="451" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B451" s="28"/>
       <c r="C451" s="28"/>
       <c r="H451" s="24"/>
     </row>
-    <row r="452" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B452" s="28"/>
       <c r="C452" s="28"/>
       <c r="H452" s="24"/>
     </row>
-    <row r="453" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B453" s="28"/>
       <c r="C453" s="28"/>
       <c r="H453" s="24"/>
     </row>
-    <row r="454" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B454" s="28"/>
       <c r="C454" s="28"/>
       <c r="H454" s="24"/>
     </row>
-    <row r="455" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B455" s="28"/>
       <c r="C455" s="28"/>
       <c r="H455" s="24"/>
     </row>
-    <row r="456" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B456" s="28"/>
       <c r="C456" s="28"/>
       <c r="H456" s="24"/>
     </row>
-    <row r="457" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B457" s="28"/>
       <c r="C457" s="28"/>
       <c r="H457" s="24"/>
     </row>
-    <row r="458" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B458" s="28"/>
       <c r="C458" s="28"/>
       <c r="H458" s="24"/>
     </row>
-    <row r="459" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B459" s="28"/>
       <c r="C459" s="28"/>
       <c r="H459" s="24"/>
     </row>
-    <row r="460" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B460" s="28"/>
       <c r="C460" s="28"/>
       <c r="H460" s="24"/>
     </row>
-    <row r="461" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B461" s="28"/>
       <c r="C461" s="28"/>
       <c r="H461" s="24"/>
     </row>
-    <row r="462" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B462" s="28"/>
       <c r="C462" s="28"/>
       <c r="H462" s="24"/>
     </row>
-    <row r="463" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B463" s="28"/>
       <c r="C463" s="28"/>
       <c r="H463" s="24"/>
     </row>
-    <row r="464" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B464" s="28"/>
       <c r="C464" s="28"/>
       <c r="H464" s="24"/>
     </row>
-    <row r="465" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B465" s="28"/>
       <c r="C465" s="28"/>
       <c r="H465" s="24"/>
     </row>
-    <row r="466" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B466" s="28"/>
       <c r="C466" s="28"/>
       <c r="H466" s="24"/>
     </row>
-    <row r="467" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B467" s="28"/>
       <c r="C467" s="28"/>
       <c r="H467" s="24"/>
     </row>
-    <row r="468" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B468" s="28"/>
       <c r="C468" s="28"/>
       <c r="H468" s="24"/>
     </row>
-    <row r="469" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B469" s="28"/>
       <c r="C469" s="28"/>
       <c r="H469" s="24"/>
     </row>
-    <row r="470" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B470" s="28"/>
       <c r="C470" s="28"/>
       <c r="H470" s="24"/>
     </row>
-    <row r="471" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B471" s="28"/>
       <c r="C471" s="28"/>
       <c r="H471" s="24"/>
     </row>
-    <row r="472" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B472" s="28"/>
       <c r="C472" s="28"/>
       <c r="H472" s="24"/>
     </row>
-    <row r="473" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B473" s="28"/>
       <c r="C473" s="28"/>
       <c r="H473" s="24"/>
     </row>
-    <row r="474" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B474" s="28"/>
       <c r="C474" s="28"/>
       <c r="H474" s="24"/>
     </row>
-    <row r="475" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B475" s="28"/>
       <c r="C475" s="28"/>
       <c r="H475" s="24"/>
     </row>
-    <row r="476" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B476" s="28"/>
       <c r="C476" s="28"/>
       <c r="H476" s="24"/>
     </row>
-    <row r="477" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B477" s="28"/>
       <c r="C477" s="28"/>
       <c r="H477" s="24"/>
     </row>
-    <row r="478" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B478" s="28"/>
       <c r="C478" s="28"/>
       <c r="H478" s="24"/>
     </row>
-    <row r="479" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B479" s="28"/>
       <c r="C479" s="28"/>
       <c r="H479" s="24"/>
     </row>
-    <row r="480" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B480" s="28"/>
       <c r="C480" s="28"/>
       <c r="H480" s="24"/>
     </row>
-    <row r="481" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B481" s="28"/>
       <c r="C481" s="28"/>
       <c r="H481" s="24"/>
     </row>
-    <row r="482" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B482" s="28"/>
       <c r="C482" s="28"/>
       <c r="H482" s="24"/>
     </row>
-    <row r="483" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B483" s="28"/>
       <c r="C483" s="28"/>
       <c r="H483" s="24"/>
     </row>
-    <row r="484" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B484" s="28"/>
       <c r="C484" s="28"/>
       <c r="H484" s="24"/>
     </row>
-    <row r="485" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B485" s="28"/>
       <c r="C485" s="28"/>
       <c r="H485" s="24"/>
     </row>
-    <row r="486" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B486" s="28"/>
       <c r="C486" s="28"/>
       <c r="H486" s="24"/>
     </row>
-    <row r="487" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B487" s="28"/>
       <c r="C487" s="28"/>
       <c r="H487" s="24"/>
     </row>
-    <row r="488" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B488" s="28"/>
       <c r="C488" s="28"/>
       <c r="H488" s="24"/>
     </row>
-    <row r="489" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B489" s="28"/>
       <c r="C489" s="28"/>
       <c r="H489" s="24"/>
     </row>
-    <row r="490" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B490" s="28"/>
       <c r="C490" s="28"/>
       <c r="H490" s="24"/>
     </row>
-    <row r="491" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B491" s="28"/>
       <c r="C491" s="28"/>
       <c r="H491" s="24"/>
     </row>
-    <row r="492" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B492" s="28"/>
       <c r="C492" s="28"/>
       <c r="H492" s="24"/>
     </row>
-    <row r="493" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B493" s="28"/>
       <c r="C493" s="28"/>
       <c r="H493" s="24"/>
     </row>
-    <row r="494" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B494" s="28"/>
       <c r="C494" s="28"/>
       <c r="H494" s="24"/>
     </row>
-    <row r="495" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B495" s="28"/>
       <c r="C495" s="28"/>
       <c r="H495" s="24"/>
     </row>
-    <row r="496" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B496" s="28"/>
       <c r="C496" s="28"/>
       <c r="H496" s="24"/>
     </row>
-    <row r="497" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B497" s="28"/>
       <c r="C497" s="28"/>
       <c r="H497" s="24"/>
     </row>
-    <row r="498" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B498" s="28"/>
       <c r="C498" s="28"/>
       <c r="H498" s="24"/>
     </row>
-    <row r="499" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B499" s="28"/>
       <c r="C499" s="28"/>
       <c r="H499" s="24"/>
     </row>
-    <row r="500" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B500" s="28"/>
       <c r="C500" s="28"/>
       <c r="H500" s="24"/>
     </row>
-    <row r="501" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B501" s="28"/>
       <c r="C501" s="28"/>
       <c r="H501" s="24"/>
     </row>
-    <row r="502" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B502" s="28"/>
       <c r="C502" s="28"/>
       <c r="H502" s="24"/>
     </row>
-    <row r="503" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B503" s="28"/>
       <c r="C503" s="28"/>
       <c r="H503" s="24"/>
     </row>
-    <row r="504" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B504" s="28"/>
       <c r="C504" s="28"/>
       <c r="H504" s="24"/>
     </row>
-    <row r="505" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B505" s="28"/>
       <c r="C505" s="28"/>
       <c r="H505" s="24"/>
     </row>
-    <row r="506" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B506" s="28"/>
       <c r="C506" s="28"/>
       <c r="H506" s="24"/>
     </row>
-    <row r="507" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B507" s="28"/>
       <c r="C507" s="28"/>
       <c r="H507" s="24"/>
     </row>
-    <row r="508" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B508" s="28"/>
       <c r="C508" s="28"/>
       <c r="H508" s="24"/>
     </row>
-    <row r="509" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B509" s="28"/>
       <c r="C509" s="28"/>
       <c r="H509" s="24"/>
     </row>
-    <row r="510" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B510" s="28"/>
       <c r="C510" s="28"/>
       <c r="H510" s="24"/>
     </row>
-    <row r="511" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B511" s="28"/>
       <c r="C511" s="28"/>
       <c r="H511" s="24"/>
     </row>
-    <row r="512" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B512" s="28"/>
       <c r="C512" s="28"/>
       <c r="H512" s="24"/>
     </row>
-    <row r="513" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B513" s="28"/>
       <c r="C513" s="28"/>
       <c r="H513" s="24"/>
     </row>
-    <row r="514" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B514" s="28"/>
       <c r="C514" s="28"/>
       <c r="H514" s="24"/>
     </row>
-    <row r="515" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B515" s="28"/>
       <c r="C515" s="28"/>
       <c r="H515" s="24"/>
     </row>
-    <row r="516" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B516" s="28"/>
       <c r="C516" s="28"/>
       <c r="H516" s="24"/>
     </row>
-    <row r="517" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B517" s="28"/>
       <c r="C517" s="28"/>
       <c r="H517" s="24"/>
     </row>
-    <row r="518" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B518" s="28"/>
       <c r="C518" s="28"/>
       <c r="H518" s="24"/>
     </row>
-    <row r="519" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B519" s="28"/>
       <c r="C519" s="28"/>
       <c r="H519" s="24"/>
     </row>
-    <row r="520" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B520" s="28"/>
       <c r="C520" s="28"/>
       <c r="H520" s="24"/>
     </row>
-    <row r="521" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B521" s="28"/>
       <c r="C521" s="28"/>
       <c r="H521" s="24"/>
     </row>
-    <row r="522" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B522" s="28"/>
       <c r="C522" s="28"/>
       <c r="H522" s="24"/>
     </row>
-    <row r="523" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B523" s="28"/>
       <c r="C523" s="28"/>
       <c r="H523" s="24"/>
     </row>
-    <row r="524" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B524" s="28"/>
       <c r="C524" s="28"/>
       <c r="H524" s="24"/>
     </row>
-    <row r="525" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B525" s="28"/>
       <c r="C525" s="28"/>
       <c r="H525" s="24"/>
     </row>
-    <row r="526" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B526" s="28"/>
       <c r="C526" s="28"/>
       <c r="H526" s="24"/>
     </row>
-    <row r="527" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B527" s="28"/>
       <c r="C527" s="28"/>
       <c r="H527" s="24"/>
     </row>
-    <row r="528" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B528" s="28"/>
       <c r="C528" s="28"/>
       <c r="H528" s="24"/>
     </row>
-    <row r="529" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B529" s="28"/>
       <c r="C529" s="28"/>
       <c r="H529" s="24"/>
     </row>
-    <row r="530" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B530" s="28"/>
       <c r="C530" s="28"/>
       <c r="H530" s="24"/>
     </row>
-    <row r="531" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B531" s="28"/>
       <c r="C531" s="28"/>
       <c r="H531" s="24"/>
     </row>
-    <row r="532" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B532" s="28"/>
       <c r="C532" s="28"/>
       <c r="H532" s="24"/>
     </row>
-    <row r="533" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B533" s="28"/>
       <c r="C533" s="28"/>
       <c r="H533" s="24"/>
     </row>
-    <row r="534" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B534" s="28"/>
       <c r="C534" s="28"/>
       <c r="H534" s="24"/>
     </row>
-    <row r="535" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B535" s="28"/>
       <c r="C535" s="28"/>
       <c r="H535" s="24"/>
     </row>
-    <row r="536" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B536" s="28"/>
       <c r="C536" s="28"/>
       <c r="H536" s="24"/>
     </row>
-    <row r="537" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B537" s="28"/>
       <c r="C537" s="28"/>
       <c r="H537" s="24"/>
     </row>
-    <row r="538" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B538" s="28"/>
       <c r="C538" s="28"/>
       <c r="H538" s="24"/>
     </row>
-    <row r="539" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B539" s="28"/>
       <c r="C539" s="28"/>
       <c r="H539" s="24"/>
     </row>
-    <row r="540" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B540" s="28"/>
       <c r="C540" s="28"/>
       <c r="H540" s="24"/>
     </row>
-    <row r="541" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B541" s="28"/>
       <c r="C541" s="28"/>
       <c r="H541" s="24"/>
     </row>
-    <row r="542" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B542" s="28"/>
       <c r="C542" s="28"/>
       <c r="H542" s="24"/>
     </row>
-    <row r="543" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B543" s="28"/>
       <c r="C543" s="28"/>
       <c r="H543" s="24"/>
     </row>
-    <row r="544" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B544" s="28"/>
       <c r="C544" s="28"/>
       <c r="H544" s="24"/>
     </row>
-    <row r="545" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B545" s="28"/>
       <c r="C545" s="28"/>
       <c r="H545" s="24"/>
     </row>
-    <row r="546" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B546" s="28"/>
       <c r="C546" s="28"/>
       <c r="H546" s="24"/>
     </row>
-    <row r="547" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B547" s="28"/>
       <c r="C547" s="28"/>
       <c r="H547" s="24"/>
     </row>
-    <row r="548" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B548" s="28"/>
       <c r="C548" s="28"/>
       <c r="H548" s="24"/>
     </row>
-    <row r="549" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B549" s="28"/>
       <c r="C549" s="28"/>
       <c r="H549" s="24"/>
     </row>
-    <row r="550" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B550" s="28"/>
       <c r="C550" s="28"/>
       <c r="H550" s="24"/>
     </row>
-    <row r="551" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B551" s="28"/>
       <c r="C551" s="28"/>
       <c r="H551" s="24"/>
     </row>
-    <row r="552" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B552" s="28"/>
       <c r="C552" s="28"/>
       <c r="H552" s="24"/>
     </row>
-    <row r="553" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B553" s="28"/>
       <c r="C553" s="28"/>
       <c r="H553" s="24"/>
     </row>
-    <row r="554" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B554" s="28"/>
       <c r="C554" s="28"/>
       <c r="H554" s="24"/>
     </row>
-    <row r="555" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B555" s="28"/>
       <c r="C555" s="28"/>
       <c r="H555" s="24"/>
     </row>
-    <row r="556" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B556" s="28"/>
       <c r="C556" s="28"/>
       <c r="H556" s="24"/>
     </row>
-    <row r="557" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B557" s="28"/>
       <c r="C557" s="28"/>
       <c r="H557" s="24"/>
     </row>
-    <row r="558" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B558" s="28"/>
       <c r="C558" s="28"/>
       <c r="H558" s="24"/>
     </row>
-    <row r="559" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B559" s="28"/>
       <c r="C559" s="28"/>
       <c r="H559" s="24"/>
     </row>
-    <row r="560" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B560" s="28"/>
       <c r="C560" s="28"/>
       <c r="H560" s="24"/>
     </row>
-    <row r="561" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B561" s="28"/>
       <c r="C561" s="28"/>
       <c r="H561" s="24"/>
     </row>
-    <row r="562" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B562" s="28"/>
       <c r="C562" s="28"/>
       <c r="H562" s="24"/>
     </row>
-    <row r="563" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B563" s="28"/>
       <c r="C563" s="28"/>
       <c r="H563" s="24"/>
     </row>
-    <row r="564" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B564" s="28"/>
       <c r="C564" s="28"/>
       <c r="H564" s="24"/>
     </row>
-    <row r="565" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B565" s="28"/>
       <c r="C565" s="28"/>
       <c r="H565" s="24"/>
     </row>
-    <row r="566" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B566" s="28"/>
       <c r="C566" s="28"/>
       <c r="H566" s="24"/>
     </row>
-    <row r="567" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B567" s="28"/>
       <c r="C567" s="28"/>
       <c r="H567" s="24"/>
     </row>
-    <row r="568" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B568" s="28"/>
       <c r="C568" s="28"/>
       <c r="H568" s="24"/>
     </row>
-    <row r="569" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B569" s="28"/>
       <c r="C569" s="28"/>
       <c r="H569" s="24"/>
     </row>
-    <row r="570" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B570" s="28"/>
       <c r="C570" s="28"/>
       <c r="H570" s="24"/>
     </row>
-    <row r="571" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B571" s="28"/>
       <c r="C571" s="28"/>
       <c r="H571" s="24"/>
     </row>
-    <row r="572" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B572" s="28"/>
       <c r="C572" s="28"/>
       <c r="H572" s="24"/>
     </row>
-    <row r="573" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B573" s="28"/>
       <c r="C573" s="28"/>
       <c r="H573" s="24"/>
     </row>
-    <row r="574" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B574" s="28"/>
       <c r="C574" s="28"/>
       <c r="H574" s="24"/>
     </row>
-    <row r="575" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B575" s="28"/>
       <c r="C575" s="28"/>
       <c r="H575" s="24"/>
     </row>
-    <row r="576" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B576" s="28"/>
       <c r="C576" s="28"/>
       <c r="H576" s="24"/>
     </row>
-    <row r="577" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B577" s="28"/>
       <c r="C577" s="28"/>
       <c r="H577" s="24"/>
     </row>
-    <row r="578" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B578" s="28"/>
       <c r="C578" s="28"/>
       <c r="H578" s="24"/>
     </row>
-    <row r="579" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B579" s="28"/>
       <c r="C579" s="28"/>
       <c r="H579" s="24"/>
     </row>
-    <row r="580" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B580" s="28"/>
       <c r="C580" s="28"/>
       <c r="H580" s="24"/>
     </row>
-    <row r="581" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B581" s="28"/>
       <c r="C581" s="28"/>
       <c r="H581" s="24"/>
     </row>
-    <row r="582" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B582" s="28"/>
       <c r="C582" s="28"/>
       <c r="H582" s="24"/>
     </row>
-    <row r="583" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B583" s="28"/>
       <c r="C583" s="28"/>
       <c r="H583" s="24"/>
     </row>
-    <row r="584" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B584" s="28"/>
       <c r="C584" s="28"/>
       <c r="H584" s="24"/>
     </row>
-    <row r="585" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B585" s="28"/>
       <c r="C585" s="28"/>
       <c r="H585" s="24"/>
     </row>
-    <row r="586" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B586" s="28"/>
       <c r="C586" s="28"/>
       <c r="H586" s="24"/>
     </row>
-    <row r="587" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B587" s="28"/>
       <c r="C587" s="28"/>
       <c r="H587" s="24"/>
     </row>
-    <row r="588" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B588" s="28"/>
       <c r="C588" s="28"/>
       <c r="H588" s="24"/>
     </row>
-    <row r="589" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B589" s="28"/>
       <c r="C589" s="28"/>
       <c r="H589" s="24"/>
     </row>
-    <row r="590" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B590" s="28"/>
       <c r="C590" s="28"/>
       <c r="H590" s="24"/>
     </row>
-    <row r="591" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B591" s="28"/>
       <c r="C591" s="28"/>
       <c r="H591" s="24"/>
     </row>
-    <row r="592" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B592" s="28"/>
       <c r="C592" s="28"/>
       <c r="H592" s="24"/>
     </row>
-    <row r="593" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B593" s="28"/>
       <c r="C593" s="28"/>
       <c r="H593" s="24"/>
     </row>
-    <row r="594" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B594" s="28"/>
       <c r="C594" s="28"/>
       <c r="H594" s="24"/>
     </row>
-    <row r="595" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B595" s="28"/>
       <c r="C595" s="28"/>
       <c r="H595" s="24"/>
     </row>
-    <row r="596" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B596" s="28"/>
       <c r="C596" s="28"/>
       <c r="H596" s="24"/>
     </row>
-    <row r="597" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B597" s="28"/>
       <c r="C597" s="28"/>
       <c r="H597" s="24"/>
     </row>
-    <row r="598" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B598" s="28"/>
       <c r="C598" s="28"/>
       <c r="H598" s="24"/>
     </row>
-    <row r="599" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B599" s="28"/>
       <c r="C599" s="28"/>
       <c r="H599" s="24"/>
     </row>
-    <row r="600" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B600" s="28"/>
       <c r="C600" s="28"/>
       <c r="H600" s="24"/>
     </row>
-    <row r="601" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B601" s="28"/>
       <c r="C601" s="28"/>
       <c r="H601" s="24"/>
     </row>
-    <row r="602" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B602" s="28"/>
       <c r="C602" s="28"/>
       <c r="H602" s="24"/>
     </row>
-    <row r="603" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B603" s="28"/>
       <c r="C603" s="28"/>
       <c r="H603" s="24"/>
     </row>
-    <row r="604" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B604" s="28"/>
       <c r="C604" s="28"/>
       <c r="H604" s="24"/>
     </row>
-    <row r="605" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B605" s="28"/>
       <c r="C605" s="28"/>
       <c r="H605" s="24"/>
     </row>
-    <row r="606" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B606" s="28"/>
       <c r="C606" s="28"/>
       <c r="H606" s="24"/>
     </row>
-    <row r="607" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B607" s="28"/>
       <c r="C607" s="28"/>
       <c r="H607" s="24"/>
     </row>
-    <row r="608" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B608" s="28"/>
       <c r="C608" s="28"/>
       <c r="H608" s="24"/>
     </row>
-    <row r="609" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B609" s="28"/>
       <c r="C609" s="28"/>
       <c r="H609" s="24"/>
     </row>
-    <row r="610" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B610" s="28"/>
       <c r="C610" s="28"/>
       <c r="H610" s="24"/>
     </row>
-    <row r="611" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B611" s="28"/>
       <c r="C611" s="28"/>
       <c r="H611" s="24"/>
     </row>
-    <row r="612" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B612" s="28"/>
       <c r="C612" s="28"/>
       <c r="H612" s="24"/>
     </row>
-    <row r="613" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B613" s="28"/>
       <c r="C613" s="28"/>
       <c r="H613" s="24"/>
     </row>
-    <row r="614" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B614" s="28"/>
       <c r="C614" s="28"/>
       <c r="H614" s="24"/>
     </row>
-    <row r="615" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B615" s="28"/>
       <c r="C615" s="28"/>
       <c r="H615" s="24"/>
     </row>
-    <row r="616" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B616" s="28"/>
       <c r="C616" s="28"/>
       <c r="H616" s="24"/>
     </row>
-    <row r="617" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B617" s="28"/>
       <c r="C617" s="28"/>
       <c r="H617" s="24"/>
     </row>
-    <row r="618" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B618" s="28"/>
       <c r="C618" s="28"/>
       <c r="H618" s="24"/>
     </row>
-    <row r="619" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B619" s="28"/>
       <c r="C619" s="28"/>
       <c r="H619" s="24"/>
     </row>
-    <row r="620" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B620" s="28"/>
       <c r="C620" s="28"/>
       <c r="H620" s="24"/>
     </row>
-    <row r="621" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B621" s="28"/>
       <c r="C621" s="28"/>
       <c r="H621" s="24"/>
     </row>
-    <row r="622" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B622" s="28"/>
       <c r="C622" s="28"/>
       <c r="H622" s="24"/>
     </row>
-    <row r="623" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B623" s="28"/>
       <c r="C623" s="28"/>
       <c r="H623" s="24"/>
     </row>
-    <row r="624" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B624" s="28"/>
       <c r="C624" s="28"/>
       <c r="H624" s="24"/>
     </row>
-    <row r="625" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B625" s="28"/>
       <c r="C625" s="28"/>
       <c r="H625" s="24"/>
     </row>
-    <row r="626" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B626" s="28"/>
       <c r="C626" s="28"/>
       <c r="H626" s="24"/>
     </row>
-    <row r="627" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B627" s="28"/>
       <c r="C627" s="28"/>
       <c r="H627" s="24"/>
     </row>
-    <row r="628" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B628" s="28"/>
       <c r="C628" s="28"/>
       <c r="H628" s="24"/>
     </row>
-    <row r="629" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B629" s="28"/>
       <c r="C629" s="28"/>
       <c r="H629" s="24"/>
     </row>
-    <row r="630" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B630" s="28"/>
       <c r="C630" s="28"/>
       <c r="H630" s="24"/>
     </row>
-    <row r="631" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B631" s="28"/>
       <c r="C631" s="28"/>
       <c r="H631" s="24"/>
     </row>
-    <row r="632" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B632" s="28"/>
       <c r="C632" s="28"/>
       <c r="H632" s="24"/>
     </row>
-    <row r="633" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B633" s="28"/>
       <c r="C633" s="28"/>
       <c r="H633" s="24"/>
     </row>
-    <row r="634" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B634" s="28"/>
       <c r="C634" s="28"/>
       <c r="H634" s="24"/>
     </row>
-    <row r="635" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B635" s="28"/>
       <c r="C635" s="28"/>
       <c r="H635" s="24"/>
     </row>
-    <row r="636" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B636" s="28"/>
       <c r="C636" s="28"/>
       <c r="H636" s="24"/>
     </row>
-    <row r="637" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B637" s="28"/>
       <c r="C637" s="28"/>
       <c r="H637" s="24"/>
     </row>
-    <row r="638" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B638" s="28"/>
       <c r="C638" s="28"/>
       <c r="H638" s="24"/>
     </row>
-    <row r="639" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B639" s="28"/>
       <c r="C639" s="28"/>
       <c r="H639" s="24"/>
     </row>
-    <row r="640" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B640" s="28"/>
       <c r="C640" s="28"/>
       <c r="H640" s="24"/>
     </row>
-    <row r="641" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B641" s="28"/>
       <c r="C641" s="28"/>
       <c r="H641" s="24"/>
     </row>
-    <row r="642" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B642" s="28"/>
       <c r="C642" s="28"/>
       <c r="H642" s="24"/>
     </row>
-    <row r="643" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B643" s="28"/>
       <c r="C643" s="28"/>
       <c r="H643" s="24"/>
     </row>
-    <row r="644" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B644" s="28"/>
       <c r="C644" s="28"/>
       <c r="H644" s="24"/>
     </row>
-    <row r="645" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B645" s="28"/>
       <c r="C645" s="28"/>
       <c r="H645" s="24"/>
     </row>
-    <row r="646" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B646" s="28"/>
       <c r="C646" s="28"/>
       <c r="H646" s="24"/>
     </row>
-    <row r="647" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B647" s="28"/>
       <c r="C647" s="28"/>
       <c r="H647" s="24"/>
     </row>
-    <row r="648" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B648" s="28"/>
       <c r="C648" s="28"/>
       <c r="H648" s="24"/>
     </row>
-    <row r="649" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B649" s="28"/>
       <c r="C649" s="28"/>
       <c r="H649" s="24"/>
     </row>
-    <row r="650" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B650" s="28"/>
       <c r="C650" s="28"/>
       <c r="H650" s="24"/>
     </row>
-    <row r="651" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B651" s="28"/>
       <c r="C651" s="28"/>
       <c r="H651" s="24"/>
     </row>
-    <row r="652" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B652" s="28"/>
       <c r="C652" s="28"/>
       <c r="H652" s="24"/>
     </row>
-    <row r="653" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B653" s="28"/>
       <c r="C653" s="28"/>
       <c r="H653" s="24"/>
     </row>
-    <row r="654" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B654" s="28"/>
       <c r="C654" s="28"/>
       <c r="H654" s="24"/>
     </row>
-    <row r="655" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B655" s="28"/>
       <c r="C655" s="28"/>
       <c r="H655" s="24"/>
     </row>
-    <row r="656" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B656" s="28"/>
       <c r="C656" s="28"/>
       <c r="H656" s="24"/>
     </row>
-    <row r="657" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B657" s="28"/>
       <c r="C657" s="28"/>
       <c r="H657" s="24"/>
     </row>
-    <row r="658" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B658" s="28"/>
       <c r="C658" s="28"/>
       <c r="H658" s="24"/>
     </row>
-    <row r="659" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B659" s="28"/>
       <c r="C659" s="28"/>
       <c r="H659" s="24"/>
     </row>
-    <row r="660" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B660" s="28"/>
       <c r="C660" s="28"/>
       <c r="H660" s="24"/>
     </row>
-    <row r="661" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B661" s="28"/>
       <c r="C661" s="28"/>
       <c r="H661" s="24"/>
     </row>
-    <row r="662" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B662" s="28"/>
       <c r="C662" s="28"/>
       <c r="H662" s="24"/>
     </row>
-    <row r="663" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B663" s="28"/>
       <c r="C663" s="28"/>
       <c r="H663" s="24"/>
     </row>
-    <row r="664" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B664" s="28"/>
       <c r="C664" s="28"/>
       <c r="H664" s="24"/>
     </row>
-    <row r="665" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B665" s="28"/>
       <c r="C665" s="28"/>
       <c r="H665" s="24"/>
     </row>
-    <row r="666" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B666" s="28"/>
       <c r="C666" s="28"/>
       <c r="H666" s="24"/>
     </row>
-    <row r="667" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B667" s="28"/>
       <c r="C667" s="28"/>
       <c r="H667" s="24"/>
     </row>
-    <row r="668" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B668" s="28"/>
       <c r="C668" s="28"/>
       <c r="H668" s="24"/>
     </row>
-    <row r="669" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B669" s="28"/>
       <c r="C669" s="28"/>
       <c r="H669" s="24"/>
     </row>
-    <row r="670" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B670" s="28"/>
       <c r="C670" s="28"/>
       <c r="H670" s="24"/>
     </row>
-    <row r="671" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B671" s="28"/>
       <c r="C671" s="28"/>
       <c r="H671" s="24"/>
     </row>
-    <row r="672" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B672" s="28"/>
       <c r="C672" s="28"/>
       <c r="H672" s="24"/>
     </row>
-    <row r="673" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B673" s="28"/>
       <c r="C673" s="28"/>
       <c r="H673" s="24"/>
     </row>
-    <row r="674" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B674" s="28"/>
       <c r="C674" s="28"/>
       <c r="H674" s="24"/>
     </row>
-    <row r="675" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B675" s="28"/>
       <c r="C675" s="28"/>
       <c r="H675" s="24"/>
     </row>
-    <row r="676" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B676" s="28"/>
       <c r="C676" s="28"/>
       <c r="H676" s="24"/>
     </row>
-    <row r="677" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B677" s="28"/>
       <c r="C677" s="28"/>
       <c r="H677" s="24"/>
     </row>
-    <row r="678" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B678" s="28"/>
       <c r="C678" s="28"/>
       <c r="H678" s="24"/>
     </row>
-    <row r="679" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B679" s="28"/>
       <c r="C679" s="28"/>
       <c r="H679" s="24"/>
     </row>
-    <row r="680" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B680" s="28"/>
       <c r="C680" s="28"/>
       <c r="H680" s="24"/>
     </row>
-    <row r="681" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B681" s="28"/>
       <c r="C681" s="28"/>
       <c r="H681" s="24"/>
     </row>
-    <row r="682" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B682" s="28"/>
       <c r="C682" s="28"/>
       <c r="H682" s="24"/>
     </row>
-    <row r="683" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B683" s="28"/>
       <c r="C683" s="28"/>
       <c r="H683" s="24"/>
     </row>
-    <row r="684" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B684" s="28"/>
       <c r="C684" s="28"/>
       <c r="H684" s="24"/>
     </row>
-    <row r="685" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B685" s="28"/>
       <c r="C685" s="28"/>
       <c r="H685" s="24"/>
     </row>
-    <row r="686" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B686" s="28"/>
       <c r="C686" s="28"/>
       <c r="H686" s="24"/>
     </row>
-    <row r="687" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B687" s="28"/>
       <c r="C687" s="28"/>
       <c r="H687" s="24"/>
     </row>
-    <row r="688" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B688" s="28"/>
       <c r="C688" s="28"/>
       <c r="H688" s="24"/>
     </row>
-    <row r="689" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B689" s="28"/>
       <c r="C689" s="28"/>
       <c r="H689" s="24"/>
     </row>
-    <row r="690" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B690" s="28"/>
       <c r="C690" s="28"/>
       <c r="H690" s="24"/>
     </row>
-    <row r="691" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B691" s="28"/>
       <c r="C691" s="28"/>
       <c r="H691" s="24"/>
     </row>
-    <row r="692" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B692" s="28"/>
       <c r="C692" s="28"/>
       <c r="H692" s="24"/>
     </row>
-    <row r="693" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B693" s="28"/>
       <c r="C693" s="28"/>
       <c r="H693" s="24"/>
     </row>
-    <row r="694" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B694" s="28"/>
       <c r="C694" s="28"/>
       <c r="H694" s="24"/>
     </row>
-    <row r="695" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B695" s="28"/>
       <c r="C695" s="28"/>
       <c r="H695" s="24"/>
     </row>
-    <row r="696" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B696" s="28"/>
       <c r="C696" s="28"/>
       <c r="H696" s="24"/>
     </row>
-    <row r="697" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B697" s="28"/>
       <c r="C697" s="28"/>
       <c r="H697" s="24"/>
     </row>
-    <row r="698" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B698" s="28"/>
       <c r="C698" s="28"/>
       <c r="H698" s="24"/>
     </row>
-    <row r="699" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B699" s="28"/>
       <c r="C699" s="28"/>
       <c r="H699" s="24"/>
     </row>
-    <row r="700" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B700" s="28"/>
       <c r="C700" s="28"/>
       <c r="H700" s="24"/>
     </row>
-    <row r="701" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B701" s="28"/>
       <c r="C701" s="28"/>
       <c r="H701" s="24"/>
     </row>
-    <row r="702" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B702" s="28"/>
       <c r="C702" s="28"/>
       <c r="H702" s="24"/>
     </row>
-    <row r="703" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B703" s="28"/>
       <c r="C703" s="28"/>
       <c r="H703" s="24"/>
     </row>
-    <row r="704" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B704" s="28"/>
       <c r="C704" s="28"/>
       <c r="H704" s="24"/>
     </row>
-    <row r="705" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B705" s="28"/>
       <c r="C705" s="28"/>
       <c r="H705" s="24"/>
     </row>
-    <row r="706" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B706" s="28"/>
       <c r="C706" s="28"/>
       <c r="H706" s="24"/>
     </row>
-    <row r="707" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B707" s="28"/>
       <c r="C707" s="28"/>
       <c r="H707" s="24"/>
     </row>
-    <row r="708" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B708" s="28"/>
       <c r="C708" s="28"/>
       <c r="H708" s="24"/>
     </row>
-    <row r="709" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B709" s="28"/>
       <c r="C709" s="28"/>
       <c r="H709" s="24"/>
     </row>
-    <row r="710" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B710" s="28"/>
       <c r="C710" s="28"/>
       <c r="H710" s="24"/>
     </row>
-    <row r="711" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B711" s="28"/>
       <c r="C711" s="28"/>
       <c r="H711" s="24"/>
     </row>
-    <row r="712" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B712" s="28"/>
       <c r="C712" s="28"/>
       <c r="H712" s="24"/>
     </row>
-    <row r="713" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B713" s="28"/>
       <c r="C713" s="28"/>
       <c r="H713" s="24"/>
     </row>
-    <row r="714" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B714" s="28"/>
       <c r="C714" s="28"/>
       <c r="H714" s="24"/>
     </row>
-    <row r="715" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B715" s="28"/>
       <c r="C715" s="28"/>
       <c r="H715" s="24"/>
     </row>
-    <row r="716" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B716" s="28"/>
       <c r="C716" s="28"/>
       <c r="H716" s="24"/>
     </row>
-    <row r="717" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B717" s="28"/>
       <c r="C717" s="28"/>
       <c r="H717" s="24"/>
     </row>
-    <row r="718" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B718" s="28"/>
       <c r="C718" s="28"/>
       <c r="H718" s="24"/>
     </row>
-    <row r="719" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B719" s="28"/>
       <c r="C719" s="28"/>
       <c r="H719" s="24"/>
     </row>
-    <row r="720" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B720" s="28"/>
       <c r="C720" s="28"/>
       <c r="H720" s="24"/>
     </row>
-    <row r="721" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B721" s="28"/>
       <c r="C721" s="28"/>
       <c r="H721" s="24"/>
     </row>
-    <row r="722" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B722" s="28"/>
       <c r="C722" s="28"/>
       <c r="H722" s="24"/>
     </row>
-    <row r="723" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B723" s="28"/>
       <c r="C723" s="28"/>
       <c r="H723" s="24"/>
     </row>
-    <row r="724" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B724" s="28"/>
       <c r="C724" s="28"/>
       <c r="H724" s="24"/>
     </row>
-    <row r="725" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B725" s="28"/>
       <c r="C725" s="28"/>
       <c r="H725" s="24"/>
     </row>
-    <row r="726" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B726" s="28"/>
       <c r="C726" s="28"/>
       <c r="H726" s="24"/>
     </row>
-    <row r="727" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B727" s="28"/>
       <c r="C727" s="28"/>
       <c r="H727" s="24"/>
     </row>
-    <row r="728" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B728" s="28"/>
       <c r="C728" s="28"/>
       <c r="H728" s="24"/>
     </row>
-    <row r="729" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B729" s="28"/>
       <c r="C729" s="28"/>
       <c r="H729" s="24"/>
     </row>
-    <row r="730" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B730" s="28"/>
       <c r="C730" s="28"/>
       <c r="H730" s="24"/>
     </row>
-    <row r="731" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B731" s="28"/>
       <c r="C731" s="28"/>
       <c r="H731" s="24"/>
     </row>
-    <row r="732" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B732" s="28"/>
       <c r="C732" s="28"/>
       <c r="H732" s="24"/>
     </row>
-    <row r="733" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B733" s="28"/>
       <c r="C733" s="28"/>
       <c r="H733" s="24"/>
     </row>
-    <row r="734" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B734" s="28"/>
       <c r="C734" s="28"/>
       <c r="H734" s="24"/>
     </row>
-    <row r="735" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B735" s="28"/>
       <c r="C735" s="28"/>
       <c r="H735" s="24"/>
     </row>
-    <row r="736" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B736" s="28"/>
       <c r="C736" s="28"/>
       <c r="H736" s="24"/>
     </row>
-    <row r="737" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B737" s="28"/>
       <c r="C737" s="28"/>
       <c r="H737" s="24"/>
     </row>
-    <row r="738" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B738" s="28"/>
       <c r="C738" s="28"/>
       <c r="H738" s="24"/>
     </row>
-    <row r="739" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B739" s="28"/>
       <c r="C739" s="28"/>
       <c r="H739" s="24"/>
     </row>
-    <row r="740" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B740" s="28"/>
       <c r="C740" s="28"/>
       <c r="H740" s="24"/>
     </row>
-    <row r="741" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B741" s="28"/>
       <c r="C741" s="28"/>
       <c r="H741" s="24"/>
     </row>
-    <row r="742" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B742" s="28"/>
       <c r="C742" s="28"/>
       <c r="H742" s="24"/>
     </row>
-    <row r="743" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B743" s="28"/>
       <c r="C743" s="28"/>
       <c r="H743" s="24"/>
     </row>
-    <row r="744" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B744" s="28"/>
       <c r="C744" s="28"/>
       <c r="H744" s="24"/>
     </row>
-    <row r="745" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B745" s="28"/>
       <c r="C745" s="28"/>
       <c r="H745" s="24"/>
     </row>
-    <row r="746" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B746" s="28"/>
       <c r="C746" s="28"/>
       <c r="H746" s="24"/>
     </row>
-    <row r="747" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B747" s="28"/>
       <c r="C747" s="28"/>
       <c r="H747" s="24"/>
     </row>
-    <row r="748" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B748" s="28"/>
       <c r="C748" s="28"/>
       <c r="H748" s="24"/>
     </row>
-    <row r="749" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B749" s="28"/>
       <c r="C749" s="28"/>
       <c r="H749" s="24"/>
     </row>
-    <row r="750" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B750" s="28"/>
       <c r="C750" s="28"/>
       <c r="H750" s="24"/>
     </row>
-    <row r="751" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B751" s="28"/>
       <c r="C751" s="28"/>
       <c r="H751" s="24"/>
     </row>
-    <row r="752" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B752" s="28"/>
       <c r="C752" s="28"/>
       <c r="H752" s="24"/>
     </row>
-    <row r="753" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B753" s="28"/>
       <c r="C753" s="28"/>
       <c r="H753" s="24"/>
     </row>
-    <row r="754" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B754" s="28"/>
       <c r="C754" s="28"/>
       <c r="H754" s="24"/>
     </row>
-    <row r="755" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B755" s="28"/>
       <c r="C755" s="28"/>
       <c r="H755" s="24"/>
     </row>
-    <row r="756" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B756" s="28"/>
       <c r="C756" s="28"/>
       <c r="H756" s="24"/>
     </row>
-    <row r="757" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B757" s="28"/>
       <c r="C757" s="28"/>
       <c r="H757" s="24"/>
     </row>
-    <row r="758" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B758" s="28"/>
       <c r="C758" s="28"/>
       <c r="H758" s="24"/>
     </row>
-    <row r="759" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B759" s="28"/>
       <c r="C759" s="28"/>
       <c r="H759" s="24"/>
     </row>
-    <row r="760" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B760" s="28"/>
       <c r="C760" s="28"/>
       <c r="H760" s="24"/>
     </row>
-    <row r="761" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B761" s="28"/>
       <c r="C761" s="28"/>
       <c r="H761" s="24"/>
     </row>
-    <row r="762" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B762" s="28"/>
       <c r="C762" s="28"/>
       <c r="H762" s="24"/>
     </row>
-    <row r="763" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B763" s="28"/>
       <c r="C763" s="28"/>
       <c r="H763" s="24"/>
     </row>
-    <row r="764" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B764" s="28"/>
       <c r="C764" s="28"/>
       <c r="H764" s="24"/>
     </row>
-    <row r="765" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B765" s="28"/>
       <c r="C765" s="28"/>
       <c r="H765" s="24"/>
     </row>
-    <row r="766" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B766" s="28"/>
       <c r="C766" s="28"/>
       <c r="H766" s="24"/>
     </row>
-    <row r="767" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B767" s="28"/>
       <c r="C767" s="28"/>
       <c r="H767" s="24"/>
     </row>
-    <row r="768" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B768" s="28"/>
       <c r="C768" s="28"/>
       <c r="H768" s="24"/>
     </row>
-    <row r="769" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B769" s="28"/>
       <c r="C769" s="28"/>
       <c r="H769" s="24"/>
     </row>
-    <row r="770" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B770" s="28"/>
       <c r="C770" s="28"/>
       <c r="H770" s="24"/>
     </row>
-    <row r="771" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B771" s="28"/>
       <c r="C771" s="28"/>
       <c r="H771" s="24"/>
     </row>
-    <row r="772" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B772" s="28"/>
       <c r="C772" s="28"/>
       <c r="H772" s="24"/>
     </row>
-    <row r="773" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B773" s="28"/>
       <c r="C773" s="28"/>
       <c r="H773" s="24"/>
     </row>
-    <row r="774" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B774" s="28"/>
       <c r="C774" s="28"/>
       <c r="H774" s="24"/>
     </row>
-    <row r="775" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B775" s="28"/>
       <c r="C775" s="28"/>
       <c r="H775" s="24"/>
     </row>
-    <row r="776" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B776" s="28"/>
       <c r="C776" s="28"/>
       <c r="H776" s="24"/>
     </row>
-    <row r="777" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B777" s="28"/>
       <c r="C777" s="28"/>
       <c r="H777" s="24"/>
     </row>
-    <row r="778" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B778" s="28"/>
       <c r="C778" s="28"/>
       <c r="H778" s="24"/>
     </row>
-    <row r="779" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B779" s="28"/>
       <c r="C779" s="28"/>
       <c r="H779" s="24"/>
     </row>
-    <row r="780" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B780" s="28"/>
       <c r="C780" s="28"/>
       <c r="H780" s="24"/>
     </row>
-    <row r="781" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B781" s="28"/>
       <c r="C781" s="28"/>
       <c r="H781" s="24"/>
     </row>
-    <row r="782" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B782" s="28"/>
       <c r="C782" s="28"/>
       <c r="H782" s="24"/>
     </row>
-    <row r="783" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B783" s="28"/>
       <c r="C783" s="28"/>
       <c r="H783" s="24"/>
     </row>
-    <row r="784" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B784" s="28"/>
       <c r="C784" s="28"/>
       <c r="H784" s="24"/>
     </row>
-    <row r="785" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B785" s="28"/>
       <c r="C785" s="28"/>
       <c r="H785" s="24"/>
     </row>
-    <row r="786" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B786" s="28"/>
       <c r="C786" s="28"/>
       <c r="H786" s="24"/>
     </row>
-    <row r="787" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B787" s="28"/>
       <c r="C787" s="28"/>
       <c r="H787" s="24"/>
     </row>
-    <row r="788" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B788" s="28"/>
       <c r="C788" s="28"/>
       <c r="H788" s="24"/>
     </row>
-    <row r="789" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B789" s="28"/>
       <c r="C789" s="28"/>
       <c r="H789" s="24"/>
     </row>
-    <row r="790" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B790" s="28"/>
       <c r="C790" s="28"/>
       <c r="H790" s="24"/>
     </row>
-    <row r="791" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B791" s="28"/>
       <c r="C791" s="28"/>
       <c r="H791" s="24"/>
     </row>
-    <row r="792" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B792" s="28"/>
       <c r="C792" s="28"/>
       <c r="H792" s="24"/>
     </row>
-    <row r="793" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B793" s="28"/>
       <c r="C793" s="28"/>
       <c r="H793" s="24"/>
     </row>
-    <row r="794" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B794" s="28"/>
       <c r="C794" s="28"/>
       <c r="H794" s="24"/>
     </row>
-    <row r="795" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B795" s="28"/>
       <c r="C795" s="28"/>
       <c r="H795" s="24"/>
     </row>
-    <row r="796" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B796" s="28"/>
       <c r="C796" s="28"/>
       <c r="H796" s="24"/>
     </row>
-    <row r="797" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B797" s="28"/>
       <c r="C797" s="28"/>
       <c r="H797" s="24"/>
     </row>
-    <row r="798" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B798" s="28"/>
       <c r="C798" s="28"/>
       <c r="H798" s="24"/>
     </row>
-    <row r="799" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B799" s="28"/>
       <c r="C799" s="28"/>
       <c r="H799" s="24"/>
     </row>
-    <row r="800" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B800" s="28"/>
       <c r="C800" s="28"/>
       <c r="H800" s="24"/>
     </row>
-    <row r="801" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B801" s="28"/>
       <c r="C801" s="28"/>
       <c r="H801" s="24"/>
     </row>
-    <row r="802" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B802" s="28"/>
       <c r="C802" s="28"/>
       <c r="H802" s="24"/>
     </row>
-    <row r="803" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B803" s="28"/>
       <c r="C803" s="28"/>
       <c r="H803" s="24"/>
     </row>
-    <row r="804" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B804" s="28"/>
       <c r="C804" s="28"/>
       <c r="H804" s="24"/>
     </row>
-    <row r="805" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B805" s="28"/>
       <c r="C805" s="28"/>
       <c r="H805" s="24"/>
     </row>
-    <row r="806" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B806" s="28"/>
       <c r="C806" s="28"/>
       <c r="H806" s="24"/>
     </row>
-    <row r="807" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B807" s="28"/>
       <c r="C807" s="28"/>
       <c r="H807" s="24"/>
     </row>
-    <row r="808" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B808" s="28"/>
       <c r="C808" s="28"/>
       <c r="H808" s="24"/>
     </row>
-    <row r="809" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B809" s="28"/>
       <c r="C809" s="28"/>
       <c r="H809" s="24"/>
     </row>
-    <row r="810" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B810" s="28"/>
       <c r="C810" s="28"/>
       <c r="H810" s="24"/>
     </row>
-    <row r="811" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B811" s="28"/>
       <c r="C811" s="28"/>
       <c r="H811" s="24"/>
     </row>
-    <row r="812" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B812" s="28"/>
       <c r="C812" s="28"/>
       <c r="H812" s="24"/>
     </row>
-    <row r="813" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B813" s="28"/>
       <c r="C813" s="28"/>
       <c r="H813" s="24"/>
     </row>
-    <row r="814" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B814" s="28"/>
       <c r="C814" s="28"/>
       <c r="H814" s="24"/>
     </row>
-    <row r="815" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B815" s="28"/>
       <c r="C815" s="28"/>
       <c r="H815" s="24"/>
     </row>
-    <row r="816" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B816" s="28"/>
       <c r="C816" s="28"/>
       <c r="H816" s="24"/>
     </row>
-    <row r="817" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B817" s="28"/>
       <c r="C817" s="28"/>
       <c r="H817" s="24"/>
     </row>
-    <row r="818" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B818" s="28"/>
       <c r="C818" s="28"/>
       <c r="H818" s="24"/>
     </row>
-    <row r="819" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B819" s="28"/>
       <c r="C819" s="28"/>
       <c r="H819" s="24"/>
     </row>
-    <row r="820" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B820" s="28"/>
       <c r="C820" s="28"/>
       <c r="H820" s="24"/>
     </row>
-    <row r="821" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B821" s="28"/>
       <c r="C821" s="28"/>
       <c r="H821" s="24"/>
     </row>
-    <row r="822" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B822" s="28"/>
       <c r="C822" s="28"/>
       <c r="H822" s="24"/>
     </row>
-    <row r="823" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B823" s="28"/>
       <c r="C823" s="28"/>
       <c r="H823" s="24"/>
     </row>
-    <row r="824" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B824" s="28"/>
       <c r="C824" s="28"/>
       <c r="H824" s="24"/>
     </row>
-    <row r="825" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B825" s="28"/>
       <c r="C825" s="28"/>
       <c r="H825" s="24"/>
     </row>
-    <row r="826" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B826" s="28"/>
       <c r="C826" s="28"/>
       <c r="H826" s="24"/>
     </row>
-    <row r="827" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B827" s="28"/>
       <c r="C827" s="28"/>
       <c r="H827" s="24"/>
     </row>
-    <row r="828" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B828" s="28"/>
       <c r="C828" s="28"/>
       <c r="H828" s="24"/>
     </row>
-    <row r="829" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B829" s="28"/>
       <c r="C829" s="28"/>
       <c r="H829" s="24"/>
     </row>
-    <row r="830" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B830" s="28"/>
       <c r="C830" s="28"/>
       <c r="H830" s="24"/>
     </row>
-    <row r="831" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B831" s="28"/>
       <c r="C831" s="28"/>
       <c r="H831" s="24"/>
     </row>
-    <row r="832" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B832" s="28"/>
       <c r="C832" s="28"/>
       <c r="H832" s="24"/>
     </row>
-    <row r="833" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B833" s="28"/>
       <c r="C833" s="28"/>
       <c r="H833" s="24"/>
     </row>
-    <row r="834" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B834" s="28"/>
       <c r="C834" s="28"/>
       <c r="H834" s="24"/>
     </row>
-    <row r="835" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B835" s="28"/>
       <c r="C835" s="28"/>
       <c r="H835" s="24"/>
     </row>
-    <row r="836" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B836" s="28"/>
       <c r="C836" s="28"/>
       <c r="H836" s="24"/>
     </row>
-    <row r="837" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B837" s="28"/>
       <c r="C837" s="28"/>
       <c r="H837" s="24"/>
     </row>
-    <row r="838" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B838" s="28"/>
       <c r="C838" s="28"/>
       <c r="H838" s="24"/>
     </row>
-    <row r="839" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B839" s="28"/>
       <c r="C839" s="28"/>
       <c r="H839" s="24"/>
     </row>
-    <row r="840" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B840" s="28"/>
       <c r="C840" s="28"/>
       <c r="H840" s="24"/>
     </row>
-    <row r="841" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B841" s="28"/>
       <c r="C841" s="28"/>
       <c r="H841" s="24"/>
     </row>
-    <row r="842" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B842" s="28"/>
       <c r="C842" s="28"/>
       <c r="H842" s="24"/>
     </row>
-    <row r="843" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B843" s="28"/>
       <c r="C843" s="28"/>
       <c r="H843" s="24"/>
     </row>
-    <row r="844" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B844" s="28"/>
       <c r="C844" s="28"/>
       <c r="H844" s="24"/>
     </row>
-    <row r="845" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B845" s="28"/>
       <c r="C845" s="28"/>
       <c r="H845" s="24"/>
     </row>
-    <row r="846" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B846" s="28"/>
       <c r="C846" s="28"/>
       <c r="H846" s="24"/>
     </row>
-    <row r="847" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B847" s="28"/>
       <c r="C847" s="28"/>
       <c r="H847" s="24"/>
     </row>
-    <row r="848" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B848" s="28"/>
       <c r="C848" s="28"/>
       <c r="H848" s="24"/>
     </row>
-    <row r="849" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B849" s="28"/>
       <c r="C849" s="28"/>
       <c r="H849" s="24"/>
     </row>
-    <row r="850" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B850" s="28"/>
       <c r="C850" s="28"/>
       <c r="H850" s="24"/>
     </row>
-    <row r="851" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B851" s="28"/>
       <c r="C851" s="28"/>
       <c r="H851" s="24"/>
     </row>
-    <row r="852" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B852" s="28"/>
       <c r="C852" s="28"/>
       <c r="H852" s="24"/>
     </row>
-    <row r="853" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B853" s="28"/>
       <c r="C853" s="28"/>
       <c r="H853" s="24"/>
     </row>
-    <row r="854" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B854" s="28"/>
       <c r="C854" s="28"/>
       <c r="H854" s="24"/>
     </row>
-    <row r="855" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B855" s="28"/>
       <c r="C855" s="28"/>
       <c r="H855" s="24"/>
     </row>
-    <row r="856" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B856" s="28"/>
       <c r="C856" s="28"/>
       <c r="H856" s="24"/>
     </row>
-    <row r="857" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B857" s="28"/>
       <c r="C857" s="28"/>
       <c r="H857" s="24"/>
     </row>
-    <row r="858" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B858" s="28"/>
       <c r="C858" s="28"/>
       <c r="H858" s="24"/>
     </row>
-    <row r="859" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B859" s="28"/>
       <c r="C859" s="28"/>
       <c r="H859" s="24"/>
     </row>
-    <row r="860" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B860" s="28"/>
       <c r="C860" s="28"/>
       <c r="H860" s="24"/>
     </row>
-    <row r="861" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B861" s="28"/>
       <c r="C861" s="28"/>
       <c r="H861" s="24"/>
     </row>
-    <row r="862" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B862" s="28"/>
       <c r="C862" s="28"/>
       <c r="H862" s="24"/>
     </row>
-    <row r="863" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B863" s="28"/>
       <c r="C863" s="28"/>
       <c r="H863" s="24"/>
     </row>
-    <row r="864" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B864" s="28"/>
       <c r="C864" s="28"/>
       <c r="H864" s="24"/>
     </row>
-    <row r="865" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B865" s="28"/>
       <c r="C865" s="28"/>
       <c r="H865" s="24"/>
     </row>
-    <row r="866" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B866" s="28"/>
       <c r="C866" s="28"/>
       <c r="H866" s="24"/>
     </row>
-    <row r="867" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B867" s="28"/>
       <c r="C867" s="28"/>
       <c r="H867" s="24"/>
     </row>
-    <row r="868" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B868" s="28"/>
       <c r="C868" s="28"/>
       <c r="H868" s="24"/>
     </row>
-    <row r="869" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B869" s="28"/>
       <c r="C869" s="28"/>
       <c r="H869" s="24"/>
     </row>
-    <row r="870" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B870" s="28"/>
       <c r="C870" s="28"/>
       <c r="H870" s="24"/>
     </row>
-    <row r="871" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B871" s="28"/>
       <c r="C871" s="28"/>
       <c r="H871" s="24"/>
     </row>
-    <row r="872" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B872" s="28"/>
       <c r="C872" s="28"/>
       <c r="H872" s="24"/>
     </row>
-    <row r="873" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B873" s="28"/>
       <c r="C873" s="28"/>
       <c r="H873" s="24"/>
     </row>
-    <row r="874" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B874" s="28"/>
       <c r="C874" s="28"/>
       <c r="H874" s="24"/>
     </row>
-    <row r="875" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B875" s="28"/>
       <c r="C875" s="28"/>
       <c r="H875" s="24"/>
     </row>
-    <row r="876" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B876" s="28"/>
       <c r="C876" s="28"/>
       <c r="H876" s="24"/>
     </row>
-    <row r="877" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B877" s="28"/>
       <c r="C877" s="28"/>
       <c r="H877" s="24"/>
     </row>
-    <row r="878" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B878" s="28"/>
       <c r="C878" s="28"/>
       <c r="H878" s="24"/>
     </row>
-    <row r="879" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B879" s="28"/>
       <c r="C879" s="28"/>
       <c r="H879" s="24"/>
     </row>
-    <row r="880" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B880" s="28"/>
       <c r="C880" s="28"/>
       <c r="H880" s="24"/>
     </row>
-    <row r="881" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B881" s="28"/>
       <c r="C881" s="28"/>
       <c r="H881" s="24"/>
     </row>
-    <row r="882" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B882" s="28"/>
       <c r="C882" s="28"/>
       <c r="H882" s="24"/>
     </row>
-    <row r="883" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B883" s="28"/>
       <c r="C883" s="28"/>
       <c r="H883" s="24"/>
     </row>
-    <row r="884" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B884" s="28"/>
       <c r="C884" s="28"/>
       <c r="H884" s="24"/>
     </row>
-    <row r="885" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B885" s="28"/>
       <c r="C885" s="28"/>
       <c r="H885" s="24"/>
     </row>
-    <row r="886" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B886" s="28"/>
       <c r="C886" s="28"/>
       <c r="H886" s="24"/>
     </row>
-    <row r="887" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B887" s="28"/>
       <c r="C887" s="28"/>
       <c r="H887" s="24"/>
     </row>
-    <row r="888" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B888" s="28"/>
       <c r="C888" s="28"/>
       <c r="H888" s="24"/>
     </row>
-    <row r="889" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B889" s="28"/>
       <c r="C889" s="28"/>
       <c r="H889" s="24"/>
     </row>
-    <row r="890" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B890" s="28"/>
       <c r="C890" s="28"/>
       <c r="H890" s="24"/>
     </row>
-    <row r="891" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B891" s="28"/>
       <c r="C891" s="28"/>
       <c r="H891" s="24"/>
     </row>
-    <row r="892" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B892" s="28"/>
       <c r="C892" s="28"/>
       <c r="H892" s="24"/>
     </row>
-    <row r="893" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B893" s="28"/>
       <c r="C893" s="28"/>
       <c r="H893" s="24"/>
     </row>
-    <row r="894" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B894" s="28"/>
       <c r="C894" s="28"/>
       <c r="H894" s="24"/>
     </row>
-    <row r="895" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B895" s="28"/>
       <c r="C895" s="28"/>
       <c r="H895" s="24"/>
     </row>
-    <row r="896" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B896" s="28"/>
       <c r="C896" s="28"/>
       <c r="H896" s="24"/>
     </row>
-    <row r="897" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B897" s="28"/>
       <c r="C897" s="28"/>
       <c r="H897" s="24"/>
     </row>
-    <row r="898" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B898" s="28"/>
       <c r="C898" s="28"/>
       <c r="H898" s="24"/>
     </row>
-    <row r="899" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B899" s="28"/>
       <c r="C899" s="28"/>
       <c r="H899" s="24"/>
     </row>
-    <row r="900" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B900" s="28"/>
       <c r="C900" s="28"/>
       <c r="H900" s="24"/>
     </row>
-    <row r="901" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B901" s="28"/>
       <c r="C901" s="28"/>
       <c r="H901" s="24"/>
     </row>
-    <row r="902" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B902" s="28"/>
       <c r="C902" s="28"/>
       <c r="H902" s="24"/>
     </row>
-    <row r="903" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B903" s="28"/>
       <c r="C903" s="28"/>
       <c r="H903" s="24"/>
     </row>
-    <row r="904" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B904" s="28"/>
       <c r="C904" s="28"/>
       <c r="H904" s="24"/>
     </row>
-    <row r="905" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B905" s="28"/>
       <c r="C905" s="28"/>
       <c r="H905" s="24"/>
     </row>
-    <row r="906" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B906" s="28"/>
       <c r="C906" s="28"/>
       <c r="H906" s="24"/>
     </row>
-    <row r="907" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B907" s="28"/>
       <c r="C907" s="28"/>
       <c r="H907" s="24"/>
     </row>
-    <row r="908" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B908" s="28"/>
       <c r="C908" s="28"/>
       <c r="H908" s="24"/>
     </row>
-    <row r="909" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B909" s="28"/>
       <c r="C909" s="28"/>
       <c r="H909" s="24"/>
     </row>
-    <row r="910" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B910" s="28"/>
       <c r="C910" s="28"/>
       <c r="H910" s="24"/>
     </row>
-    <row r="911" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B911" s="28"/>
       <c r="C911" s="28"/>
       <c r="H911" s="24"/>
     </row>
-    <row r="912" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B912" s="28"/>
       <c r="C912" s="28"/>
       <c r="H912" s="24"/>
     </row>
-    <row r="913" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B913" s="28"/>
       <c r="C913" s="28"/>
       <c r="H913" s="24"/>
     </row>
-    <row r="914" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B914" s="28"/>
       <c r="C914" s="28"/>
       <c r="H914" s="24"/>
     </row>
-    <row r="915" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B915" s="28"/>
       <c r="C915" s="28"/>
       <c r="H915" s="24"/>
     </row>
-    <row r="916" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B916" s="28"/>
       <c r="C916" s="28"/>
       <c r="H916" s="24"/>
     </row>
-    <row r="917" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B917" s="28"/>
       <c r="C917" s="28"/>
       <c r="H917" s="24"/>
     </row>
-    <row r="918" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B918" s="28"/>
       <c r="C918" s="28"/>
       <c r="H918" s="24"/>
     </row>
-    <row r="919" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B919" s="28"/>
       <c r="C919" s="28"/>
       <c r="H919" s="24"/>
     </row>
-    <row r="920" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B920" s="28"/>
       <c r="C920" s="28"/>
       <c r="H920" s="24"/>
     </row>
-    <row r="921" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B921" s="28"/>
       <c r="C921" s="28"/>
       <c r="H921" s="24"/>
     </row>
-    <row r="922" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B922" s="28"/>
       <c r="C922" s="28"/>
       <c r="H922" s="24"/>
     </row>
-    <row r="923" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B923" s="28"/>
       <c r="C923" s="28"/>
       <c r="H923" s="24"/>
     </row>
-    <row r="924" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B924" s="28"/>
       <c r="C924" s="28"/>
       <c r="H924" s="24"/>
     </row>
-    <row r="925" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B925" s="28"/>
       <c r="C925" s="28"/>
       <c r="H925" s="24"/>
     </row>
-    <row r="926" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B926" s="28"/>
       <c r="C926" s="28"/>
       <c r="H926" s="24"/>
     </row>
-    <row r="927" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B927" s="28"/>
       <c r="C927" s="28"/>
       <c r="H927" s="24"/>
     </row>
-    <row r="928" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B928" s="28"/>
       <c r="C928" s="28"/>
       <c r="H928" s="24"/>
     </row>
-    <row r="929" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B929" s="28"/>
       <c r="C929" s="28"/>
       <c r="H929" s="24"/>
     </row>
-    <row r="930" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B930" s="28"/>
       <c r="C930" s="28"/>
       <c r="H930" s="24"/>
     </row>
-    <row r="931" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B931" s="28"/>
       <c r="C931" s="28"/>
       <c r="H931" s="24"/>
     </row>
-    <row r="932" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B932" s="28"/>
       <c r="C932" s="28"/>
       <c r="H932" s="24"/>
     </row>
-    <row r="933" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B933" s="28"/>
       <c r="C933" s="28"/>
       <c r="H933" s="24"/>
     </row>
-    <row r="934" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B934" s="28"/>
       <c r="C934" s="28"/>
       <c r="H934" s="24"/>
     </row>
-    <row r="935" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B935" s="28"/>
       <c r="C935" s="28"/>
       <c r="H935" s="24"/>
     </row>
-    <row r="936" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B936" s="28"/>
       <c r="C936" s="28"/>
       <c r="H936" s="24"/>
     </row>
-    <row r="937" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B937" s="28"/>
       <c r="C937" s="28"/>
       <c r="H937" s="24"/>
     </row>
-    <row r="938" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B938" s="28"/>
       <c r="C938" s="28"/>
       <c r="H938" s="24"/>
     </row>
-    <row r="939" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B939" s="28"/>
       <c r="C939" s="28"/>
       <c r="H939" s="24"/>
     </row>
-    <row r="940" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B940" s="28"/>
       <c r="C940" s="28"/>
       <c r="H940" s="24"/>
     </row>
-    <row r="941" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B941" s="28"/>
       <c r="C941" s="28"/>
       <c r="H941" s="24"/>
     </row>
-    <row r="942" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B942" s="28"/>
       <c r="C942" s="28"/>
       <c r="H942" s="24"/>
     </row>
-    <row r="943" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B943" s="28"/>
       <c r="C943" s="28"/>
       <c r="H943" s="24"/>
     </row>
-    <row r="944" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B944" s="28"/>
       <c r="C944" s="28"/>
       <c r="H944" s="24"/>
     </row>
-    <row r="945" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B945" s="28"/>
       <c r="C945" s="28"/>
       <c r="H945" s="24"/>
     </row>
-    <row r="946" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B946" s="28"/>
       <c r="C946" s="28"/>
       <c r="H946" s="24"/>
     </row>
-    <row r="947" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B947" s="28"/>
       <c r="C947" s="28"/>
       <c r="H947" s="24"/>
     </row>
-    <row r="948" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B948" s="28"/>
       <c r="C948" s="28"/>
       <c r="H948" s="24"/>
     </row>
-    <row r="949" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B949" s="28"/>
       <c r="C949" s="28"/>
       <c r="H949" s="24"/>
     </row>
-    <row r="950" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B950" s="28"/>
       <c r="C950" s="28"/>
       <c r="H950" s="24"/>
     </row>
-    <row r="951" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B951" s="28"/>
       <c r="C951" s="28"/>
       <c r="H951" s="24"/>
     </row>
-    <row r="952" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B952" s="28"/>
       <c r="C952" s="28"/>
       <c r="H952" s="24"/>
     </row>
-    <row r="953" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B953" s="28"/>
       <c r="C953" s="28"/>
       <c r="H953" s="24"/>
     </row>
-    <row r="954" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B954" s="28"/>
       <c r="C954" s="28"/>
       <c r="H954" s="24"/>
     </row>
-    <row r="955" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B955" s="28"/>
       <c r="C955" s="28"/>
       <c r="H955" s="24"/>
     </row>
-    <row r="956" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B956" s="28"/>
       <c r="C956" s="28"/>
       <c r="H956" s="24"/>
     </row>
-    <row r="957" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B957" s="28"/>
       <c r="C957" s="28"/>
       <c r="H957" s="24"/>
     </row>
-    <row r="958" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B958" s="28"/>
       <c r="C958" s="28"/>
       <c r="H958" s="24"/>
     </row>
-    <row r="959" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B959" s="28"/>
       <c r="C959" s="28"/>
       <c r="H959" s="24"/>
     </row>
-    <row r="960" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B960" s="28"/>
       <c r="C960" s="28"/>
       <c r="H960" s="24"/>
     </row>
-    <row r="961" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B961" s="28"/>
       <c r="C961" s="28"/>
       <c r="H961" s="24"/>
     </row>
-    <row r="962" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B962" s="28"/>
       <c r="C962" s="28"/>
       <c r="H962" s="24"/>
     </row>
-    <row r="963" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B963" s="28"/>
       <c r="C963" s="28"/>
       <c r="H963" s="24"/>
     </row>
-    <row r="964" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B964" s="28"/>
       <c r="C964" s="28"/>
       <c r="H964" s="24"/>
     </row>
-    <row r="965" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B965" s="28"/>
       <c r="C965" s="28"/>
       <c r="H965" s="24"/>
     </row>
-    <row r="966" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B966" s="28"/>
       <c r="C966" s="28"/>
       <c r="H966" s="24"/>
     </row>
-    <row r="967" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B967" s="28"/>
       <c r="C967" s="28"/>
       <c r="H967" s="24"/>
     </row>
-    <row r="968" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B968" s="28"/>
       <c r="C968" s="28"/>
       <c r="H968" s="24"/>
     </row>
-    <row r="969" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B969" s="28"/>
       <c r="C969" s="28"/>
       <c r="H969" s="24"/>
     </row>
-    <row r="970" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B970" s="28"/>
       <c r="C970" s="28"/>
       <c r="H970" s="24"/>
     </row>
-    <row r="971" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B971" s="28"/>
       <c r="C971" s="28"/>
       <c r="H971" s="24"/>
     </row>
-    <row r="972" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B972" s="28"/>
       <c r="C972" s="28"/>
       <c r="H972" s="24"/>
     </row>
-    <row r="973" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B973" s="28"/>
       <c r="C973" s="28"/>
       <c r="H973" s="24"/>
     </row>
-    <row r="974" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B974" s="28"/>
       <c r="C974" s="28"/>
       <c r="H974" s="24"/>
     </row>
-    <row r="975" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B975" s="28"/>
       <c r="C975" s="28"/>
       <c r="H975" s="24"/>
     </row>
-    <row r="976" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B976" s="28"/>
       <c r="C976" s="28"/>
       <c r="H976" s="24"/>
     </row>
-    <row r="977" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B977" s="28"/>
       <c r="C977" s="28"/>
       <c r="H977" s="24"/>
     </row>
-    <row r="978" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B978" s="28"/>
       <c r="C978" s="28"/>
       <c r="H978" s="24"/>
     </row>
-    <row r="979" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B979" s="28"/>
       <c r="C979" s="28"/>
       <c r="H979" s="24"/>
     </row>
-    <row r="980" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B980" s="28"/>
       <c r="C980" s="28"/>
       <c r="H980" s="24"/>
     </row>
-    <row r="981" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B981" s="28"/>
       <c r="C981" s="28"/>
       <c r="H981" s="24"/>
     </row>
-    <row r="982" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B982" s="28"/>
       <c r="C982" s="28"/>
       <c r="H982" s="24"/>
     </row>
-    <row r="983" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B983" s="28"/>
       <c r="C983" s="28"/>
       <c r="H983" s="24"/>
     </row>
-    <row r="984" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B984" s="28"/>
       <c r="C984" s="28"/>
       <c r="H984" s="24"/>
     </row>
-    <row r="985" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B985" s="28"/>
       <c r="C985" s="28"/>
       <c r="H985" s="24"/>
     </row>
-    <row r="986" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B986" s="28"/>
       <c r="C986" s="28"/>
       <c r="H986" s="24"/>
     </row>
-    <row r="987" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B987" s="28"/>
       <c r="C987" s="28"/>
       <c r="H987" s="24"/>
     </row>
-    <row r="988" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B988" s="28"/>
       <c r="C988" s="28"/>
       <c r="H988" s="24"/>
     </row>
-    <row r="989" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B989" s="28"/>
       <c r="C989" s="28"/>
       <c r="H989" s="24"/>
     </row>
-    <row r="990" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B990" s="28"/>
       <c r="C990" s="28"/>
       <c r="H990" s="24"/>
     </row>
-    <row r="991" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B991" s="28"/>
       <c r="C991" s="28"/>
       <c r="H991" s="24"/>
     </row>
-    <row r="992" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B992" s="28"/>
       <c r="C992" s="28"/>
       <c r="H992" s="24"/>
     </row>
-    <row r="993" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B993" s="28"/>
       <c r="C993" s="28"/>
       <c r="H993" s="24"/>
     </row>
-    <row r="994" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B994" s="28"/>
       <c r="C994" s="28"/>
       <c r="H994" s="24"/>
     </row>
-    <row r="995" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B995" s="28"/>
       <c r="C995" s="28"/>
       <c r="H995" s="24"/>
     </row>
-    <row r="996" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B996" s="28"/>
       <c r="C996" s="28"/>
       <c r="H996" s="24"/>
     </row>
-    <row r="997" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B997" s="28"/>
       <c r="C997" s="28"/>
       <c r="H997" s="24"/>
     </row>
-    <row r="998" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B998" s="28"/>
       <c r="C998" s="28"/>
       <c r="H998" s="24"/>
     </row>
-    <row r="999" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B999" s="28"/>
       <c r="C999" s="28"/>
       <c r="H999" s="24"/>
     </row>
-    <row r="1000" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1000" s="28"/>
       <c r="C1000" s="28"/>
       <c r="H1000" s="24"/>

--- a/CH-035 Up and Down Grades.xlsx
+++ b/CH-035 Up and Down Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24001E74-D1BE-40EE-8424-315656563EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="8_{24001E74-D1BE-40EE-8424-315656563EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5145E30-6516-4FDE-8E10-AE66588874D5}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
   <si>
     <t>Question</t>
   </si>
@@ -140,6 +140,39 @@
   <si>
     <t>Let's being by creating a simple example to ensure that I understand what I am dong</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Alternative Grade Matrix</t>
+  </si>
+  <si>
+    <t>Alternative Difference Matrix</t>
+  </si>
+  <si>
+    <t>No Upgrade</t>
+  </si>
+  <si>
+    <t>No Down-Grade</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>VSTACK({"Month","Upgrade","No Upgrade","Downgrade"},HSTACK({1;2;3;4},w_1,w_2,w_3))</t>
+  </si>
 </sst>
 </file>
 
@@ -149,7 +182,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dddd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -202,6 +235,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Mono"/>
       <family val="2"/>
@@ -436,11 +495,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -525,8 +585,43 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
@@ -1029,18 +1124,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1000"/>
+  <dimension ref="A1:AF1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="6" width="12.296875" customWidth="1"/>
     <col min="7" max="7" width="5.5" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
@@ -2562,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>23</v>
       </c>
@@ -2580,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="27"/>
       <c r="C50" s="28"/>
       <c r="H50" s="24"/>
@@ -2597,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>24</v>
       </c>
@@ -2616,233 +2711,857 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="27"/>
       <c r="C52" s="28"/>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="36" cm="1">
-        <f t="array" ref="B53">_xlfn.XMATCH(_xlfn.XLOOKUP("1"&amp;"AG-01",MONTH(_nDate)&amp;_nAgent,_nGrade,,,-1),{"A+","A","B","C"})</f>
-        <v>1</v>
+        <f t="array" ref="B53">_xlfn.XMATCH(_xlfn.XLOOKUP("1"&amp;"AG-01",MONTH(_nDate)&amp;_nAgent,_nGrade,,,-1),{"C","B","A","A+"})</f>
+        <v>4</v>
       </c>
       <c r="C53" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B53)</f>
-        <v>=XMATCH(XLOOKUP("1"&amp;"AG-01",MONTH(_nDate)&amp;_nAgent,_nGrade,,,-1),{"A+","A","B","C"})</v>
+        <v>=XMATCH(XLOOKUP("1"&amp;"AG-01",MONTH(_nDate)&amp;_nAgent,_nGrade,,,-1),{"C","B","A","A+"})</v>
       </c>
       <c r="H53" s="24"/>
     </row>
-    <row r="54" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="27"/>
       <c r="C54" s="28"/>
       <c r="H54" s="24"/>
     </row>
-    <row r="55" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="27"/>
       <c r="C55" s="28"/>
       <c r="H55" s="24"/>
     </row>
-    <row r="56" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="27"/>
+    <row r="56" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="C56" s="28"/>
       <c r="H56" s="24"/>
     </row>
-    <row r="57" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
+    <row r="57" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" cm="1">
+        <f t="array" ref="B57:F61">_xlfn.DROP(_xlfn.REDUCE({0,0,0,0,0}, {12,1,2,3,4},
+        _xlfn.LAMBDA(_xlpm.i,_xlpm.x,
+                   _xlfn.LET( _xlpm.j, MOD(_xlpm.x+1, 12),
+                        _xlpm.B, MONTH(B3:B37),
+                        _xlpm.U, _xlfn.UNIQUE(C3:C37),
+                        _xlpm.F,_xlfn.LAMBDA(_xlpm.y, IFERROR(_xlfn.XMATCH(_xlfn.XLOOKUP(_xlpm.y&amp;_xlpm.U, _xlpm.B&amp;C3:C37, D3:D37,,,-1), {"C","B","A","A+"}),"")),
+                        _xlpm.M,_xlpm.F(_xlpm.x),
+                        _xlfn.VSTACK(_xlpm.i,_xlfn.TOROW(_xlpm.M))
+                      )
+               )
+         ),1)</f>
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
       <c r="H57" s="24"/>
-    </row>
-    <row r="58" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="b" cm="1">
+        <f t="array" ref="O57:S61">_xlfn.ANCHORARRAY(B57)=I57:M61</f>
+        <v>1</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>1</v>
+      </c>
+      <c r="R57" t="b">
+        <v>1</v>
+      </c>
+      <c r="S57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
       <c r="H58" s="24"/>
-    </row>
-    <row r="59" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>1</v>
+      </c>
+      <c r="R58" t="b">
+        <v>1</v>
+      </c>
+      <c r="S58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
       <c r="H59" s="24"/>
-    </row>
-    <row r="60" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="27"/>
-      <c r="C60" s="28"/>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="b">
+        <v>1</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>1</v>
+      </c>
+      <c r="R59" t="b">
+        <v>1</v>
+      </c>
+      <c r="S59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
       <c r="H60" s="24"/>
-    </row>
-    <row r="61" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="27"/>
-      <c r="C61" s="28"/>
+      <c r="I60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" t="b">
+        <v>1</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>1</v>
+      </c>
+      <c r="R60" t="b">
+        <v>1</v>
+      </c>
+      <c r="S60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
       <c r="H61" s="24"/>
-    </row>
-    <row r="62" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="27"/>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>1</v>
+      </c>
+      <c r="R61" t="b">
+        <v>1</v>
+      </c>
+      <c r="S61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="41"/>
       <c r="C62" s="28"/>
       <c r="H62" s="24"/>
     </row>
-    <row r="63" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="27"/>
       <c r="C63" s="28"/>
       <c r="H63" s="24"/>
     </row>
-    <row r="64" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="27"/>
+    <row r="64" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="40" t="s">
+        <v>27</v>
+      </c>
       <c r="C64" s="28"/>
-      <c r="H64" s="24"/>
-    </row>
-    <row r="65" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="27"/>
-      <c r="C65" s="28"/>
-      <c r="H65" s="24"/>
-    </row>
-    <row r="66" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
-      <c r="H66" s="24"/>
-    </row>
-    <row r="67" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="27"/>
-      <c r="C67" s="28"/>
-      <c r="H67" s="24"/>
-    </row>
-    <row r="68" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="27"/>
-      <c r="C68" s="28"/>
-      <c r="H68" s="24"/>
-    </row>
-    <row r="69" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
+    </row>
+    <row r="65" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" cm="1">
+        <f t="array" ref="B65:F69">_xlfn.DROP(_xlfn.REDUCE({0,0,0,0,0}, {12,1,2,3,4},
+        _xlfn.LAMBDA(_xlpm.i,_xlpm.x,
+                   _xlfn.LET( _xlpm.B, MONTH(B3:B37),
+                        _xlpm.U, _xlfn.UNIQUE(C3:C37),
+                        _xlpm.F,_xlfn.LAMBDA(_xlpm.y, IFERROR(_xlfn.XMATCH(_xlfn.XLOOKUP(_xlpm.y&amp;_xlpm.U, _xlpm.B&amp;C3:C37, D3:D37,,,-1), {"C","B","A","A+"}),"")),
+                        _xlpm.M,_xlpm.F(_xlpm.x),
+                        _xlfn.VSTACK(_xlpm.i,_xlfn.TOROW(_xlpm.M))
+                      )
+               )
+         ),1)</f>
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="str">
+        <v/>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" t="str">
+        <v/>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" t="str">
+        <v/>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
       <c r="H69" s="24"/>
     </row>
-    <row r="70" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="27"/>
+    <row r="70" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="42"/>
       <c r="C70" s="28"/>
       <c r="H70" s="24"/>
     </row>
-    <row r="71" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="27"/>
-      <c r="C71" s="28"/>
+    <row r="71" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
       <c r="H71" s="24"/>
-    </row>
-    <row r="72" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
-      <c r="H72" s="24"/>
-    </row>
-    <row r="73" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="27"/>
-      <c r="C73" s="28"/>
-      <c r="H73" s="24"/>
-    </row>
-    <row r="74" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="27"/>
-      <c r="C74" s="28"/>
-      <c r="H74" s="24"/>
-    </row>
-    <row r="75" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="27"/>
-      <c r="C75" s="28"/>
-      <c r="H75" s="24"/>
-    </row>
-    <row r="76" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
+      <c r="K71" t="s">
+        <v>5</v>
+      </c>
+      <c r="L71" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71" t="s">
+        <v>7</v>
+      </c>
+      <c r="N71" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="33">
+        <v>1</v>
+      </c>
+      <c r="R71" s="33">
+        <v>0</v>
+      </c>
+      <c r="S71" s="33">
+        <v>-1</v>
+      </c>
+      <c r="T71" s="33">
+        <v>-1</v>
+      </c>
+      <c r="U71" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="51" cm="1">
+        <f t="array" ref="B72:F75">IFERROR(_xlfn.LET( _xlpm.zz, _xlfn.LAMBDA(_xlpm.q, _xlfn.REDUCE({0},{2,3,4,5},
+              _xlfn.LAMBDA(_xlpm.i,_xlpm.y, _xlfn.LET(_xlpm.z,_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(B65),_xlpm.q),
+              _xlpm.d, IFERROR(INDEX(_xlpm.z,_xlpm.y)-_xlfn.XLOOKUP(TRUE,ISNUMBER(INDEX(_xlpm.z,_xlfn.SEQUENCE(_xlpm.y-1))),INDEX(_xlpm.z,_xlfn.SEQUENCE(_xlpm.y-1)),,,-1),""),
+              _xlfn.VSTACK(_xlpm.i,_xlpm.d))))),
+      _xlpm.yy, _xlfn.DROP(_xlfn.REDUCE({0;0;0;0;0},{1;2;3;4;5}, _xlfn.LAMBDA(_xlpm.a,_xlpm.i, _xlfn.HSTACK(_xlpm.a,_xlpm.zz(_xlpm.i)))),1,1),
+      SIGN(_xlpm.yy)),"")</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="51">
+        <v>0</v>
+      </c>
+      <c r="D72" s="51">
+        <v>-1</v>
+      </c>
+      <c r="E72" s="51">
+        <v>-1</v>
+      </c>
+      <c r="F72" s="51">
+        <v>1</v>
+      </c>
+      <c r="H72" s="53" cm="1">
+        <f t="array" ref="H72">SUM(((B72:F72)&gt;0)*(LEN(B72:F72)&gt;0))</f>
+        <v>2</v>
+      </c>
+      <c r="K72" t="s">
+        <v>30</v>
+      </c>
+      <c r="L72" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" t="s">
+        <v>30</v>
+      </c>
+      <c r="N72" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q72" s="33">
+        <v>-1</v>
+      </c>
+      <c r="R72" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="33">
+        <v>1</v>
+      </c>
+      <c r="T72" s="33">
+        <v>0</v>
+      </c>
+      <c r="U72" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="51">
+        <v>-1</v>
+      </c>
+      <c r="C73" s="51" t="str">
+        <v/>
+      </c>
+      <c r="D73" s="51">
+        <v>1</v>
+      </c>
+      <c r="E73" s="51">
+        <v>0</v>
+      </c>
+      <c r="F73" s="51">
+        <v>1</v>
+      </c>
+      <c r="H73" s="53" cm="1">
+        <f t="array" ref="H73">SUM(((B73:F73)&gt;0)*(LEN(B73:F73)&gt;0))</f>
+        <v>2</v>
+      </c>
+      <c r="K73" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" t="s">
+        <v>30</v>
+      </c>
+      <c r="N73" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q73" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="R73" s="33">
+        <v>0</v>
+      </c>
+      <c r="S73" s="33">
+        <v>-1</v>
+      </c>
+      <c r="T73" s="33">
+        <v>1</v>
+      </c>
+      <c r="U73" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="51" t="str">
+        <v/>
+      </c>
+      <c r="C74" s="51">
+        <v>0</v>
+      </c>
+      <c r="D74" s="51">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="51">
+        <v>1</v>
+      </c>
+      <c r="F74" s="51" t="str">
+        <v/>
+      </c>
+      <c r="H74" s="53" cm="1">
+        <f t="array" ref="H74">SUM(((B74:F74)&gt;0)*(LEN(B74:F74)&gt;0))</f>
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>32</v>
+      </c>
+      <c r="L74" t="s">
+        <v>30</v>
+      </c>
+      <c r="M74" t="s">
+        <v>30</v>
+      </c>
+      <c r="N74" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q74" s="33">
+        <v>1</v>
+      </c>
+      <c r="R74" s="33">
+        <v>1</v>
+      </c>
+      <c r="S74" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" s="33">
+        <v>1</v>
+      </c>
+      <c r="U74" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="52">
+        <v>1</v>
+      </c>
+      <c r="C75" s="52">
+        <v>1</v>
+      </c>
+      <c r="D75" s="51" t="str">
+        <v/>
+      </c>
+      <c r="E75" s="51">
+        <v>1</v>
+      </c>
+      <c r="F75" s="46">
+        <v>1</v>
+      </c>
+      <c r="H75" s="53" cm="1">
+        <f t="array" ref="H75">SUM(((B75:F75)&gt;0)*(LEN(B75:F75)&gt;0))</f>
+        <v>4</v>
+      </c>
+      <c r="K75" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" t="s">
+        <v>33</v>
+      </c>
+      <c r="M75" t="s">
+        <v>34</v>
+      </c>
+      <c r="N75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H76" s="24"/>
     </row>
-    <row r="77" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
+    <row r="77" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H77" s="24"/>
     </row>
-    <row r="78" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="27"/>
-      <c r="C78" s="28"/>
+    <row r="78" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="49" t="str" cm="1">
+        <f t="array" ref="B78:E82">_xlfn.LET(_xlpm.vv, _xlfn.LET( _xlpm.zz, _xlfn.LAMBDA(_xlpm.q, _xlfn.REDUCE({0},{2,3,4,5},
+              _xlfn.LAMBDA(_xlpm.i,_xlpm.y, _xlfn.LET(_xlpm.z,_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(B65),_xlpm.q),
+              _xlpm.d, IFERROR(INDEX(_xlpm.z,_xlpm.y)-_xlfn.XLOOKUP(TRUE,ISNUMBER(INDEX(_xlpm.z,_xlfn.SEQUENCE(_xlpm.y-1))),INDEX(_xlpm.z,_xlfn.SEQUENCE(_xlpm.y-1)),,,-1),""),
+              _xlfn.VSTACK(_xlpm.i,_xlpm.d))))),
+              _xlpm.yy, _xlfn.DROP(_xlfn.REDUCE({0;0;0;0;0},{1;2;3;4;5}, _xlfn.LAMBDA(_xlpm.a,_xlpm.i, _xlfn.HSTACK(_xlpm.a,_xlpm.zz(_xlpm.i)))),1,1),
+              _xlpm.yy),
+      _xlpm.w_1, _xlfn.BYROW(_xlpm.vv, _xlfn.LAMBDA(_xlpm.row, SUM(--(_xlfn._xlws.FILTER(_xlpm.row,LEN(_xlpm.row)&gt;0)&gt;0)))),
+      _xlpm.w_2, _xlfn.BYROW(_xlpm.vv, _xlfn.LAMBDA(_xlpm.row, SUM(--(_xlfn._xlws.FILTER(_xlpm.row,LEN(_xlpm.row)&gt;0)=0)))),
+      _xlpm.w_3, _xlfn.BYROW(_xlpm.vv, _xlfn.LAMBDA(_xlpm.row, SUM(--(_xlfn._xlws.FILTER(_xlpm.row,LEN(_xlpm.row)&gt;0)&lt;0)))),
+      _xlfn.VSTACK({"Month","Upgrade","No Upgrade","Downgrade"},_xlfn.HSTACK({1;2;3;4},_xlpm.w_1,_xlpm.w_2,_xlpm.w_3)))</f>
+        <v>Month</v>
+      </c>
+      <c r="C78" s="48" t="str">
+        <v>Upgrade</v>
+      </c>
+      <c r="D78" s="48" t="str">
+        <v>No Upgrade</v>
+      </c>
+      <c r="E78" s="48" t="str">
+        <v>Downgrade</v>
+      </c>
       <c r="H78" s="24"/>
-    </row>
-    <row r="79" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="27"/>
-      <c r="C79" s="28"/>
+      <c r="J78" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="50">
+        <v>1</v>
+      </c>
+      <c r="C79" s="48">
+        <v>2</v>
+      </c>
+      <c r="D79" s="47">
+        <v>1</v>
+      </c>
+      <c r="E79" s="47">
+        <v>2</v>
+      </c>
       <c r="H79" s="24"/>
     </row>
-    <row r="80" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="27"/>
-      <c r="C80" s="28"/>
+    <row r="80" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="50">
+        <v>2</v>
+      </c>
+      <c r="C80" s="48">
+        <v>2</v>
+      </c>
+      <c r="D80" s="47">
+        <v>1</v>
+      </c>
+      <c r="E80" s="47">
+        <v>1</v>
+      </c>
       <c r="H80" s="24"/>
     </row>
-    <row r="81" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
+    <row r="81" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="50">
+        <v>3</v>
+      </c>
+      <c r="C81" s="48">
+        <v>1</v>
+      </c>
+      <c r="D81" s="47">
+        <v>1</v>
+      </c>
+      <c r="E81" s="47">
+        <v>1</v>
+      </c>
       <c r="H81" s="24"/>
-    </row>
-    <row r="82" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="27"/>
-      <c r="C82" s="28"/>
+      <c r="J81" cm="1">
+        <f t="array" ref="J81:J84">_xlfn.LET(_xlpm.vv,_xlfn.ANCHORARRAY(B72),_xlfn.BYROW(_xlpm.vv, _xlfn.LAMBDA(_xlpm.row, SUM(--(_xlpm.row&gt;0)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="50">
+        <v>4</v>
+      </c>
+      <c r="C82" s="48">
+        <v>4</v>
+      </c>
+      <c r="D82" s="47">
+        <v>0</v>
+      </c>
+      <c r="E82" s="47">
+        <v>0</v>
+      </c>
       <c r="H82" s="24"/>
-    </row>
-    <row r="83" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
+      <c r="J82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
       <c r="H83" s="24"/>
-    </row>
-    <row r="84" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="27"/>
-      <c r="C84" s="28"/>
+      <c r="J83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
       <c r="H84" s="24"/>
-    </row>
-    <row r="85" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="27"/>
       <c r="C85" s="28"/>
       <c r="H85" s="24"/>
     </row>
-    <row r="86" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="27"/>
-      <c r="C86" s="28"/>
+    <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="46" t="str" cm="1">
+        <f t="array" ref="B86:E90">_xlfn.VSTACK({"Month","Upgrade","No Change","Downgrade"},_xlfn.HSTACK({1;2;3;4},_xlfn.BYROW(_xlfn.ANCHORARRAY(B72),_xlfn.LAMBDA(_xlpm.r,COUNTIF(_xlpm.r,"&gt;0"))),_xlfn.BYROW(_xlfn.ANCHORARRAY(B72),_xlfn.LAMBDA(_xlpm.r,COUNTIF(_xlpm.r,"=0"))),_xlfn.BYROW(_xlfn.ANCHORARRAY(B72),_xlfn.LAMBDA(_xlpm.r,COUNTIF(_xlpm.r,"&lt;0")))))</f>
+        <v>Month</v>
+      </c>
+      <c r="C86" s="46" t="str">
+        <v>Upgrade</v>
+      </c>
+      <c r="D86" s="46" t="str">
+        <v>No Change</v>
+      </c>
+      <c r="E86" s="46" t="str">
+        <v>Downgrade</v>
+      </c>
+      <c r="F86" s="45"/>
       <c r="H86" s="24"/>
     </row>
-    <row r="87" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="27"/>
-      <c r="C87" s="28"/>
+    <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" s="45"/>
       <c r="H87" s="24"/>
     </row>
-    <row r="88" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="27"/>
-      <c r="C88" s="28"/>
+    <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" s="45"/>
       <c r="H88" s="24"/>
     </row>
-    <row r="89" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="27"/>
-      <c r="C89" s="28"/>
+    <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="45"/>
       <c r="H89" s="24"/>
     </row>
-    <row r="90" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="27"/>
-      <c r="C90" s="28"/>
+    <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="27"/>
       <c r="C91" s="28"/>
       <c r="H91" s="24"/>
     </row>
-    <row r="92" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="27"/>
       <c r="C92" s="28"/>
       <c r="H92" s="24"/>
     </row>
-    <row r="93" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="27"/>
       <c r="C93" s="28"/>
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="27"/>
       <c r="C94" s="28"/>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="27"/>
       <c r="C95" s="28"/>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="27"/>
       <c r="C96" s="28"/>
       <c r="H96" s="24"/>
@@ -2923,47 +3642,47 @@
       <c r="H111" s="24"/>
     </row>
     <row r="112" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="28"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="28"/>
       <c r="H112" s="24"/>
     </row>
     <row r="113" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="28"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="28"/>
       <c r="H113" s="24"/>
     </row>
     <row r="114" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="28"/>
+      <c r="B114" s="27"/>
       <c r="C114" s="28"/>
       <c r="H114" s="24"/>
     </row>
     <row r="115" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="28"/>
+      <c r="B115" s="27"/>
       <c r="C115" s="28"/>
       <c r="H115" s="24"/>
     </row>
     <row r="116" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="28"/>
+      <c r="B116" s="27"/>
       <c r="C116" s="28"/>
       <c r="H116" s="24"/>
     </row>
     <row r="117" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="28"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="28"/>
       <c r="H117" s="24"/>
     </row>
     <row r="118" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="28"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="28"/>
       <c r="H118" s="24"/>
     </row>
     <row r="119" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="28"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="28"/>
       <c r="H119" s="24"/>
     </row>
     <row r="120" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="28"/>
+      <c r="B120" s="27"/>
       <c r="C120" s="28"/>
       <c r="H120" s="24"/>
     </row>
@@ -7366,6 +8085,42 @@
       <c r="B1000" s="28"/>
       <c r="C1000" s="28"/>
       <c r="H1000" s="24"/>
+    </row>
+    <row r="1001" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1001" s="28"/>
+      <c r="C1001" s="28"/>
+    </row>
+    <row r="1002" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1002" s="28"/>
+      <c r="C1002" s="28"/>
+    </row>
+    <row r="1003" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1003" s="28"/>
+      <c r="C1003" s="28"/>
+    </row>
+    <row r="1004" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1004" s="28"/>
+      <c r="C1004" s="28"/>
+    </row>
+    <row r="1005" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1005" s="28"/>
+      <c r="C1005" s="28"/>
+    </row>
+    <row r="1006" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1006" s="28"/>
+      <c r="C1006" s="28"/>
+    </row>
+    <row r="1007" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1007" s="28"/>
+      <c r="C1007" s="28"/>
+    </row>
+    <row r="1008" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1008" s="28"/>
+      <c r="C1008" s="28"/>
+    </row>
+    <row r="1009" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1009" s="28"/>
+      <c r="C1009" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/CH-035 Up and Down Grades.xlsx
+++ b/CH-035 Up and Down Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="8_{24001E74-D1BE-40EE-8424-315656563EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5145E30-6516-4FDE-8E10-AE66588874D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2764493-5776-4A5D-BE57-927CE695EFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -580,15 +580,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -596,7 +588,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -618,6 +609,14 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1126,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1146,20 +1145,20 @@
   <sheetData>
     <row r="1" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
+      <c r="H1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2738,7 +2737,7 @@
       <c r="H55" s="24"/>
     </row>
     <row r="56" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="28"/>
@@ -2997,7 +2996,7 @@
       </c>
     </row>
     <row r="62" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="41"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="28"/>
       <c r="H62" s="24"/>
     </row>
@@ -3007,7 +3006,7 @@
       <c r="H63" s="24"/>
     </row>
     <row r="64" spans="2:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="37" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="28"/>
@@ -3109,15 +3108,15 @@
       <c r="H69" s="24"/>
     </row>
     <row r="70" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="42"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="28"/>
       <c r="H70" s="24"/>
     </row>
     <row r="71" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
       <c r="H71" s="24"/>
       <c r="K71" t="s">
         <v>5</v>
@@ -3148,7 +3147,7 @@
       </c>
     </row>
     <row r="72" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="51" cm="1">
+      <c r="B72" s="46" cm="1">
         <f t="array" ref="B72:F75">IFERROR(_xlfn.LET( _xlpm.zz, _xlfn.LAMBDA(_xlpm.q, _xlfn.REDUCE({0},{2,3,4,5},
               _xlfn.LAMBDA(_xlpm.i,_xlpm.y, _xlfn.LET(_xlpm.z,_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(B65),_xlpm.q),
               _xlpm.d, IFERROR(INDEX(_xlpm.z,_xlpm.y)-_xlfn.XLOOKUP(TRUE,ISNUMBER(INDEX(_xlpm.z,_xlfn.SEQUENCE(_xlpm.y-1))),INDEX(_xlpm.z,_xlfn.SEQUENCE(_xlpm.y-1)),,,-1),""),
@@ -3157,19 +3156,19 @@
       SIGN(_xlpm.yy)),"")</f>
         <v>1</v>
       </c>
-      <c r="C72" s="51">
+      <c r="C72" s="46">
         <v>0</v>
       </c>
-      <c r="D72" s="51">
+      <c r="D72" s="46">
         <v>-1</v>
       </c>
-      <c r="E72" s="51">
+      <c r="E72" s="46">
         <v>-1</v>
       </c>
-      <c r="F72" s="51">
-        <v>1</v>
-      </c>
-      <c r="H72" s="53" cm="1">
+      <c r="F72" s="46">
+        <v>1</v>
+      </c>
+      <c r="H72" s="48" cm="1">
         <f t="array" ref="H72">SUM(((B72:F72)&gt;0)*(LEN(B72:F72)&gt;0))</f>
         <v>2</v>
       </c>
@@ -3202,22 +3201,22 @@
       </c>
     </row>
     <row r="73" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="51">
+      <c r="B73" s="46">
         <v>-1</v>
       </c>
-      <c r="C73" s="51" t="str">
+      <c r="C73" s="46" t="str">
         <v/>
       </c>
-      <c r="D73" s="51">
-        <v>1</v>
-      </c>
-      <c r="E73" s="51">
+      <c r="D73" s="46">
+        <v>1</v>
+      </c>
+      <c r="E73" s="46">
         <v>0</v>
       </c>
-      <c r="F73" s="51">
-        <v>1</v>
-      </c>
-      <c r="H73" s="53" cm="1">
+      <c r="F73" s="46">
+        <v>1</v>
+      </c>
+      <c r="H73" s="48" cm="1">
         <f t="array" ref="H73">SUM(((B73:F73)&gt;0)*(LEN(B73:F73)&gt;0))</f>
         <v>2</v>
       </c>
@@ -3250,22 +3249,22 @@
       </c>
     </row>
     <row r="74" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="51" t="str">
+      <c r="B74" s="46" t="str">
         <v/>
       </c>
-      <c r="C74" s="51">
+      <c r="C74" s="46">
         <v>0</v>
       </c>
-      <c r="D74" s="51">
+      <c r="D74" s="46">
         <v>-1</v>
       </c>
-      <c r="E74" s="51">
-        <v>1</v>
-      </c>
-      <c r="F74" s="51" t="str">
+      <c r="E74" s="46">
+        <v>1</v>
+      </c>
+      <c r="F74" s="46" t="str">
         <v/>
       </c>
-      <c r="H74" s="53" cm="1">
+      <c r="H74" s="48" cm="1">
         <f t="array" ref="H74">SUM(((B74:F74)&gt;0)*(LEN(B74:F74)&gt;0))</f>
         <v>1</v>
       </c>
@@ -3298,22 +3297,22 @@
       </c>
     </row>
     <row r="75" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="52">
-        <v>1</v>
-      </c>
-      <c r="C75" s="52">
-        <v>1</v>
-      </c>
-      <c r="D75" s="51" t="str">
+      <c r="B75" s="47">
+        <v>1</v>
+      </c>
+      <c r="C75" s="47">
+        <v>1</v>
+      </c>
+      <c r="D75" s="46" t="str">
         <v/>
       </c>
-      <c r="E75" s="51">
-        <v>1</v>
-      </c>
-      <c r="F75" s="46">
-        <v>1</v>
-      </c>
-      <c r="H75" s="53" cm="1">
+      <c r="E75" s="46">
+        <v>1</v>
+      </c>
+      <c r="F75" s="41">
+        <v>1</v>
+      </c>
+      <c r="H75" s="48" cm="1">
         <f t="array" ref="H75">SUM(((B75:F75)&gt;0)*(LEN(B75:F75)&gt;0))</f>
         <v>4</v>
       </c>
@@ -3337,8 +3336,9 @@
       <c r="H77" s="24"/>
     </row>
     <row r="78" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="49" t="str" cm="1">
-        <f t="array" ref="B78:E82">_xlfn.LET(_xlpm.vv, _xlfn.LET( _xlpm.zz, _xlfn.LAMBDA(_xlpm.q, _xlfn.REDUCE({0},{2,3,4,5},
+      <c r="B78" s="44" t="str" cm="1">
+        <f t="array" ref="B78:E82">_xlfn.LET(_xlpm.vv, _xlfn.LET(
+              _xlpm.zz, _xlfn.LAMBDA(_xlpm.q, _xlfn.REDUCE({0},{2,3,4,5},
               _xlfn.LAMBDA(_xlpm.i,_xlpm.y, _xlfn.LET(_xlpm.z,_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(B65),_xlpm.q),
               _xlpm.d, IFERROR(INDEX(_xlpm.z,_xlpm.y)-_xlfn.XLOOKUP(TRUE,ISNUMBER(INDEX(_xlpm.z,_xlfn.SEQUENCE(_xlpm.y-1))),INDEX(_xlpm.z,_xlfn.SEQUENCE(_xlpm.y-1)),,,-1),""),
               _xlfn.VSTACK(_xlpm.i,_xlpm.d))))),
@@ -3350,13 +3350,13 @@
       _xlfn.VSTACK({"Month","Upgrade","No Upgrade","Downgrade"},_xlfn.HSTACK({1;2;3;4},_xlpm.w_1,_xlpm.w_2,_xlpm.w_3)))</f>
         <v>Month</v>
       </c>
-      <c r="C78" s="48" t="str">
+      <c r="C78" s="43" t="str">
         <v>Upgrade</v>
       </c>
-      <c r="D78" s="48" t="str">
+      <c r="D78" s="43" t="str">
         <v>No Upgrade</v>
       </c>
-      <c r="E78" s="48" t="str">
+      <c r="E78" s="43" t="str">
         <v>Downgrade</v>
       </c>
       <c r="H78" s="24"/>
@@ -3365,46 +3365,46 @@
       </c>
     </row>
     <row r="79" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="50">
-        <v>1</v>
-      </c>
-      <c r="C79" s="48">
+      <c r="B79" s="45">
+        <v>1</v>
+      </c>
+      <c r="C79" s="43">
         <v>2</v>
       </c>
-      <c r="D79" s="47">
-        <v>1</v>
-      </c>
-      <c r="E79" s="47">
+      <c r="D79" s="42">
+        <v>1</v>
+      </c>
+      <c r="E79" s="42">
         <v>2</v>
       </c>
       <c r="H79" s="24"/>
     </row>
     <row r="80" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="50">
+      <c r="B80" s="45">
         <v>2</v>
       </c>
-      <c r="C80" s="48">
+      <c r="C80" s="43">
         <v>2</v>
       </c>
-      <c r="D80" s="47">
-        <v>1</v>
-      </c>
-      <c r="E80" s="47">
+      <c r="D80" s="42">
+        <v>1</v>
+      </c>
+      <c r="E80" s="42">
         <v>1</v>
       </c>
       <c r="H80" s="24"/>
     </row>
     <row r="81" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="50">
+      <c r="B81" s="45">
         <v>3</v>
       </c>
-      <c r="C81" s="48">
-        <v>1</v>
-      </c>
-      <c r="D81" s="47">
-        <v>1</v>
-      </c>
-      <c r="E81" s="47">
+      <c r="C81" s="43">
+        <v>1</v>
+      </c>
+      <c r="D81" s="42">
+        <v>1</v>
+      </c>
+      <c r="E81" s="42">
         <v>1</v>
       </c>
       <c r="H81" s="24"/>
@@ -3414,16 +3414,16 @@
       </c>
     </row>
     <row r="82" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="50">
+      <c r="B82" s="45">
         <v>4</v>
       </c>
-      <c r="C82" s="48">
+      <c r="C82" s="43">
         <v>4</v>
       </c>
-      <c r="D82" s="47">
+      <c r="D82" s="42">
         <v>0</v>
       </c>
-      <c r="E82" s="47">
+      <c r="E82" s="42">
         <v>0</v>
       </c>
       <c r="H82" s="24"/>
@@ -3432,20 +3432,20 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
       <c r="H83" s="24"/>
       <c r="J83">
         <v>3</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
       <c r="H84" s="24"/>
       <c r="J84">
         <v>5</v>
@@ -3457,20 +3457,19 @@
       <c r="H85" s="24"/>
     </row>
     <row r="86" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="46" t="str" cm="1">
+      <c r="B86" s="41" t="str" cm="1">
         <f t="array" ref="B86:E90">_xlfn.VSTACK({"Month","Upgrade","No Change","Downgrade"},_xlfn.HSTACK({1;2;3;4},_xlfn.BYROW(_xlfn.ANCHORARRAY(B72),_xlfn.LAMBDA(_xlpm.r,COUNTIF(_xlpm.r,"&gt;0"))),_xlfn.BYROW(_xlfn.ANCHORARRAY(B72),_xlfn.LAMBDA(_xlpm.r,COUNTIF(_xlpm.r,"=0"))),_xlfn.BYROW(_xlfn.ANCHORARRAY(B72),_xlfn.LAMBDA(_xlpm.r,COUNTIF(_xlpm.r,"&lt;0")))))</f>
         <v>Month</v>
       </c>
-      <c r="C86" s="46" t="str">
+      <c r="C86" s="41" t="str">
         <v>Upgrade</v>
       </c>
-      <c r="D86" s="46" t="str">
+      <c r="D86" s="41" t="str">
         <v>No Change</v>
       </c>
-      <c r="E86" s="46" t="str">
+      <c r="E86" s="41" t="str">
         <v>Downgrade</v>
       </c>
-      <c r="F86" s="45"/>
       <c r="H86" s="24"/>
     </row>
     <row r="87" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3486,7 +3485,6 @@
       <c r="E87">
         <v>2</v>
       </c>
-      <c r="F87" s="45"/>
       <c r="H87" s="24"/>
     </row>
     <row r="88" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3502,7 +3500,6 @@
       <c r="E88">
         <v>1</v>
       </c>
-      <c r="F88" s="45"/>
       <c r="H88" s="24"/>
     </row>
     <row r="89" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3518,7 +3515,6 @@
       <c r="E89">
         <v>1</v>
       </c>
-      <c r="F89" s="45"/>
       <c r="H89" s="24"/>
     </row>
     <row r="90" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3557,28 +3553,99 @@
       <c r="H94" s="24"/>
     </row>
     <row r="95" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="27"/>
-      <c r="C95" s="28"/>
+      <c r="B95" s="27" t="str" cm="1">
+        <f t="array" ref="B95:E99">_xlfn.LET(_xlpm.vv, _xlfn.LET(
+         _xlpm.tt,_xlfn.DROP(_xlfn.REDUCE({0,0,0,0,0}, {12,1,2,3,4},
+                   _xlfn.LAMBDA(_xlpm.i,_xlpm.x,
+                   _xlfn.LET( _xlpm.B, MONTH(B3:B37),
+                        _xlpm.U, _xlfn.UNIQUE(C3:C37),
+                        _xlpm.F,_xlfn.LAMBDA(_xlpm.y, IFERROR(_xlfn.XMATCH(_xlfn.XLOOKUP(_xlpm.y&amp;_xlpm.U, _xlpm.B&amp;C3:C37, D3:D37,,,-1), {"C","B","A","A+"}),"")),
+                        _xlpm.M,_xlpm.F(_xlpm.x),
+                        _xlfn.VSTACK(_xlpm.i,_xlfn.TOROW(_xlpm.M))
+                      )
+               )
+               ),1),
+              _xlpm.zz, _xlfn.LAMBDA(_xlpm.q, _xlfn.REDUCE({0},{2,3,4,5},
+              _xlfn.LAMBDA(_xlpm.i,_xlpm.y, _xlfn.LET(_xlpm.z,_xlfn.CHOOSECOLS(_xlpm.tt,_xlpm.q),
+              _xlpm.d, IFERROR(INDEX(_xlpm.z,_xlpm.y)-_xlfn.XLOOKUP(TRUE,ISNUMBER(INDEX(_xlpm.z,_xlfn.SEQUENCE(_xlpm.y-1))),INDEX(_xlpm.z,_xlfn.SEQUENCE(_xlpm.y-1)),,,-1),""),
+              _xlfn.VSTACK(_xlpm.i,_xlpm.d))))),
+              _xlpm.yy, _xlfn.DROP(_xlfn.REDUCE({0;0;0;0;0},{1;2;3;4;5}, _xlfn.LAMBDA(_xlpm.a,_xlpm.i, _xlfn.HSTACK(_xlpm.a,_xlpm.zz(_xlpm.i)))),1,1),
+              _xlpm.yy),
+      _xlpm.w_1, _xlfn.BYROW(_xlpm.vv, _xlfn.LAMBDA(_xlpm.row, SUM(--(_xlfn._xlws.FILTER(_xlpm.row,LEN(_xlpm.row)&gt;0)&gt;0)))),
+      _xlpm.w_2, _xlfn.BYROW(_xlpm.vv, _xlfn.LAMBDA(_xlpm.row, SUM(--(_xlfn._xlws.FILTER(_xlpm.row,LEN(_xlpm.row)&gt;0)=0)))),
+      _xlpm.w_3, _xlfn.BYROW(_xlpm.vv, _xlfn.LAMBDA(_xlpm.row, SUM(--(_xlfn._xlws.FILTER(_xlpm.row,LEN(_xlpm.row)&gt;0)&lt;0)))),
+      _xlfn.VSTACK({"Month","Upgrade","No Upgrade","Downgrade"},_xlfn.HSTACK({1;2;3;4},_xlpm.w_1,_xlpm.w_2,_xlpm.w_3)))</f>
+        <v>Month</v>
+      </c>
+      <c r="C95" s="28" t="str">
+        <v>Upgrade</v>
+      </c>
+      <c r="D95" t="str">
+        <v>No Upgrade</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Downgrade</v>
+      </c>
       <c r="H95" s="24"/>
     </row>
     <row r="96" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="27"/>
-      <c r="C96" s="28"/>
+      <c r="B96" s="52">
+        <v>1</v>
+      </c>
+      <c r="C96" s="28">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
       <c r="H96" s="24"/>
     </row>
     <row r="97" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="27"/>
-      <c r="C97" s="28"/>
+      <c r="B97" s="52">
+        <v>2</v>
+      </c>
+      <c r="C97" s="28">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
       <c r="H97" s="24"/>
     </row>
     <row r="98" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="27"/>
-      <c r="C98" s="28"/>
+      <c r="B98" s="52">
+        <v>3</v>
+      </c>
+      <c r="C98" s="28">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
       <c r="H98" s="24"/>
     </row>
     <row r="99" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="27"/>
-      <c r="C99" s="28"/>
+      <c r="B99" s="52">
+        <v>4</v>
+      </c>
+      <c r="C99" s="28">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
       <c r="H99" s="24"/>
     </row>
     <row r="100" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
